--- a/Calibracion termistor 104 GT-2.xlsx
+++ b/Calibracion termistor 104 GT-2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3f27cc6f0623605a/Documentos/Marlin Ian/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ARCHIVOS IMPRESORA 3D\IanMarlin-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{B737E47E-5748-4D56-8012-29C982CC165A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{08DDAC79-294C-4C61-8885-B32F4AA174B3}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64729DDC-455E-45EA-BAFF-2AEE8C2BC7EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{A08EAA92-78C6-4BC2-A345-6463F8A185EB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A08EAA92-78C6-4BC2-A345-6463F8A185EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -21,21 +21,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
   <si>
     <t>original marlin</t>
   </si>
@@ -65,6 +56,9 @@
   </si>
   <si>
     <t>TermistorUSA</t>
+  </si>
+  <si>
+    <t>DifAnt Termocupla K</t>
   </si>
 </sst>
 </file>
@@ -102,12 +96,15 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="7">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -142,7 +139,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-MX"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1862,7 +1859,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-MX"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2366,7 +2363,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-MX"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6730,7 +6727,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-MX"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -7270,525 +7267,6 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="5"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>usa!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>termocupla</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>usa!$A$2:$A$83</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="82"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>109</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>131</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>143</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>156</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>171</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>187</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>205</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>224</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>245</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>268</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>293</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>320</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>348</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>379</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>411</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>445</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>480</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>516</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>553</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>591</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>628</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>665</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>702</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>737</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>770</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>801</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>830</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>857</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>881</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>903</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>922</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>939</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>954</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>966</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>977</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>985</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>993</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>999</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>1004</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>1008</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>1012</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>1016</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>1020</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>usa!$C$2:$C$83</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="82"/>
-                <c:pt idx="5">
-                  <c:v>320</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>314</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>309</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>304</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>296</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>292</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>289</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>285</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>282</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>280</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>277</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>272</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>269</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>265</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>263</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>260</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>255</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>248</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>243</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>239</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>235</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>230</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>225</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>220</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>217</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>213</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>209</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>204</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>195</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>190</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>186</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>181</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>177</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>173</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>168</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>162</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>158</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>154</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>149</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>145</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>135</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>125</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>121</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>116</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>111</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>106</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>102</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>-5</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>-10</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>-15</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-35DB-42FC-81AB-3F3AED2338BD}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
           <c:idx val="6"/>
           <c:order val="2"/>
           <c:tx>
@@ -8290,269 +7768,6 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="7"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>usa!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>termocupla</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:trendline>
-            <c:trendlineType val="log"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>usa!$A$8:$A$41</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>109</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>120</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>usa!$C$8:$C$41</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
-                <c:pt idx="0">
-                  <c:v>314</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>309</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>304</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>296</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>292</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>289</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>285</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>282</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>280</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>277</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>272</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>269</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>265</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>263</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>260</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>255</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>248</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>243</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>239</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>235</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>230</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>225</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>220</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>217</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>213</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>209</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>204</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>195</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>190</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>186</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>181</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-35DB-42FC-81AB-3F3AED2338BD}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
           <c:idx val="2"/>
           <c:order val="4"/>
           <c:tx>
@@ -9546,37 +8761,27 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
-          <c:order val="6"/>
+          <c:idx val="3"/>
+          <c:order val="7"/>
           <c:tx>
-            <c:strRef>
-              <c:f>usa!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>termocupla</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>termocupla K</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="28575">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
-              <a:round/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>usa!$A$2:$A$33</c:f>
+              <c:f>usa!$A$2:$A$83</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -9672,96 +8877,378 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>245</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>268</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>293</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>348</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>379</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>411</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>445</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>516</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>553</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>591</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>628</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>665</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>702</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>737</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>770</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>801</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>830</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>857</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>881</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>903</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>922</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>939</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>954</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>966</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>977</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>985</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>993</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>999</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1004</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1008</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1012</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1016</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1020</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>usa!$C$2:$C$33</c:f>
+              <c:f>usa!$E$2:$E$83</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
-                <c:pt idx="5">
-                  <c:v>320</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>314</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>309</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>304</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="10">
+                <c:ptCount val="82"/>
+                <c:pt idx="0">
+                  <c:v>713</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>301</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>296</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>292</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>289</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>285</c:v>
-                </c:pt>
                 <c:pt idx="14">
-                  <c:v>282</c:v>
+                  <c:v>293</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>286</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>280</c:v>
                 </c:pt>
-                <c:pt idx="16">
-                  <c:v>277</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>272</c:v>
-                </c:pt>
                 <c:pt idx="18">
-                  <c:v>269</c:v>
+                  <c:v>275</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>265</c:v>
+                  <c:v>270</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>263</c:v>
+                  <c:v>267</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>260</c:v>
+                  <c:v>264</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>255</c:v>
+                  <c:v>259</c:v>
                 </c:pt>
                 <c:pt idx="23">
+                  <c:v>254</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>250</c:v>
                 </c:pt>
-                <c:pt idx="24">
-                  <c:v>248</c:v>
-                </c:pt>
                 <c:pt idx="25">
-                  <c:v>243</c:v>
+                  <c:v>246</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>239</c:v>
+                  <c:v>242</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>235</c:v>
+                  <c:v>237</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>230</c:v>
+                  <c:v>233</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>225</c:v>
+                  <c:v>228</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>220</c:v>
+                  <c:v>224</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>217</c:v>
+                  <c:v>219</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9769,7 +9256,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-35DB-42FC-81AB-3F3AED2338BD}"/>
+              <c16:uniqueId val="{00000001-9322-480D-9872-2830677E7057}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9783,6 +9270,1080 @@
         </c:dLbls>
         <c:axId val="1392664367"/>
         <c:axId val="1345038847"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="5"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>usa!$C$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>termocupla</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>usa!$A$2:$A$83</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="82"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>19</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>22</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>23</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>25</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>27</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>28</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>31</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>33</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>35</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>38</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>41</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>44</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>48</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>52</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>56</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>61</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>66</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>71</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>78</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>84</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>92</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>109</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>120</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>131</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>143</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>156</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>171</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>187</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>205</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>224</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>245</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>268</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>293</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>320</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>348</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>379</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>411</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>445</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>480</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>516</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>553</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>591</c:v>
+                      </c:pt>
+                      <c:pt idx="59">
+                        <c:v>628</c:v>
+                      </c:pt>
+                      <c:pt idx="60">
+                        <c:v>665</c:v>
+                      </c:pt>
+                      <c:pt idx="61">
+                        <c:v>702</c:v>
+                      </c:pt>
+                      <c:pt idx="62">
+                        <c:v>737</c:v>
+                      </c:pt>
+                      <c:pt idx="63">
+                        <c:v>770</c:v>
+                      </c:pt>
+                      <c:pt idx="64">
+                        <c:v>801</c:v>
+                      </c:pt>
+                      <c:pt idx="65">
+                        <c:v>830</c:v>
+                      </c:pt>
+                      <c:pt idx="66">
+                        <c:v>857</c:v>
+                      </c:pt>
+                      <c:pt idx="67">
+                        <c:v>881</c:v>
+                      </c:pt>
+                      <c:pt idx="68">
+                        <c:v>903</c:v>
+                      </c:pt>
+                      <c:pt idx="69">
+                        <c:v>922</c:v>
+                      </c:pt>
+                      <c:pt idx="70">
+                        <c:v>939</c:v>
+                      </c:pt>
+                      <c:pt idx="71">
+                        <c:v>954</c:v>
+                      </c:pt>
+                      <c:pt idx="72">
+                        <c:v>966</c:v>
+                      </c:pt>
+                      <c:pt idx="73">
+                        <c:v>977</c:v>
+                      </c:pt>
+                      <c:pt idx="74">
+                        <c:v>985</c:v>
+                      </c:pt>
+                      <c:pt idx="75">
+                        <c:v>993</c:v>
+                      </c:pt>
+                      <c:pt idx="76">
+                        <c:v>999</c:v>
+                      </c:pt>
+                      <c:pt idx="77">
+                        <c:v>1004</c:v>
+                      </c:pt>
+                      <c:pt idx="78">
+                        <c:v>1008</c:v>
+                      </c:pt>
+                      <c:pt idx="79">
+                        <c:v>1012</c:v>
+                      </c:pt>
+                      <c:pt idx="80">
+                        <c:v>1016</c:v>
+                      </c:pt>
+                      <c:pt idx="81">
+                        <c:v>1020</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>usa!$C$2:$C$83</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="82"/>
+                      <c:pt idx="5">
+                        <c:v>320</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>314</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>309</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>304</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>300</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>296</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>292</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>289</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>285</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>282</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>280</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>277</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>272</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>269</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>265</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>263</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>260</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>255</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>250</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>248</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>243</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>239</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>235</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>230</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>225</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>220</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>217</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>213</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>209</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>204</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>200</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>195</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>190</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>186</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>181</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>177</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>173</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>168</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>162</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>158</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>154</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>149</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>145</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>140</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>135</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>130</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>125</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>121</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>116</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>111</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>106</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>102</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>97</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>93</c:v>
+                      </c:pt>
+                      <c:pt idx="59">
+                        <c:v>88</c:v>
+                      </c:pt>
+                      <c:pt idx="60">
+                        <c:v>84</c:v>
+                      </c:pt>
+                      <c:pt idx="61">
+                        <c:v>79</c:v>
+                      </c:pt>
+                      <c:pt idx="62">
+                        <c:v>74</c:v>
+                      </c:pt>
+                      <c:pt idx="63">
+                        <c:v>69</c:v>
+                      </c:pt>
+                      <c:pt idx="64">
+                        <c:v>65</c:v>
+                      </c:pt>
+                      <c:pt idx="65">
+                        <c:v>60</c:v>
+                      </c:pt>
+                      <c:pt idx="66">
+                        <c:v>56</c:v>
+                      </c:pt>
+                      <c:pt idx="67">
+                        <c:v>51</c:v>
+                      </c:pt>
+                      <c:pt idx="68">
+                        <c:v>47</c:v>
+                      </c:pt>
+                      <c:pt idx="69">
+                        <c:v>42</c:v>
+                      </c:pt>
+                      <c:pt idx="70">
+                        <c:v>38</c:v>
+                      </c:pt>
+                      <c:pt idx="71">
+                        <c:v>33</c:v>
+                      </c:pt>
+                      <c:pt idx="72">
+                        <c:v>29</c:v>
+                      </c:pt>
+                      <c:pt idx="73">
+                        <c:v>25</c:v>
+                      </c:pt>
+                      <c:pt idx="74">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="75">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="76">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="77">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="78">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="79">
+                        <c:v>-5</c:v>
+                      </c:pt>
+                      <c:pt idx="80">
+                        <c:v>-10</c:v>
+                      </c:pt>
+                      <c:pt idx="81">
+                        <c:v>-15</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="1"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-35DB-42FC-81AB-3F3AED2338BD}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="7"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>usa!$C$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>termocupla</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:trendline>
+                  <c:trendlineType val="log"/>
+                  <c:dispRSqr val="1"/>
+                  <c:dispEq val="1"/>
+                  <c:trendlineLbl>
+                    <c:numFmt formatCode="General" sourceLinked="0"/>
+                  </c:trendlineLbl>
+                </c:trendline>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>usa!$A$8:$A$41</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="34"/>
+                      <c:pt idx="0">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>19</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>22</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>23</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>25</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>27</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>28</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>31</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>33</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>35</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>38</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>41</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>44</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>48</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>52</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>56</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>61</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>66</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>71</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>78</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>84</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>92</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>109</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>120</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>usa!$C$8:$C$41</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="34"/>
+                      <c:pt idx="0">
+                        <c:v>314</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>309</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>304</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>300</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>296</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>292</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>289</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>285</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>282</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>280</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>277</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>272</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>269</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>265</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>263</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>260</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>255</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>250</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>248</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>243</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>239</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>235</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>230</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>225</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>220</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>217</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>213</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>209</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>204</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>200</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>195</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>190</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>186</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>181</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="1"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-35DB-42FC-81AB-3F3AED2338BD}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="6"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>usa!$C$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>termocupla</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>usa!$A$2:$A$33</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="32"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>19</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>22</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>23</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>25</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>27</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>28</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>31</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>33</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>35</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>38</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>41</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>44</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>48</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>52</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>56</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>61</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>usa!$C$2:$C$33</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="32"/>
+                      <c:pt idx="5">
+                        <c:v>320</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>314</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>309</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>304</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>300</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>296</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>292</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>289</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>285</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>282</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>280</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>277</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>272</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>269</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>265</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>263</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>260</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>255</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>250</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>248</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>243</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>239</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>235</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>230</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>225</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>220</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>217</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="1"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000008-35DB-42FC-81AB-3F3AED2338BD}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
       </c:scatterChart>
       <c:valAx>
         <c:axId val="1392664367"/>
@@ -11192,16 +11753,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>19611</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>64434</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>173691</xdr:rowOff>
+      <xdr:rowOff>39221</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>357748</xdr:colOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>402571</xdr:colOff>
       <xdr:row>67</xdr:row>
-      <xdr:rowOff>173691</xdr:rowOff>
+      <xdr:rowOff>39221</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11242,10 +11803,10 @@
     <tableColumn id="5" xr3:uid="{65EF1CB1-6BBC-43AC-A72B-DA603C088E40}" name="Termometro K"/>
     <tableColumn id="6" xr3:uid="{E0BD7114-7686-4BB6-AB81-489787702221}" name="adoptado"/>
     <tableColumn id="7" xr3:uid="{64094014-E0D2-4511-A2FB-BC11E513A135}" name="IanProm"/>
-    <tableColumn id="8" xr3:uid="{964E7193-4BE8-42F2-AF01-B9F3BC796F2C}" name="Dif" dataDxfId="5">
+    <tableColumn id="8" xr3:uid="{964E7193-4BE8-42F2-AF01-B9F3BC796F2C}" name="Dif" dataDxfId="6">
       <calculatedColumnFormula>Tabla1[[#This Row],[Valor]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{2AA7AC65-A4AA-4F03-8B79-BD568DEB48B6}" name="DifAnt" dataDxfId="4">
+    <tableColumn id="9" xr3:uid="{2AA7AC65-A4AA-4F03-8B79-BD568DEB48B6}" name="DifAnt" dataDxfId="5">
       <calculatedColumnFormula>CONCATENATE("{ OV(  ",Tabla1[[#This Row],[Dif]],"), ",Tabla1[[#This Row],[IanProm]]," },")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -11254,21 +11815,21 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{829CD81E-7403-4255-A2AA-E45D28D83766}" name="Tabla13" displayName="Tabla13" ref="A1:I83" totalsRowShown="0">
-  <autoFilter ref="A1:I83" xr:uid="{F51493D3-77F3-4F43-BE10-20FD61E5E4EA}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{829CD81E-7403-4255-A2AA-E45D28D83766}" name="Tabla13" displayName="Tabla13" ref="A1:J83" totalsRowShown="0">
+  <autoFilter ref="A1:J83" xr:uid="{F51493D3-77F3-4F43-BE10-20FD61E5E4EA}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I83">
     <sortCondition ref="A1:A83"/>
   </sortState>
-  <tableColumns count="9">
+  <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{CD40BD62-504B-41F8-84C6-F832FB0AFE1F}" name="Valor"/>
     <tableColumn id="2" xr3:uid="{EFBD1770-C9CB-439E-90D5-13E06A3F722B}" name="original marlin"/>
     <tableColumn id="3" xr3:uid="{9FDD27FD-3E9E-485D-B95D-12211081E729}" name="termocupla"/>
-    <tableColumn id="4" xr3:uid="{0BE02F66-8B5D-492E-A0EB-CC00F73BE616}" name="TermistorUSA" dataDxfId="1">
+    <tableColumn id="4" xr3:uid="{0BE02F66-8B5D-492E-A0EB-CC00F73BE616}" name="TermistorUSA" dataDxfId="0">
       <calculatedColumnFormula>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{93B80CB3-20D7-4B76-9D4F-9B0B307F0392}" name="Termometro K"/>
     <tableColumn id="6" xr3:uid="{E4F52C58-EEEE-4D91-92BC-CD2EC6D332FB}" name="adoptado"/>
-    <tableColumn id="7" xr3:uid="{ED2B0AF0-48AD-45EE-950C-A77141E4628B}" name="IanProm" dataDxfId="0">
+    <tableColumn id="7" xr3:uid="{ED2B0AF0-48AD-45EE-950C-A77141E4628B}" name="IanProm" dataDxfId="4">
       <calculatedColumnFormula>Tabla13[[#This Row],[termocupla]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" xr3:uid="{4F61F1DB-ECCF-4E96-A5A0-B3595C48D2F9}" name="Dif" dataDxfId="3">
@@ -11276,6 +11837,9 @@
     </tableColumn>
     <tableColumn id="9" xr3:uid="{E4A8903A-036F-423A-9687-40B1A3D2D4FB}" name="DifAnt" dataDxfId="2">
       <calculatedColumnFormula>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Dif]],"), ",Tabla13[[#This Row],[IanProm]]," },")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{73E68F1E-C946-4E3F-9943-A57F02EC03F0}" name="DifAnt Termocupla K" dataDxfId="1">
+      <calculatedColumnFormula>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[Termometro K]]," },")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -12611,10 +13175,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C10B22CE-B10E-47F1-ACE5-C86D93104FE3}">
-  <dimension ref="A1:I83"/>
+  <dimension ref="A1:J83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7:I83"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12625,10 +13189,11 @@
     <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.7109375" customWidth="1"/>
+    <col min="10" max="10" width="23.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -12656,33 +13221,43 @@
       <c r="I1" t="s">
         <v>7</v>
       </c>
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2">
         <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
         <v>435.86</v>
+      </c>
+      <c r="E2">
+        <v>713</v>
       </c>
       <c r="G2">
         <f>Tabla13[[#This Row],[termocupla]]</f>
         <v>0</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2">
         <f>Tabla13[[#This Row],[Valor]]</f>
         <v>1</v>
       </c>
-      <c r="I2" s="1" t="str">
+      <c r="I2" t="str">
         <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Dif]],"), ",Tabla13[[#This Row],[IanProm]]," },")</f>
         <v>{ OV(  1), 0 },</v>
       </c>
+      <c r="J2" t="str">
+        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[Termometro K]]," },")</f>
+        <v>{ OV(  1), 713 },</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3">
         <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
         <v>399.06081618407251</v>
       </c>
@@ -12690,20 +13265,24 @@
         <f>Tabla13[[#This Row],[termocupla]]</f>
         <v>0</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3">
         <f>Tabla13[[#This Row],[Valor]]</f>
         <v>2</v>
       </c>
-      <c r="I3" s="1" t="str">
+      <c r="I3" t="str">
         <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Dif]],"), ",Tabla13[[#This Row],[IanProm]]," },")</f>
         <v>{ OV(  2), 0 },</v>
       </c>
+      <c r="J3" t="str">
+        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[Termometro K]]," },")</f>
+        <v>{ OV(  2),  },</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4">
         <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
         <v>377.53467359461007</v>
       </c>
@@ -12711,20 +13290,24 @@
         <f>Tabla13[[#This Row],[termocupla]]</f>
         <v>0</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4">
         <f>Tabla13[[#This Row],[Valor]]</f>
         <v>3</v>
       </c>
-      <c r="I4" s="1" t="str">
+      <c r="I4" t="str">
         <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Dif]],"), ",Tabla13[[#This Row],[IanProm]]," },")</f>
         <v>{ OV(  3), 0 },</v>
       </c>
+      <c r="J4" t="str">
+        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[Termometro K]]," },")</f>
+        <v>{ OV(  3),  },</v>
+      </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5">
         <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
         <v>362.261632368145</v>
       </c>
@@ -12732,20 +13315,24 @@
         <f>Tabla13[[#This Row],[termocupla]]</f>
         <v>0</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5">
         <f>Tabla13[[#This Row],[Valor]]</f>
         <v>4</v>
       </c>
-      <c r="I5" s="1" t="str">
+      <c r="I5" t="str">
         <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Dif]],"), ",Tabla13[[#This Row],[IanProm]]," },")</f>
         <v>{ OV(  4), 0 },</v>
       </c>
+      <c r="J5" t="str">
+        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[Termometro K]]," },")</f>
+        <v>{ OV(  4),  },</v>
+      </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6">
         <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
         <v>350.41494122887366</v>
       </c>
@@ -12753,23 +13340,27 @@
         <f>Tabla13[[#This Row],[termocupla]]</f>
         <v>0</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6">
         <f>Tabla13[[#This Row],[Valor]]</f>
         <v>5</v>
       </c>
-      <c r="I6" s="1" t="str">
+      <c r="I6" t="str">
         <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Dif]],"), ",Tabla13[[#This Row],[IanProm]]," },")</f>
         <v>{ OV(  5), 0 },</v>
       </c>
+      <c r="J6" t="str">
+        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[Termometro K]]," },")</f>
+        <v>{ OV(  5),  },</v>
+      </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>9</v>
       </c>
       <c r="C7">
         <v>320</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7">
         <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
         <v>319.20934718922013</v>
       </c>
@@ -12777,23 +13368,27 @@
         <f>Tabla13[[#This Row],[termocupla]]</f>
         <v>320</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7">
         <f>Tabla13[[#This Row],[Valor]]</f>
         <v>9</v>
       </c>
-      <c r="I7" s="1" t="str">
+      <c r="I7" t="str">
         <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Dif]],"), ",Tabla13[[#This Row],[IanProm]]," },")</f>
         <v>{ OV(  9), 320 },</v>
       </c>
+      <c r="J7" t="str">
+        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[Termometro K]]," },")</f>
+        <v>{ OV(  9),  },</v>
+      </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>10</v>
       </c>
       <c r="C8">
         <v>314</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8">
         <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
         <v>313.6157574129461</v>
       </c>
@@ -12801,23 +13396,27 @@
         <f>Tabla13[[#This Row],[termocupla]]</f>
         <v>314</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8">
         <f>Tabla13[[#This Row],[Valor]]</f>
         <v>10</v>
       </c>
-      <c r="I8" s="1" t="str">
+      <c r="I8" t="str">
         <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Dif]],"), ",Tabla13[[#This Row],[IanProm]]," },")</f>
         <v>{ OV(  10), 314 },</v>
       </c>
+      <c r="J8" t="str">
+        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[Termometro K]]," },")</f>
+        <v>{ OV(  10),  },</v>
+      </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>11</v>
       </c>
       <c r="C9">
         <v>309</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9">
         <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
         <v>308.55573996713451</v>
       </c>
@@ -12825,23 +13424,27 @@
         <f>Tabla13[[#This Row],[termocupla]]</f>
         <v>309</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9">
         <f>Tabla13[[#This Row],[Valor]]</f>
         <v>11</v>
       </c>
-      <c r="I9" s="1" t="str">
+      <c r="I9" t="str">
         <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Dif]],"), ",Tabla13[[#This Row],[IanProm]]," },")</f>
         <v>{ OV(  11), 309 },</v>
       </c>
+      <c r="J9" t="str">
+        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[Termometro K]]," },")</f>
+        <v>{ OV(  11),  },</v>
+      </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>12</v>
       </c>
       <c r="C10">
         <v>304</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10">
         <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
         <v>303.93630596275506</v>
       </c>
@@ -12849,23 +13452,27 @@
         <f>Tabla13[[#This Row],[termocupla]]</f>
         <v>304</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10">
         <f>Tabla13[[#This Row],[Valor]]</f>
         <v>12</v>
       </c>
-      <c r="I10" s="1" t="str">
+      <c r="I10" t="str">
         <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Dif]],"), ",Tabla13[[#This Row],[IanProm]]," },")</f>
         <v>{ OV(  12), 304 },</v>
       </c>
+      <c r="J10" t="str">
+        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[Termometro K]]," },")</f>
+        <v>{ OV(  12),  },</v>
+      </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>13</v>
       </c>
       <c r="C11">
         <v>300</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11">
         <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
         <v>299.68683861236701</v>
       </c>
@@ -12873,23 +13480,27 @@
         <f>Tabla13[[#This Row],[termocupla]]</f>
         <v>300</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11">
         <f>Tabla13[[#This Row],[Valor]]</f>
         <v>13</v>
       </c>
-      <c r="I11" s="1" t="str">
+      <c r="I11" t="str">
         <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Dif]],"), ",Tabla13[[#This Row],[IanProm]]," },")</f>
         <v>{ OV(  13), 300 },</v>
       </c>
+      <c r="J11" t="str">
+        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[Termometro K]]," },")</f>
+        <v>{ OV(  13),  },</v>
+      </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>14</v>
       </c>
       <c r="C12">
         <v>296</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12">
         <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
         <v>295.75244637072592</v>
       </c>
@@ -12897,23 +13508,27 @@
         <f>Tabla13[[#This Row],[termocupla]]</f>
         <v>296</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12">
         <f>Tabla13[[#This Row],[Valor]]</f>
         <v>14</v>
       </c>
-      <c r="I12" s="1" t="str">
+      <c r="I12" t="str">
         <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Dif]],"), ",Tabla13[[#This Row],[IanProm]]," },")</f>
         <v>{ OV(  14), 296 },</v>
       </c>
+      <c r="J12" t="str">
+        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[Termometro K]]," },")</f>
+        <v>{ OV(  14),  },</v>
+      </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>15</v>
       </c>
       <c r="C13">
         <v>292</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13">
         <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
         <v>292.08961482348366</v>
       </c>
@@ -12921,64 +13536,82 @@
         <f>Tabla13[[#This Row],[termocupla]]</f>
         <v>292</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H13">
         <f>Tabla13[[#This Row],[Valor]]</f>
         <v>15</v>
       </c>
-      <c r="I13" s="1" t="str">
+      <c r="I13" t="str">
         <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Dif]],"), ",Tabla13[[#This Row],[IanProm]]," },")</f>
         <v>{ OV(  15), 292 },</v>
       </c>
+      <c r="J13" t="str">
+        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[Termometro K]]," },")</f>
+        <v>{ OV(  15),  },</v>
+      </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>16</v>
       </c>
       <c r="C14">
         <v>289</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14">
         <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
         <v>288.66326473628999</v>
+      </c>
+      <c r="E14">
+        <v>301</v>
       </c>
       <c r="G14">
         <f>Tabla13[[#This Row],[termocupla]]</f>
         <v>289</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H14">
         <f>Tabla13[[#This Row],[Valor]]</f>
         <v>16</v>
       </c>
-      <c r="I14" s="1" t="str">
+      <c r="I14" t="str">
         <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Dif]],"), ",Tabla13[[#This Row],[IanProm]]," },")</f>
         <v>{ OV(  16), 289 },</v>
       </c>
+      <c r="J14" t="str">
+        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[Termometro K]]," },")</f>
+        <v>{ OV(  16), 301 },</v>
+      </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>17</v>
       </c>
       <c r="C15">
         <v>285</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15">
         <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
         <v>285.44470356405549</v>
+      </c>
+      <c r="E15">
+        <v>296</v>
       </c>
       <c r="G15">
         <f>Tabla13[[#This Row],[termocupla]]</f>
         <v>285</v>
       </c>
-      <c r="H15" s="1">
+      <c r="H15">
         <f>Tabla13[[#This Row],[Valor]]</f>
         <v>17</v>
       </c>
-      <c r="I15" s="1" t="str">
+      <c r="I15" t="str">
         <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Dif]],"), ",Tabla13[[#This Row],[IanProm]]," },")</f>
         <v>{ OV(  17), 285 },</v>
       </c>
+      <c r="J15" t="str">
+        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[Termometro K]]," },")</f>
+        <v>{ OV(  17), 296 },</v>
+      </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>18</v>
       </c>
@@ -12992,6 +13625,9 @@
         <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
         <v>282.41016337329262</v>
       </c>
+      <c r="E16" s="1">
+        <v>293</v>
+      </c>
       <c r="G16">
         <f>Tabla13[[#This Row],[termocupla]]</f>
         <v>282</v>
@@ -13004,8 +13640,12 @@
         <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Dif]],"), ",Tabla13[[#This Row],[IanProm]]," },")</f>
         <v>{ OV(  18), 282 },</v>
       </c>
+      <c r="J16" t="str">
+        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[Termometro K]]," },")</f>
+        <v>{ OV(  18), 293 },</v>
+      </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>19</v>
       </c>
@@ -13019,6 +13659,9 @@
         <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
         <v>279.53973459605368</v>
       </c>
+      <c r="E17" s="1">
+        <v>290</v>
+      </c>
       <c r="G17">
         <f>Tabla13[[#This Row],[termocupla]]</f>
         <v>280</v>
@@ -13031,8 +13674,12 @@
         <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Dif]],"), ",Tabla13[[#This Row],[IanProm]]," },")</f>
         <v>{ OV(  19), 280 },</v>
       </c>
+      <c r="J17" t="str">
+        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[Termometro K]]," },")</f>
+        <v>{ OV(  19), 290 },</v>
+      </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>20</v>
       </c>
@@ -13046,6 +13693,9 @@
         <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
         <v>276.81657359701865</v>
       </c>
+      <c r="E18" s="1">
+        <v>286</v>
+      </c>
       <c r="G18">
         <f>Tabla13[[#This Row],[termocupla]]</f>
         <v>277</v>
@@ -13058,8 +13708,12 @@
         <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Dif]],"), ",Tabla13[[#This Row],[IanProm]]," },")</f>
         <v>{ OV(  20), 277 },</v>
       </c>
+      <c r="J18" t="str">
+        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[Termometro K]]," },")</f>
+        <v>{ OV(  20), 286 },</v>
+      </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>22</v>
       </c>
@@ -13073,6 +13727,9 @@
         <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
         <v>271.75655615120701</v>
       </c>
+      <c r="E19" s="1">
+        <v>280</v>
+      </c>
       <c r="G19">
         <f>Tabla13[[#This Row],[termocupla]]</f>
         <v>272</v>
@@ -13085,8 +13742,12 @@
         <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Dif]],"), ",Tabla13[[#This Row],[IanProm]]," },")</f>
         <v>{ OV(  22), 272 },</v>
       </c>
+      <c r="J19" t="str">
+        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[Termometro K]]," },")</f>
+        <v>{ OV(  22), 280 },</v>
+      </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>23</v>
       </c>
@@ -13100,6 +13761,9 @@
         <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
         <v>269.39661207632145</v>
       </c>
+      <c r="E20" s="1">
+        <v>275</v>
+      </c>
       <c r="G20">
         <f>Tabla13[[#This Row],[termocupla]]</f>
         <v>269</v>
@@ -13112,8 +13776,12 @@
         <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Dif]],"), ",Tabla13[[#This Row],[IanProm]]," },")</f>
         <v>{ OV(  23), 269 },</v>
       </c>
+      <c r="J20" t="str">
+        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[Termometro K]]," },")</f>
+        <v>{ OV(  23), 275 },</v>
+      </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>25</v>
       </c>
@@ -13127,6 +13795,9 @@
         <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
         <v>264.96988245774725</v>
       </c>
+      <c r="E21" s="1">
+        <v>270</v>
+      </c>
       <c r="G21">
         <f>Tabla13[[#This Row],[termocupla]]</f>
         <v>265</v>
@@ -13139,8 +13810,12 @@
         <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Dif]],"), ",Tabla13[[#This Row],[IanProm]]," },")</f>
         <v>{ OV(  25), 265 },</v>
       </c>
+      <c r="J21" t="str">
+        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[Termometro K]]," },")</f>
+        <v>{ OV(  25), 270 },</v>
+      </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>27</v>
       </c>
@@ -13154,6 +13829,9 @@
         <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
         <v>260.88402078383018</v>
       </c>
+      <c r="E22" s="1">
+        <v>267</v>
+      </c>
       <c r="G22">
         <f>Tabla13[[#This Row],[termocupla]]</f>
         <v>263</v>
@@ -13166,8 +13844,12 @@
         <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Dif]],"), ",Tabla13[[#This Row],[IanProm]]," },")</f>
         <v>{ OV(  27), 263 },</v>
       </c>
+      <c r="J22" t="str">
+        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[Termometro K]]," },")</f>
+        <v>{ OV(  27), 267 },</v>
+      </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>28</v>
       </c>
@@ -13181,6 +13863,9 @@
         <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
         <v>258.95326255479847</v>
       </c>
+      <c r="E23" s="1">
+        <v>264</v>
+      </c>
       <c r="G23">
         <f>Tabla13[[#This Row],[termocupla]]</f>
         <v>260</v>
@@ -13193,8 +13878,12 @@
         <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Dif]],"), ",Tabla13[[#This Row],[IanProm]]," },")</f>
         <v>{ OV(  28), 260 },</v>
       </c>
+      <c r="J23" t="str">
+        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[Termometro K]]," },")</f>
+        <v>{ OV(  28), 264 },</v>
+      </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>31</v>
       </c>
@@ -13208,6 +13897,9 @@
         <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
         <v>253.5496193138836</v>
       </c>
+      <c r="E24" s="1">
+        <v>259</v>
+      </c>
       <c r="G24">
         <f>Tabla13[[#This Row],[termocupla]]</f>
         <v>255</v>
@@ -13220,8 +13912,12 @@
         <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Dif]],"), ",Tabla13[[#This Row],[IanProm]]," },")</f>
         <v>{ OV(  31), 255 },</v>
       </c>
+      <c r="J24" t="str">
+        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[Termometro K]]," },")</f>
+        <v>{ OV(  31), 259 },</v>
+      </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>33</v>
       </c>
@@ -13235,6 +13931,9 @@
         <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
         <v>250.23041356174457</v>
       </c>
+      <c r="E25" s="1">
+        <v>254</v>
+      </c>
       <c r="G25">
         <f>Tabla13[[#This Row],[termocupla]]</f>
         <v>250</v>
@@ -13247,8 +13946,12 @@
         <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Dif]],"), ",Tabla13[[#This Row],[IanProm]]," },")</f>
         <v>{ OV(  33), 250 },</v>
       </c>
+      <c r="J25" t="str">
+        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[Termometro K]]," },")</f>
+        <v>{ OV(  33), 254 },</v>
+      </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>35</v>
       </c>
@@ -13262,6 +13965,9 @@
         <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
         <v>247.10657141552704</v>
       </c>
+      <c r="E26" s="1">
+        <v>250</v>
+      </c>
       <c r="G26">
         <f>Tabla13[[#This Row],[termocupla]]</f>
         <v>248</v>
@@ -13274,8 +13980,12 @@
         <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Dif]],"), ",Tabla13[[#This Row],[IanProm]]," },")</f>
         <v>{ OV(  35), 248 },</v>
       </c>
+      <c r="J26" t="str">
+        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[Termometro K]]," },")</f>
+        <v>{ OV(  35), 250 },</v>
+      </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>38</v>
       </c>
@@ -13289,6 +13999,9 @@
         <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
         <v>242.7405507801262</v>
       </c>
+      <c r="E27" s="1">
+        <v>246</v>
+      </c>
       <c r="G27">
         <f>Tabla13[[#This Row],[termocupla]]</f>
         <v>243</v>
@@ -13301,8 +14014,12 @@
         <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Dif]],"), ",Tabla13[[#This Row],[IanProm]]," },")</f>
         <v>{ OV(  38), 243 },</v>
       </c>
+      <c r="J27" t="str">
+        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[Termometro K]]," },")</f>
+        <v>{ OV(  38), 246 },</v>
+      </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>41</v>
       </c>
@@ -13316,6 +14033,9 @@
         <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
         <v>238.70645897866828</v>
       </c>
+      <c r="E28" s="1">
+        <v>242</v>
+      </c>
       <c r="G28">
         <f>Tabla13[[#This Row],[termocupla]]</f>
         <v>239</v>
@@ -13328,8 +14048,12 @@
         <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Dif]],"), ",Tabla13[[#This Row],[IanProm]]," },")</f>
         <v>{ OV(  41), 239 },</v>
       </c>
+      <c r="J28" t="str">
+        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[Termometro K]]," },")</f>
+        <v>{ OV(  41), 242 },</v>
+      </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>44</v>
       </c>
@@ -13343,6 +14067,9 @@
         <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
         <v>234.95737233527953</v>
       </c>
+      <c r="E29" s="1">
+        <v>237</v>
+      </c>
       <c r="G29">
         <f>Tabla13[[#This Row],[termocupla]]</f>
         <v>235</v>
@@ -13355,8 +14082,12 @@
         <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Dif]],"), ",Tabla13[[#This Row],[IanProm]]," },")</f>
         <v>{ OV(  44), 235 },</v>
       </c>
+      <c r="J29" t="str">
+        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[Termometro K]]," },")</f>
+        <v>{ OV(  44), 237 },</v>
+      </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>48</v>
       </c>
@@ -13370,6 +14101,9 @@
         <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
         <v>230.33793833090007</v>
       </c>
+      <c r="E30" s="1">
+        <v>233</v>
+      </c>
       <c r="G30">
         <f>Tabla13[[#This Row],[termocupla]]</f>
         <v>230</v>
@@ -13382,8 +14116,12 @@
         <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Dif]],"), ",Tabla13[[#This Row],[IanProm]]," },")</f>
         <v>{ OV(  48), 230 },</v>
       </c>
+      <c r="J30" t="str">
+        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[Termometro K]]," },")</f>
+        <v>{ OV(  48), 233 },</v>
+      </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>52</v>
       </c>
@@ -13397,6 +14135,9 @@
         <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
         <v>226.088470980512</v>
       </c>
+      <c r="E31" s="1">
+        <v>228</v>
+      </c>
       <c r="G31">
         <f>Tabla13[[#This Row],[termocupla]]</f>
         <v>225</v>
@@ -13409,8 +14150,12 @@
         <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Dif]],"), ",Tabla13[[#This Row],[IanProm]]," },")</f>
         <v>{ OV(  52), 225 },</v>
       </c>
+      <c r="J31" t="str">
+        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[Termometro K]]," },")</f>
+        <v>{ OV(  52), 228 },</v>
+      </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>56</v>
       </c>
@@ -13424,6 +14169,9 @@
         <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
         <v>222.15407873887091</v>
       </c>
+      <c r="E32" s="1">
+        <v>224</v>
+      </c>
       <c r="G32">
         <f>Tabla13[[#This Row],[termocupla]]</f>
         <v>220</v>
@@ -13436,8 +14184,12 @@
         <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Dif]],"), ",Tabla13[[#This Row],[IanProm]]," },")</f>
         <v>{ OV(  56), 220 },</v>
       </c>
+      <c r="J32" t="str">
+        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[Termometro K]]," },")</f>
+        <v>{ OV(  56), 224 },</v>
+      </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>61</v>
       </c>
@@ -13451,6 +14203,9 @@
         <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
         <v>217.61370655103889</v>
       </c>
+      <c r="E33" s="1">
+        <v>219</v>
+      </c>
       <c r="G33">
         <f>Tabla13[[#This Row],[termocupla]]</f>
         <v>217</v>
@@ -13463,8 +14218,12 @@
         <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Dif]],"), ",Tabla13[[#This Row],[IanProm]]," },")</f>
         <v>{ OV(  61), 217 },</v>
       </c>
+      <c r="J33" t="str">
+        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[Termometro K]]," },")</f>
+        <v>{ OV(  61), 219 },</v>
+      </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>66</v>
       </c>
@@ -13478,6 +14237,9 @@
         <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
         <v>213.43122974581709</v>
       </c>
+      <c r="E34" s="1">
+        <v>215</v>
+      </c>
       <c r="G34">
         <f>Tabla13[[#This Row],[termocupla]]</f>
         <v>213</v>
@@ -13490,8 +14252,12 @@
         <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Dif]],"), ",Tabla13[[#This Row],[IanProm]]," },")</f>
         <v>{ OV(  66), 213 },</v>
       </c>
+      <c r="J34" t="str">
+        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[Termometro K]]," },")</f>
+        <v>{ OV(  66), 215 },</v>
+      </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>71</v>
       </c>
@@ -13505,6 +14271,9 @@
         <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
         <v>209.55432532787657</v>
       </c>
+      <c r="E35" s="1">
+        <v>211</v>
+      </c>
       <c r="G35">
         <f>Tabla13[[#This Row],[termocupla]]</f>
         <v>209</v>
@@ -13517,8 +14286,12 @@
         <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Dif]],"), ",Tabla13[[#This Row],[IanProm]]," },")</f>
         <v>{ OV(  71), 209 },</v>
       </c>
+      <c r="J35" t="str">
+        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[Termometro K]]," },")</f>
+        <v>{ OV(  71), 211 },</v>
+      </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>78</v>
       </c>
@@ -13532,6 +14305,9 @@
         <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
         <v>204.56232839104956</v>
       </c>
+      <c r="E36" s="1">
+        <v>207</v>
+      </c>
       <c r="G36">
         <f>Tabla13[[#This Row],[termocupla]]</f>
         <v>204</v>
@@ -13544,8 +14320,12 @@
         <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Dif]],"), ",Tabla13[[#This Row],[IanProm]]," },")</f>
         <v>{ OV(  78), 204 },</v>
       </c>
+      <c r="J36" t="str">
+        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[Termometro K]]," },")</f>
+        <v>{ OV(  78), 207 },</v>
+      </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>84</v>
       </c>
@@ -13559,6 +14339,9 @@
         <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
         <v>200.6279361494085</v>
       </c>
+      <c r="E37" s="1">
+        <v>202</v>
+      </c>
       <c r="G37">
         <f>Tabla13[[#This Row],[termocupla]]</f>
         <v>200</v>
@@ -13571,8 +14354,12 @@
         <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Dif]],"), ",Tabla13[[#This Row],[IanProm]]," },")</f>
         <v>{ OV(  84), 200 },</v>
       </c>
+      <c r="J37" t="str">
+        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[Termometro K]]," },")</f>
+        <v>{ OV(  84), 202 },</v>
+      </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>92</v>
       </c>
@@ -13586,6 +14373,9 @@
         <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
         <v>195.79824444446643</v>
       </c>
+      <c r="E38" s="1">
+        <v>198</v>
+      </c>
       <c r="G38">
         <f>Tabla13[[#This Row],[termocupla]]</f>
         <v>195</v>
@@ -13598,8 +14388,12 @@
         <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Dif]],"), ",Tabla13[[#This Row],[IanProm]]," },")</f>
         <v>{ OV(  92), 195 },</v>
       </c>
+      <c r="J38" t="str">
+        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[Termometro K]]," },")</f>
+        <v>{ OV(  92), 198 },</v>
+      </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>100</v>
       </c>
@@ -13613,6 +14407,9 @@
         <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
         <v>191.37151482589221</v>
       </c>
+      <c r="E39" s="1">
+        <v>193</v>
+      </c>
       <c r="G39">
         <f>Tabla13[[#This Row],[termocupla]]</f>
         <v>190</v>
@@ -13625,8 +14422,12 @@
         <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Dif]],"), ",Tabla13[[#This Row],[IanProm]]," },")</f>
         <v>{ OV(  100), 190 },</v>
       </c>
+      <c r="J39" t="str">
+        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[Termometro K]]," },")</f>
+        <v>{ OV(  100), 193 },</v>
+      </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>109</v>
       </c>
@@ -13640,6 +14441,9 @@
         <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
         <v>186.79634093245477</v>
       </c>
+      <c r="E40" s="1">
+        <v>189</v>
+      </c>
       <c r="G40">
         <f>Tabla13[[#This Row],[termocupla]]</f>
         <v>186</v>
@@ -13652,8 +14456,12 @@
         <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Dif]],"), ",Tabla13[[#This Row],[IanProm]]," },")</f>
         <v>{ OV(  109), 186 },</v>
       </c>
+      <c r="J40" t="str">
+        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[Termometro K]]," },")</f>
+        <v>{ OV(  109), 189 },</v>
+      </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>120</v>
       </c>
@@ -13667,6 +14475,9 @@
         <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
         <v>181.6920633757012</v>
       </c>
+      <c r="E41" s="1">
+        <v>184</v>
+      </c>
       <c r="G41">
         <f>Tabla13[[#This Row],[termocupla]]</f>
         <v>181</v>
@@ -13679,8 +14490,12 @@
         <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Dif]],"), ",Tabla13[[#This Row],[IanProm]]," },")</f>
         <v>{ OV(  120), 181 },</v>
       </c>
+      <c r="J41" t="str">
+        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[Termometro K]]," },")</f>
+        <v>{ OV(  120), 184 },</v>
+      </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>131</v>
       </c>
@@ -13694,6 +14509,9 @@
         <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
         <v>177.03577411125087</v>
       </c>
+      <c r="E42" s="1">
+        <v>180</v>
+      </c>
       <c r="G42">
         <f>Tabla13[[#This Row],[termocupla]]</f>
         <v>177</v>
@@ -13706,8 +14524,12 @@
         <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Dif]],"), ",Tabla13[[#This Row],[IanProm]]," },")</f>
         <v>{ OV(  131), 177 },</v>
       </c>
+      <c r="J42" t="str">
+        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[Termometro K]]," },")</f>
+        <v>{ OV(  131), 180 },</v>
+      </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>143</v>
       </c>
@@ -13721,6 +14543,9 @@
         <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
         <v>172.38257857950151</v>
       </c>
+      <c r="E43" s="1">
+        <v>176</v>
+      </c>
       <c r="G43">
         <f>Tabla13[[#This Row],[termocupla]]</f>
         <v>173</v>
@@ -13733,8 +14558,12 @@
         <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Dif]],"), ",Tabla13[[#This Row],[IanProm]]," },")</f>
         <v>{ OV(  143), 173 },</v>
       </c>
+      <c r="J43" t="str">
+        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[Termometro K]]," },")</f>
+        <v>{ OV(  143), 176 },</v>
+      </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>156</v>
       </c>
@@ -13748,6 +14577,9 @@
         <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
         <v>167.76314457512206</v>
       </c>
+      <c r="E44" s="1">
+        <v>171</v>
+      </c>
       <c r="G44">
         <f>Tabla13[[#This Row],[termocupla]]</f>
         <v>168</v>
@@ -13760,8 +14592,12 @@
         <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Dif]],"), ",Tabla13[[#This Row],[IanProm]]," },")</f>
         <v>{ OV(  156), 168 },</v>
       </c>
+      <c r="J44" t="str">
+        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[Termometro K]]," },")</f>
+        <v>{ OV(  156), 171 },</v>
+      </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>171</v>
       </c>
@@ -13775,6 +14611,9 @@
         <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
         <v>162.88908178527379</v>
       </c>
+      <c r="E45" s="1">
+        <v>168</v>
+      </c>
       <c r="G45">
         <f>Tabla13[[#This Row],[termocupla]]</f>
         <v>162</v>
@@ -13787,8 +14626,12 @@
         <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Dif]],"), ",Tabla13[[#This Row],[IanProm]]," },")</f>
         <v>{ OV(  171), 162 },</v>
       </c>
+      <c r="J45" t="str">
+        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[Termometro K]]," },")</f>
+        <v>{ OV(  171), 168 },</v>
+      </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>187</v>
       </c>
@@ -13802,6 +14645,9 @@
         <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
         <v>158.14044353118999</v>
       </c>
+      <c r="E46" s="1">
+        <v>165</v>
+      </c>
       <c r="G46">
         <f>Tabla13[[#This Row],[termocupla]]</f>
         <v>158</v>
@@ -13814,8 +14660,12 @@
         <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Dif]],"), ",Tabla13[[#This Row],[IanProm]]," },")</f>
         <v>{ OV(  187), 158 },</v>
       </c>
+      <c r="J46" t="str">
+        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[Termometro K]]," },")</f>
+        <v>{ OV(  187), 165 },</v>
+      </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>205</v>
       </c>
@@ -13829,6 +14679,9 @@
         <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
         <v>153.2614002075419</v>
       </c>
+      <c r="E47" s="1">
+        <v>160</v>
+      </c>
       <c r="G47">
         <f>Tabla13[[#This Row],[termocupla]]</f>
         <v>154</v>
@@ -13841,8 +14694,12 @@
         <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Dif]],"), ",Tabla13[[#This Row],[IanProm]]," },")</f>
         <v>{ OV(  205), 154 },</v>
       </c>
+      <c r="J47" t="str">
+        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[Termometro K]]," },")</f>
+        <v>{ OV(  205), 160 },</v>
+      </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>224</v>
       </c>
@@ -13856,20 +14713,27 @@
         <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
         <v>148.55571110701595</v>
       </c>
+      <c r="E48" s="1">
+        <v>157</v>
+      </c>
       <c r="G48">
         <f>Tabla13[[#This Row],[termocupla]]</f>
         <v>149</v>
       </c>
-      <c r="H48" s="1">
+      <c r="H48">
         <f>Tabla13[[#This Row],[Valor]]</f>
         <v>224</v>
       </c>
-      <c r="I48" s="1" t="str">
+      <c r="I48" t="str">
         <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Dif]],"), ",Tabla13[[#This Row],[IanProm]]," },")</f>
         <v>{ OV(  224), 149 },</v>
       </c>
+      <c r="J48" t="str">
+        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[Termometro K]]," },")</f>
+        <v>{ OV(  224), 157 },</v>
+      </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>245</v>
       </c>
@@ -13883,20 +14747,27 @@
         <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
         <v>143.79820160218043</v>
       </c>
+      <c r="E49" s="1">
+        <v>152</v>
+      </c>
       <c r="G49">
         <f>Tabla13[[#This Row],[termocupla]]</f>
         <v>145</v>
       </c>
-      <c r="H49" s="1">
+      <c r="H49">
         <f>Tabla13[[#This Row],[Valor]]</f>
         <v>245</v>
       </c>
-      <c r="I49" s="1" t="str">
+      <c r="I49" t="str">
         <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Dif]],"), ",Tabla13[[#This Row],[IanProm]]," },")</f>
         <v>{ OV(  245), 145 },</v>
       </c>
+      <c r="J49" t="str">
+        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[Termometro K]]," },")</f>
+        <v>{ OV(  245), 152 },</v>
+      </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>268</v>
       </c>
@@ -13910,20 +14781,27 @@
         <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
         <v>139.03450120467863</v>
       </c>
+      <c r="E50" s="1">
+        <v>147</v>
+      </c>
       <c r="G50">
         <f>Tabla13[[#This Row],[termocupla]]</f>
         <v>140</v>
       </c>
-      <c r="H50" s="1">
+      <c r="H50">
         <f>Tabla13[[#This Row],[Valor]]</f>
         <v>268</v>
       </c>
-      <c r="I50" s="1" t="str">
+      <c r="I50" t="str">
         <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Dif]],"), ",Tabla13[[#This Row],[IanProm]]," },")</f>
         <v>{ OV(  268), 140 },</v>
       </c>
+      <c r="J50" t="str">
+        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[Termometro K]]," },")</f>
+        <v>{ OV(  268), 147 },</v>
+      </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>293</v>
       </c>
@@ -13937,20 +14815,27 @@
         <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
         <v>134.29963618728385</v>
       </c>
+      <c r="E51" s="1">
+        <v>142</v>
+      </c>
       <c r="G51">
         <f>Tabla13[[#This Row],[termocupla]]</f>
         <v>135</v>
       </c>
-      <c r="H51" s="1">
+      <c r="H51">
         <f>Tabla13[[#This Row],[Valor]]</f>
         <v>293</v>
       </c>
-      <c r="I51" s="1" t="str">
+      <c r="I51" t="str">
         <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Dif]],"), ",Tabla13[[#This Row],[IanProm]]," },")</f>
         <v>{ OV(  293), 135 },</v>
       </c>
+      <c r="J51" t="str">
+        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[Termometro K]]," },")</f>
+        <v>{ OV(  293), 142 },</v>
+      </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>320</v>
       </c>
@@ -13964,20 +14849,27 @@
         <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
         <v>129.61983833330862</v>
       </c>
+      <c r="E52" s="1">
+        <v>137</v>
+      </c>
       <c r="G52">
         <f>Tabla13[[#This Row],[termocupla]]</f>
         <v>130</v>
       </c>
-      <c r="H52" s="1">
+      <c r="H52">
         <f>Tabla13[[#This Row],[Valor]]</f>
         <v>320</v>
       </c>
-      <c r="I52" s="1" t="str">
+      <c r="I52" t="str">
         <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Dif]],"), ",Tabla13[[#This Row],[IanProm]]," },")</f>
         <v>{ OV(  320), 130 },</v>
       </c>
+      <c r="J52" t="str">
+        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[Termometro K]]," },")</f>
+        <v>{ OV(  320), 137 },</v>
+      </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>348</v>
       </c>
@@ -13991,20 +14883,27 @@
         <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
         <v>125.16657034877312</v>
       </c>
+      <c r="E53" s="1">
+        <v>133</v>
+      </c>
       <c r="G53">
         <f>Tabla13[[#This Row],[termocupla]]</f>
         <v>125</v>
       </c>
-      <c r="H53" s="1">
+      <c r="H53">
         <f>Tabla13[[#This Row],[Valor]]</f>
         <v>348</v>
       </c>
-      <c r="I53" s="1" t="str">
+      <c r="I53" t="str">
         <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Dif]],"), ",Tabla13[[#This Row],[IanProm]]," },")</f>
         <v>{ OV(  348), 125 },</v>
       </c>
+      <c r="J53" t="str">
+        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[Termometro K]]," },")</f>
+        <v>{ OV(  348), 133 },</v>
+      </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>379</v>
       </c>
@@ -14018,20 +14917,27 @@
         <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
         <v>120.63620287217395</v>
       </c>
+      <c r="E54" s="1">
+        <v>127</v>
+      </c>
       <c r="G54">
         <f>Tabla13[[#This Row],[termocupla]]</f>
         <v>121</v>
       </c>
-      <c r="H54" s="1">
+      <c r="H54">
         <f>Tabla13[[#This Row],[Valor]]</f>
         <v>379</v>
       </c>
-      <c r="I54" s="1" t="str">
+      <c r="I54" t="str">
         <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Dif]],"), ",Tabla13[[#This Row],[IanProm]]," },")</f>
         <v>{ OV(  379), 121 },</v>
       </c>
+      <c r="J54" t="str">
+        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[Termometro K]]," },")</f>
+        <v>{ OV(  379), 127 },</v>
+      </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>411</v>
       </c>
@@ -14045,20 +14951,27 @@
         <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
         <v>116.33288624239492</v>
       </c>
+      <c r="E55" s="1">
+        <v>122</v>
+      </c>
       <c r="G55">
         <f>Tabla13[[#This Row],[termocupla]]</f>
         <v>116</v>
       </c>
-      <c r="H55" s="1">
+      <c r="H55">
         <f>Tabla13[[#This Row],[Valor]]</f>
         <v>411</v>
       </c>
-      <c r="I55" s="1" t="str">
+      <c r="I55" t="str">
         <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Dif]],"), ",Tabla13[[#This Row],[IanProm]]," },")</f>
         <v>{ OV(  411), 116 },</v>
       </c>
+      <c r="J55" t="str">
+        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[Termometro K]]," },")</f>
+        <v>{ OV(  411), 122 },</v>
+      </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>445</v>
       </c>
@@ -14072,20 +14985,27 @@
         <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
         <v>112.11323635979431</v>
       </c>
+      <c r="E56" s="1">
+        <v>117</v>
+      </c>
       <c r="G56">
         <f>Tabla13[[#This Row],[termocupla]]</f>
         <v>111</v>
       </c>
-      <c r="H56" s="1">
+      <c r="H56">
         <f>Tabla13[[#This Row],[Valor]]</f>
         <v>445</v>
       </c>
-      <c r="I56" s="1" t="str">
+      <c r="I56" t="str">
         <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Dif]],"), ",Tabla13[[#This Row],[IanProm]]," },")</f>
         <v>{ OV(  445), 111 },</v>
       </c>
+      <c r="J56" t="str">
+        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[Termometro K]]," },")</f>
+        <v>{ OV(  445), 117 },</v>
+      </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>480</v>
       </c>
@@ -14099,20 +15019,27 @@
         <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
         <v>108.09369574384618</v>
       </c>
+      <c r="E57" s="1">
+        <v>112</v>
+      </c>
       <c r="G57">
         <f>Tabla13[[#This Row],[termocupla]]</f>
         <v>106</v>
       </c>
-      <c r="H57" s="1">
+      <c r="H57">
         <f>Tabla13[[#This Row],[Valor]]</f>
         <v>480</v>
       </c>
-      <c r="I57" s="1" t="str">
+      <c r="I57" t="str">
         <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Dif]],"), ",Tabla13[[#This Row],[IanProm]]," },")</f>
         <v>{ OV(  480), 106 },</v>
       </c>
+      <c r="J57" t="str">
+        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[Termometro K]]," },")</f>
+        <v>{ OV(  480), 112 },</v>
+      </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>516</v>
       </c>
@@ -14126,20 +15053,27 @@
         <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
         <v>104.2541918205838</v>
       </c>
+      <c r="E58" s="1">
+        <v>108</v>
+      </c>
       <c r="G58">
         <f>Tabla13[[#This Row],[termocupla]]</f>
         <v>102</v>
       </c>
-      <c r="H58" s="1">
+      <c r="H58">
         <f>Tabla13[[#This Row],[Valor]]</f>
         <v>516</v>
       </c>
-      <c r="I58" s="1" t="str">
+      <c r="I58" t="str">
         <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Dif]],"), ",Tabla13[[#This Row],[IanProm]]," },")</f>
         <v>{ OV(  516), 102 },</v>
       </c>
+      <c r="J58" t="str">
+        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[Termometro K]]," },")</f>
+        <v>{ OV(  516), 108 },</v>
+      </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>553</v>
       </c>
@@ -14153,20 +15087,27 @@
         <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
         <v>100.57764369917925</v>
       </c>
+      <c r="E59">
+        <v>105</v>
+      </c>
       <c r="G59">
         <f>Tabla13[[#This Row],[termocupla]]</f>
         <v>97</v>
       </c>
-      <c r="H59" s="1">
+      <c r="H59">
         <f>Tabla13[[#This Row],[Valor]]</f>
         <v>553</v>
       </c>
-      <c r="I59" s="1" t="str">
+      <c r="I59" t="str">
         <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Dif]],"), ",Tabla13[[#This Row],[IanProm]]," },")</f>
         <v>{ OV(  553), 97 },</v>
       </c>
+      <c r="J59" t="str">
+        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[Termometro K]]," },")</f>
+        <v>{ OV(  553), 105 },</v>
+      </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>591</v>
       </c>
@@ -14180,20 +15121,27 @@
         <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
         <v>97.04938763591025</v>
       </c>
+      <c r="E60">
+        <v>100</v>
+      </c>
       <c r="G60">
         <f>Tabla13[[#This Row],[termocupla]]</f>
         <v>93</v>
       </c>
-      <c r="H60" s="1">
+      <c r="H60">
         <f>Tabla13[[#This Row],[Valor]]</f>
         <v>591</v>
       </c>
-      <c r="I60" s="1" t="str">
+      <c r="I60" t="str">
         <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Dif]],"), ",Tabla13[[#This Row],[IanProm]]," },")</f>
         <v>{ OV(  591), 93 },</v>
       </c>
+      <c r="J60" t="str">
+        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[Termometro K]]," },")</f>
+        <v>{ OV(  591), 100 },</v>
+      </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>628</v>
       </c>
@@ -14207,20 +15155,27 @@
         <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
         <v>93.825542562203339</v>
       </c>
+      <c r="E61">
+        <v>95</v>
+      </c>
       <c r="G61">
         <f>Tabla13[[#This Row],[termocupla]]</f>
         <v>88</v>
       </c>
-      <c r="H61" s="1">
+      <c r="H61">
         <f>Tabla13[[#This Row],[Valor]]</f>
         <v>628</v>
       </c>
-      <c r="I61" s="1" t="str">
+      <c r="I61" t="str">
         <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Dif]],"), ",Tabla13[[#This Row],[IanProm]]," },")</f>
         <v>{ OV(  628), 88 },</v>
       </c>
+      <c r="J61" t="str">
+        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[Termometro K]]," },")</f>
+        <v>{ OV(  628), 95 },</v>
+      </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>665</v>
       </c>
@@ -14234,20 +15189,27 @@
         <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
         <v>90.786306011580677</v>
       </c>
+      <c r="E62">
+        <v>90</v>
+      </c>
       <c r="G62">
         <f>Tabla13[[#This Row],[termocupla]]</f>
         <v>84</v>
       </c>
-      <c r="H62" s="1">
+      <c r="H62">
         <f>Tabla13[[#This Row],[Valor]]</f>
         <v>665</v>
       </c>
-      <c r="I62" s="1" t="str">
+      <c r="I62" t="str">
         <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Dif]],"), ",Tabla13[[#This Row],[IanProm]]," },")</f>
         <v>{ OV(  665), 84 },</v>
       </c>
+      <c r="J62" t="str">
+        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[Termometro K]]," },")</f>
+        <v>{ OV(  665), 90 },</v>
+      </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>702</v>
       </c>
@@ -14261,20 +15223,27 @@
         <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
         <v>87.911675580269673</v>
       </c>
+      <c r="E63">
+        <v>85</v>
+      </c>
       <c r="G63">
         <f>Tabla13[[#This Row],[termocupla]]</f>
         <v>79</v>
       </c>
-      <c r="H63" s="1">
+      <c r="H63">
         <f>Tabla13[[#This Row],[Valor]]</f>
         <v>702</v>
       </c>
-      <c r="I63" s="1" t="str">
+      <c r="I63" t="str">
         <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Dif]],"), ",Tabla13[[#This Row],[IanProm]]," },")</f>
         <v>{ OV(  702), 79 },</v>
       </c>
+      <c r="J63" t="str">
+        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[Termometro K]]," },")</f>
+        <v>{ OV(  702), 85 },</v>
+      </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>737</v>
       </c>
@@ -14288,20 +15257,27 @@
         <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
         <v>85.328608803668146</v>
       </c>
+      <c r="E64">
+        <v>80</v>
+      </c>
       <c r="G64">
         <f>Tabla13[[#This Row],[termocupla]]</f>
         <v>74</v>
       </c>
-      <c r="H64" s="1">
+      <c r="H64">
         <f>Tabla13[[#This Row],[Valor]]</f>
         <v>737</v>
       </c>
-      <c r="I64" s="1" t="str">
+      <c r="I64" t="str">
         <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Dif]],"), ",Tabla13[[#This Row],[IanProm]]," },")</f>
         <v>{ OV(  737), 74 },</v>
       </c>
+      <c r="J64" t="str">
+        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[Termometro K]]," },")</f>
+        <v>{ OV(  737), 80 },</v>
+      </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>770</v>
       </c>
@@ -14315,20 +15291,27 @@
         <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
         <v>83.003127566734065</v>
       </c>
+      <c r="E65">
+        <v>75</v>
+      </c>
       <c r="G65">
         <f>Tabla13[[#This Row],[termocupla]]</f>
         <v>69</v>
       </c>
-      <c r="H65" s="1">
+      <c r="H65">
         <f>Tabla13[[#This Row],[Valor]]</f>
         <v>770</v>
       </c>
-      <c r="I65" s="1" t="str">
+      <c r="I65" t="str">
         <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Dif]],"), ",Tabla13[[#This Row],[IanProm]]," },")</f>
         <v>{ OV(  770), 69 },</v>
       </c>
+      <c r="J65" t="str">
+        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[Termometro K]]," },")</f>
+        <v>{ OV(  770), 75 },</v>
+      </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>801</v>
       </c>
@@ -14342,20 +15325,27 @@
         <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
         <v>80.907642320140781</v>
       </c>
+      <c r="E66">
+        <v>70</v>
+      </c>
       <c r="G66">
         <f>Tabla13[[#This Row],[termocupla]]</f>
         <v>65</v>
       </c>
-      <c r="H66" s="1">
+      <c r="H66">
         <f>Tabla13[[#This Row],[Valor]]</f>
         <v>801</v>
       </c>
-      <c r="I66" s="1" t="str">
+      <c r="I66" t="str">
         <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Dif]],"), ",Tabla13[[#This Row],[IanProm]]," },")</f>
         <v>{ OV(  801), 65 },</v>
       </c>
+      <c r="J66" t="str">
+        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[Termometro K]]," },")</f>
+        <v>{ OV(  801), 70 },</v>
+      </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>830</v>
       </c>
@@ -14369,20 +15359,27 @@
         <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
         <v>79.019509545024732</v>
       </c>
+      <c r="E67" s="1">
+        <v>64</v>
+      </c>
       <c r="G67">
         <f>Tabla13[[#This Row],[termocupla]]</f>
         <v>60</v>
       </c>
-      <c r="H67" s="1">
+      <c r="H67">
         <f>Tabla13[[#This Row],[Valor]]</f>
         <v>830</v>
       </c>
-      <c r="I67" s="1" t="str">
+      <c r="I67" t="str">
         <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Dif]],"), ",Tabla13[[#This Row],[IanProm]]," },")</f>
         <v>{ OV(  830), 60 },</v>
       </c>
+      <c r="J67" t="str">
+        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[Termometro K]]," },")</f>
+        <v>{ OV(  830), 64 },</v>
+      </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>857</v>
       </c>
@@ -14396,20 +15393,27 @@
         <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
         <v>77.319980901643873</v>
       </c>
+      <c r="E68" s="1">
+        <v>60</v>
+      </c>
       <c r="G68">
         <f>Tabla13[[#This Row],[termocupla]]</f>
         <v>56</v>
       </c>
-      <c r="H68" s="1">
+      <c r="H68">
         <f>Tabla13[[#This Row],[Valor]]</f>
         <v>857</v>
       </c>
-      <c r="I68" s="1" t="str">
+      <c r="I68" t="str">
         <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Dif]],"), ",Tabla13[[#This Row],[IanProm]]," },")</f>
         <v>{ OV(  857), 56 },</v>
       </c>
+      <c r="J68" t="str">
+        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[Termometro K]]," },")</f>
+        <v>{ OV(  857), 60 },</v>
+      </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>881</v>
       </c>
@@ -14423,20 +15427,27 @@
         <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
         <v>75.853650639048226</v>
       </c>
+      <c r="E69" s="1">
+        <v>54</v>
+      </c>
       <c r="G69">
         <f>Tabla13[[#This Row],[termocupla]]</f>
         <v>51</v>
       </c>
-      <c r="H69" s="1">
+      <c r="H69">
         <f>Tabla13[[#This Row],[Valor]]</f>
         <v>881</v>
       </c>
-      <c r="I69" s="1" t="str">
+      <c r="I69" t="str">
         <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Dif]],"), ",Tabla13[[#This Row],[IanProm]]," },")</f>
         <v>{ OV(  881), 51 },</v>
       </c>
+      <c r="J69" t="str">
+        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[Termometro K]]," },")</f>
+        <v>{ OV(  881), 54 },</v>
+      </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>903</v>
       </c>
@@ -14450,20 +15461,27 @@
         <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
         <v>74.544189639092224</v>
       </c>
+      <c r="E70">
+        <v>50</v>
+      </c>
       <c r="G70">
         <f>Tabla13[[#This Row],[termocupla]]</f>
         <v>47</v>
       </c>
-      <c r="H70" s="1">
+      <c r="H70">
         <f>Tabla13[[#This Row],[Valor]]</f>
         <v>903</v>
       </c>
-      <c r="I70" s="1" t="str">
+      <c r="I70" t="str">
         <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Dif]],"), ",Tabla13[[#This Row],[IanProm]]," },")</f>
         <v>{ OV(  903), 47 },</v>
       </c>
+      <c r="J70" t="str">
+        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[Termometro K]]," },")</f>
+        <v>{ OV(  903), 50 },</v>
+      </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>922</v>
       </c>
@@ -14477,20 +15495,27 @@
         <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
         <v>73.438714081380397</v>
       </c>
+      <c r="E71">
+        <v>45</v>
+      </c>
       <c r="G71">
         <f>Tabla13[[#This Row],[termocupla]]</f>
         <v>42</v>
       </c>
-      <c r="H71" s="1">
+      <c r="H71">
         <f>Tabla13[[#This Row],[Valor]]</f>
         <v>922</v>
       </c>
-      <c r="I71" s="1" t="str">
+      <c r="I71" t="str">
         <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Dif]],"), ",Tabla13[[#This Row],[IanProm]]," },")</f>
         <v>{ OV(  922), 42 },</v>
       </c>
+      <c r="J71" t="str">
+        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[Termometro K]]," },")</f>
+        <v>{ OV(  922), 45 },</v>
+      </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>939</v>
       </c>
@@ -14504,20 +15529,27 @@
         <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
         <v>72.468746208833295</v>
       </c>
+      <c r="E72">
+        <v>40</v>
+      </c>
       <c r="G72">
         <f>Tabla13[[#This Row],[termocupla]]</f>
         <v>38</v>
       </c>
-      <c r="H72" s="1">
+      <c r="H72">
         <f>Tabla13[[#This Row],[Valor]]</f>
         <v>939</v>
       </c>
-      <c r="I72" s="1" t="str">
+      <c r="I72" t="str">
         <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Dif]],"), ",Tabla13[[#This Row],[IanProm]]," },")</f>
         <v>{ OV(  939), 38 },</v>
       </c>
+      <c r="J72" t="str">
+        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[Termometro K]]," },")</f>
+        <v>{ OV(  939), 40 },</v>
+      </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>954</v>
       </c>
@@ -14531,20 +15563,27 @@
         <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
         <v>71.627365682810421</v>
       </c>
+      <c r="E73">
+        <v>35</v>
+      </c>
       <c r="G73">
         <f>Tabla13[[#This Row],[termocupla]]</f>
         <v>33</v>
       </c>
-      <c r="H73" s="1">
+      <c r="H73">
         <f>Tabla13[[#This Row],[Valor]]</f>
         <v>954</v>
       </c>
-      <c r="I73" s="1" t="str">
+      <c r="I73" t="str">
         <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Dif]],"), ",Tabla13[[#This Row],[IanProm]]," },")</f>
         <v>{ OV(  954), 33 },</v>
       </c>
+      <c r="J73" t="str">
+        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[Termometro K]]," },")</f>
+        <v>{ OV(  954), 35 },</v>
+      </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>966</v>
       </c>
@@ -14558,20 +15597,27 @@
         <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
         <v>70.963732041657408</v>
       </c>
+      <c r="E74">
+        <v>30</v>
+      </c>
       <c r="G74">
         <f>Tabla13[[#This Row],[termocupla]]</f>
         <v>29</v>
       </c>
-      <c r="H74" s="1">
+      <c r="H74">
         <f>Tabla13[[#This Row],[Valor]]</f>
         <v>966</v>
       </c>
-      <c r="I74" s="1" t="str">
+      <c r="I74" t="str">
         <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Dif]],"), ",Tabla13[[#This Row],[IanProm]]," },")</f>
         <v>{ OV(  966), 29 },</v>
       </c>
+      <c r="J74" t="str">
+        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[Termometro K]]," },")</f>
+        <v>{ OV(  966), 30 },</v>
+      </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>977</v>
       </c>
@@ -14585,20 +15631,27 @@
         <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
         <v>70.362603643048658</v>
       </c>
+      <c r="E75">
+        <v>25</v>
+      </c>
       <c r="G75">
         <f>Tabla13[[#This Row],[termocupla]]</f>
         <v>25</v>
       </c>
-      <c r="H75" s="1">
+      <c r="H75">
         <f>Tabla13[[#This Row],[Valor]]</f>
         <v>977</v>
       </c>
-      <c r="I75" s="1" t="str">
+      <c r="I75" t="str">
         <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Dif]],"), ",Tabla13[[#This Row],[IanProm]]," },")</f>
         <v>{ OV(  977), 25 },</v>
       </c>
+      <c r="J75" t="str">
+        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[Termometro K]]," },")</f>
+        <v>{ OV(  977), 25 },</v>
+      </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>985</v>
       </c>
@@ -14612,20 +15665,27 @@
         <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
         <v>69.929655270173782</v>
       </c>
+      <c r="E76">
+        <v>20</v>
+      </c>
       <c r="G76">
         <f>Tabla13[[#This Row],[termocupla]]</f>
         <v>20</v>
       </c>
-      <c r="H76" s="1">
+      <c r="H76">
         <f>Tabla13[[#This Row],[Valor]]</f>
         <v>985</v>
       </c>
-      <c r="I76" s="1" t="str">
+      <c r="I76" t="str">
         <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Dif]],"), ",Tabla13[[#This Row],[IanProm]]," },")</f>
         <v>{ OV(  985), 20 },</v>
       </c>
+      <c r="J76" t="str">
+        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[Termometro K]]," },")</f>
+        <v>{ OV(  985), 20 },</v>
+      </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>993</v>
       </c>
@@ -14639,20 +15699,27 @@
         <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
         <v>69.500209045841757</v>
       </c>
+      <c r="E77">
+        <v>15</v>
+      </c>
       <c r="G77">
         <f>Tabla13[[#This Row],[termocupla]]</f>
         <v>15</v>
       </c>
-      <c r="H77" s="1">
+      <c r="H77">
         <f>Tabla13[[#This Row],[Valor]]</f>
         <v>993</v>
       </c>
-      <c r="I77" s="1" t="str">
+      <c r="I77" t="str">
         <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Dif]],"), ",Tabla13[[#This Row],[IanProm]]," },")</f>
         <v>{ OV(  993), 15 },</v>
       </c>
+      <c r="J77" t="str">
+        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[Termometro K]]," },")</f>
+        <v>{ OV(  993), 15 },</v>
+      </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>999</v>
       </c>
@@ -14666,20 +15733,27 @@
         <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
         <v>69.180388801548247</v>
       </c>
+      <c r="E78">
+        <v>10</v>
+      </c>
       <c r="G78">
         <f>Tabla13[[#This Row],[termocupla]]</f>
         <v>10</v>
       </c>
-      <c r="H78" s="1">
+      <c r="H78">
         <f>Tabla13[[#This Row],[Valor]]</f>
         <v>999</v>
       </c>
-      <c r="I78" s="1" t="str">
+      <c r="I78" t="str">
         <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Dif]],"), ",Tabla13[[#This Row],[IanProm]]," },")</f>
         <v>{ OV(  999), 10 },</v>
       </c>
+      <c r="J78" t="str">
+        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[Termometro K]]," },")</f>
+        <v>{ OV(  999), 10 },</v>
+      </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>1004</v>
       </c>
@@ -14693,20 +15767,27 @@
         <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
         <v>68.915335829638593</v>
       </c>
+      <c r="E79">
+        <v>5</v>
+      </c>
       <c r="G79">
         <f>Tabla13[[#This Row],[termocupla]]</f>
         <v>5</v>
       </c>
-      <c r="H79" s="1">
+      <c r="H79">
         <f>Tabla13[[#This Row],[Valor]]</f>
         <v>1004</v>
       </c>
-      <c r="I79" s="1" t="str">
+      <c r="I79" t="str">
         <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Dif]],"), ",Tabla13[[#This Row],[IanProm]]," },")</f>
         <v>{ OV(  1004), 5 },</v>
       </c>
+      <c r="J79" t="str">
+        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[Termometro K]]," },")</f>
+        <v>{ OV(  1004), 5 },</v>
+      </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>1008</v>
       </c>
@@ -14720,20 +15801,27 @@
         <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
         <v>68.704242112163513</v>
       </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
       <c r="G80">
         <f>Tabla13[[#This Row],[termocupla]]</f>
         <v>0</v>
       </c>
-      <c r="H80" s="1">
+      <c r="H80">
         <f>Tabla13[[#This Row],[Valor]]</f>
         <v>1008</v>
       </c>
-      <c r="I80" s="1" t="str">
+      <c r="I80" t="str">
         <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Dif]],"), ",Tabla13[[#This Row],[IanProm]]," },")</f>
         <v>{ OV(  1008), 0 },</v>
       </c>
+      <c r="J80" t="str">
+        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[Termometro K]]," },")</f>
+        <v>{ OV(  1008), 0 },</v>
+      </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>1012</v>
       </c>
@@ -14747,20 +15835,27 @@
         <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
         <v>68.493984411600934</v>
       </c>
+      <c r="E81">
+        <v>-5</v>
+      </c>
       <c r="G81">
         <f>Tabla13[[#This Row],[termocupla]]</f>
         <v>-5</v>
       </c>
-      <c r="H81" s="1">
+      <c r="H81">
         <f>Tabla13[[#This Row],[Valor]]</f>
         <v>1012</v>
       </c>
-      <c r="I81" s="1" t="str">
+      <c r="I81" t="str">
         <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Dif]],"), ",Tabla13[[#This Row],[IanProm]]," },")</f>
         <v>{ OV(  1012), -5 },</v>
       </c>
+      <c r="J81" t="str">
+        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[Termometro K]]," },")</f>
+        <v>{ OV(  1012), -5 },</v>
+      </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>1016</v>
       </c>
@@ -14774,20 +15869,27 @@
         <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
         <v>68.284556132130888</v>
       </c>
+      <c r="E82">
+        <v>-10</v>
+      </c>
       <c r="G82">
         <f>Tabla13[[#This Row],[termocupla]]</f>
         <v>-10</v>
       </c>
-      <c r="H82" s="1">
+      <c r="H82">
         <f>Tabla13[[#This Row],[Valor]]</f>
         <v>1016</v>
       </c>
-      <c r="I82" s="1" t="str">
+      <c r="I82" t="str">
         <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Dif]],"), ",Tabla13[[#This Row],[IanProm]]," },")</f>
         <v>{ OV(  1016), -10 },</v>
       </c>
+      <c r="J82" t="str">
+        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[Termometro K]]," },")</f>
+        <v>{ OV(  1016), -10 },</v>
+      </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>1020</v>
       </c>
@@ -14801,16 +15903,23 @@
         <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
         <v>68.075950755684175</v>
       </c>
+      <c r="E83">
+        <v>-15</v>
+      </c>
       <c r="G83">
         <f>Tabla13[[#This Row],[termocupla]]</f>
         <v>-15</v>
       </c>
-      <c r="H83" s="1">
+      <c r="H83">
         <f>Tabla13[[#This Row],[Valor]]</f>
         <v>1020</v>
       </c>
-      <c r="I83" s="1" t="str">
+      <c r="I83" t="str">
         <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Dif]],"), ",Tabla13[[#This Row],[IanProm]]," },")</f>
+        <v>{ OV(  1020), -15 },</v>
+      </c>
+      <c r="J83" t="str">
+        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[Termometro K]]," },")</f>
         <v>{ OV(  1020), -15 },</v>
       </c>
     </row>

--- a/Calibracion termistor 104 GT-2.xlsx
+++ b/Calibracion termistor 104 GT-2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ARCHIVOS IMPRESORA 3D\IanMarlin-main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\IanMarlin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64729DDC-455E-45EA-BAFF-2AEE8C2BC7EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48997692-1D79-4ECC-9AC3-3D5EC61AC15E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A08EAA92-78C6-4BC2-A345-6463F8A185EB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{A08EAA92-78C6-4BC2-A345-6463F8A185EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -21,12 +21,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
   <si>
     <t>original marlin</t>
   </si>
@@ -55,10 +66,16 @@
     <t>IanProm</t>
   </si>
   <si>
-    <t>TermistorUSA</t>
+    <t>DifAnt Termocupla K</t>
   </si>
   <si>
-    <t>DifAnt Termocupla K</t>
+    <t>termocupla Ian</t>
+  </si>
+  <si>
+    <t>Ian Calculado</t>
+  </si>
+  <si>
+    <t>TermK Calculado</t>
   </si>
 </sst>
 </file>
@@ -94,17 +111,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -139,7 +152,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="es-MX"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -222,6 +235,50 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="0"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-AR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Hoja1!$A$3:$A$33</c:f>
@@ -1859,7 +1916,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="es-MX"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2363,7 +2420,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="es-MX"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2911,7 +2968,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>termocupla</c:v>
+                  <c:v>termocupla Ian</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3931,7 +3988,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>termocupla</c:v>
+                  <c:v>termocupla Ian</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4951,7 +5008,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>termocupla</c:v>
+                  <c:v>termocupla Ian</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5971,7 +6028,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>termocupla</c:v>
+                  <c:v>termocupla Ian</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6002,6 +6059,12 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.5834099020625233"/>
+                  <c:y val="-0.41077811427417726"/>
+                </c:manualLayout>
+              </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -6727,7 +6790,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="es-MX"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6772,503 +6835,11 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="4"/>
+          <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>usa!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>original marlin</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>usa!$A$2:$A$83</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="82"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>109</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>131</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>143</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>156</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>171</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>187</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>205</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>224</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>245</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>268</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>293</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>320</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>348</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>379</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>411</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>445</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>480</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>516</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>553</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>591</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>628</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>665</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>702</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>737</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>770</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>801</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>830</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>857</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>881</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>903</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>922</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>939</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>954</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>966</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>977</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>985</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>993</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>999</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>1004</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>1008</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>1012</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>1016</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>1020</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>usa!$B$2:$B$83</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="82"/>
-                <c:pt idx="14">
-                  <c:v>320</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>315</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>310</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>305</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>295</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>290</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>285</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>280</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>275</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>270</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>265</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>260</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>255</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>245</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>235</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>230</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>225</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>220</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>215</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>205</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>195</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>190</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>185</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>175</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>165</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>155</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>145</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>135</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>125</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>115</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>-5</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>-10</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>-15</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-35DB-42FC-81AB-3F3AED2338BD}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="2"/>
           <c:tx>
             <c:strRef>
               <c:f>usa!$B$1</c:f>
@@ -7760,515 +7331,23 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-35DB-42FC-81AB-3F3AED2338BD}"/>
+              <c16:uniqueId val="{00000000-81AB-4639-A602-D81B6F4E5F1A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
-          <c:order val="4"/>
+          <c:idx val="1"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>usa!$B$1</c:f>
+              <c:f>usa!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>original marlin</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>usa!$A$2:$A$83</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="82"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>109</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>131</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>143</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>156</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>171</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>187</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>205</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>224</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>245</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>268</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>293</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>320</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>348</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>379</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>411</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>445</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>480</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>516</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>553</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>591</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>628</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>665</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>702</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>737</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>770</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>801</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>830</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>857</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>881</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>903</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>922</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>939</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>954</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>966</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>977</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>985</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>993</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>999</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>1004</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>1008</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>1012</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>1016</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>1020</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>usa!$B$2:$B$83</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="82"/>
-                <c:pt idx="14">
-                  <c:v>320</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>315</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>310</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>305</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>295</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>290</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>285</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>280</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>275</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>270</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>265</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>260</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>255</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>245</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>235</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>230</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>225</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>220</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>215</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>205</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>195</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>190</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>185</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>175</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>165</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>155</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>145</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>135</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>125</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>115</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>-5</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>-10</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>-15</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-35DB-42FC-81AB-3F3AED2338BD}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>usa!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>original marlin</c:v>
+                  <c:v>Termometro K</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8276,7 +7355,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -8285,497 +7364,56 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>usa!$A$2:$A$83</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="82"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>109</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>131</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>143</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>156</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>171</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>187</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>205</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>224</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>245</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>268</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>293</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>320</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>348</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>379</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>411</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>445</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>480</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>516</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>553</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>591</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>628</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>665</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>702</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>737</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>770</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>801</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>830</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>857</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>881</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>903</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>922</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>939</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>954</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>966</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>977</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>985</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>993</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>999</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>1004</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>1008</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>1012</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>1016</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>1020</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>usa!$B$2:$B$83</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="82"/>
-                <c:pt idx="14">
-                  <c:v>320</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>315</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>310</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>305</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>295</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>290</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>285</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>280</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>275</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>270</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>265</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>260</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>255</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>245</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>235</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>230</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>225</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>220</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>215</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>205</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>195</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>190</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>185</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>175</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>165</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>155</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>145</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>135</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>125</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>115</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>-5</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>-10</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>-15</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-35DB-42FC-81AB-3F3AED2338BD}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:v>termocupla K</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.62663244975886212"/>
+                  <c:y val="-0.51550163495449064"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-AR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>usa!$A$2:$A$83</c:f>
@@ -9037,9 +7675,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="82"/>
-                <c:pt idx="0">
-                  <c:v>713</c:v>
-                </c:pt>
                 <c:pt idx="12">
                   <c:v>301</c:v>
                 </c:pt>
@@ -9174,89 +7809,14 @@
                 </c:pt>
                 <c:pt idx="56">
                   <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>-5</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>-10</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>-15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-9322-480D-9872-2830677E7057}"/>
+              <c16:uniqueId val="{00000001-81AB-4639-A602-D81B6F4E5F1A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9268,1085 +7828,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1392664367"/>
-        <c:axId val="1345038847"/>
-        <c:extLst>
-          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredScatterSeries>
-              <c15:ser>
-                <c:idx val="5"/>
-                <c:order val="1"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>usa!$C$1</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>termocupla</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:marker>
-                  <c:symbol val="none"/>
-                </c:marker>
-                <c:xVal>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>usa!$A$2:$A$83</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="82"/>
-                      <c:pt idx="0">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>2</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>3</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>4</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>5</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>9</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>10</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>11</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>12</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>13</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>14</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>15</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>16</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>17</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>18</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>19</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>20</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>22</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>23</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>25</c:v>
-                      </c:pt>
-                      <c:pt idx="20">
-                        <c:v>27</c:v>
-                      </c:pt>
-                      <c:pt idx="21">
-                        <c:v>28</c:v>
-                      </c:pt>
-                      <c:pt idx="22">
-                        <c:v>31</c:v>
-                      </c:pt>
-                      <c:pt idx="23">
-                        <c:v>33</c:v>
-                      </c:pt>
-                      <c:pt idx="24">
-                        <c:v>35</c:v>
-                      </c:pt>
-                      <c:pt idx="25">
-                        <c:v>38</c:v>
-                      </c:pt>
-                      <c:pt idx="26">
-                        <c:v>41</c:v>
-                      </c:pt>
-                      <c:pt idx="27">
-                        <c:v>44</c:v>
-                      </c:pt>
-                      <c:pt idx="28">
-                        <c:v>48</c:v>
-                      </c:pt>
-                      <c:pt idx="29">
-                        <c:v>52</c:v>
-                      </c:pt>
-                      <c:pt idx="30">
-                        <c:v>56</c:v>
-                      </c:pt>
-                      <c:pt idx="31">
-                        <c:v>61</c:v>
-                      </c:pt>
-                      <c:pt idx="32">
-                        <c:v>66</c:v>
-                      </c:pt>
-                      <c:pt idx="33">
-                        <c:v>71</c:v>
-                      </c:pt>
-                      <c:pt idx="34">
-                        <c:v>78</c:v>
-                      </c:pt>
-                      <c:pt idx="35">
-                        <c:v>84</c:v>
-                      </c:pt>
-                      <c:pt idx="36">
-                        <c:v>92</c:v>
-                      </c:pt>
-                      <c:pt idx="37">
-                        <c:v>100</c:v>
-                      </c:pt>
-                      <c:pt idx="38">
-                        <c:v>109</c:v>
-                      </c:pt>
-                      <c:pt idx="39">
-                        <c:v>120</c:v>
-                      </c:pt>
-                      <c:pt idx="40">
-                        <c:v>131</c:v>
-                      </c:pt>
-                      <c:pt idx="41">
-                        <c:v>143</c:v>
-                      </c:pt>
-                      <c:pt idx="42">
-                        <c:v>156</c:v>
-                      </c:pt>
-                      <c:pt idx="43">
-                        <c:v>171</c:v>
-                      </c:pt>
-                      <c:pt idx="44">
-                        <c:v>187</c:v>
-                      </c:pt>
-                      <c:pt idx="45">
-                        <c:v>205</c:v>
-                      </c:pt>
-                      <c:pt idx="46">
-                        <c:v>224</c:v>
-                      </c:pt>
-                      <c:pt idx="47">
-                        <c:v>245</c:v>
-                      </c:pt>
-                      <c:pt idx="48">
-                        <c:v>268</c:v>
-                      </c:pt>
-                      <c:pt idx="49">
-                        <c:v>293</c:v>
-                      </c:pt>
-                      <c:pt idx="50">
-                        <c:v>320</c:v>
-                      </c:pt>
-                      <c:pt idx="51">
-                        <c:v>348</c:v>
-                      </c:pt>
-                      <c:pt idx="52">
-                        <c:v>379</c:v>
-                      </c:pt>
-                      <c:pt idx="53">
-                        <c:v>411</c:v>
-                      </c:pt>
-                      <c:pt idx="54">
-                        <c:v>445</c:v>
-                      </c:pt>
-                      <c:pt idx="55">
-                        <c:v>480</c:v>
-                      </c:pt>
-                      <c:pt idx="56">
-                        <c:v>516</c:v>
-                      </c:pt>
-                      <c:pt idx="57">
-                        <c:v>553</c:v>
-                      </c:pt>
-                      <c:pt idx="58">
-                        <c:v>591</c:v>
-                      </c:pt>
-                      <c:pt idx="59">
-                        <c:v>628</c:v>
-                      </c:pt>
-                      <c:pt idx="60">
-                        <c:v>665</c:v>
-                      </c:pt>
-                      <c:pt idx="61">
-                        <c:v>702</c:v>
-                      </c:pt>
-                      <c:pt idx="62">
-                        <c:v>737</c:v>
-                      </c:pt>
-                      <c:pt idx="63">
-                        <c:v>770</c:v>
-                      </c:pt>
-                      <c:pt idx="64">
-                        <c:v>801</c:v>
-                      </c:pt>
-                      <c:pt idx="65">
-                        <c:v>830</c:v>
-                      </c:pt>
-                      <c:pt idx="66">
-                        <c:v>857</c:v>
-                      </c:pt>
-                      <c:pt idx="67">
-                        <c:v>881</c:v>
-                      </c:pt>
-                      <c:pt idx="68">
-                        <c:v>903</c:v>
-                      </c:pt>
-                      <c:pt idx="69">
-                        <c:v>922</c:v>
-                      </c:pt>
-                      <c:pt idx="70">
-                        <c:v>939</c:v>
-                      </c:pt>
-                      <c:pt idx="71">
-                        <c:v>954</c:v>
-                      </c:pt>
-                      <c:pt idx="72">
-                        <c:v>966</c:v>
-                      </c:pt>
-                      <c:pt idx="73">
-                        <c:v>977</c:v>
-                      </c:pt>
-                      <c:pt idx="74">
-                        <c:v>985</c:v>
-                      </c:pt>
-                      <c:pt idx="75">
-                        <c:v>993</c:v>
-                      </c:pt>
-                      <c:pt idx="76">
-                        <c:v>999</c:v>
-                      </c:pt>
-                      <c:pt idx="77">
-                        <c:v>1004</c:v>
-                      </c:pt>
-                      <c:pt idx="78">
-                        <c:v>1008</c:v>
-                      </c:pt>
-                      <c:pt idx="79">
-                        <c:v>1012</c:v>
-                      </c:pt>
-                      <c:pt idx="80">
-                        <c:v>1016</c:v>
-                      </c:pt>
-                      <c:pt idx="81">
-                        <c:v>1020</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:xVal>
-                <c:yVal>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>usa!$C$2:$C$83</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="82"/>
-                      <c:pt idx="5">
-                        <c:v>320</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>314</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>309</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>304</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>300</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>296</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>292</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>289</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>285</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>282</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>280</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>277</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>272</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>269</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>265</c:v>
-                      </c:pt>
-                      <c:pt idx="20">
-                        <c:v>263</c:v>
-                      </c:pt>
-                      <c:pt idx="21">
-                        <c:v>260</c:v>
-                      </c:pt>
-                      <c:pt idx="22">
-                        <c:v>255</c:v>
-                      </c:pt>
-                      <c:pt idx="23">
-                        <c:v>250</c:v>
-                      </c:pt>
-                      <c:pt idx="24">
-                        <c:v>248</c:v>
-                      </c:pt>
-                      <c:pt idx="25">
-                        <c:v>243</c:v>
-                      </c:pt>
-                      <c:pt idx="26">
-                        <c:v>239</c:v>
-                      </c:pt>
-                      <c:pt idx="27">
-                        <c:v>235</c:v>
-                      </c:pt>
-                      <c:pt idx="28">
-                        <c:v>230</c:v>
-                      </c:pt>
-                      <c:pt idx="29">
-                        <c:v>225</c:v>
-                      </c:pt>
-                      <c:pt idx="30">
-                        <c:v>220</c:v>
-                      </c:pt>
-                      <c:pt idx="31">
-                        <c:v>217</c:v>
-                      </c:pt>
-                      <c:pt idx="32">
-                        <c:v>213</c:v>
-                      </c:pt>
-                      <c:pt idx="33">
-                        <c:v>209</c:v>
-                      </c:pt>
-                      <c:pt idx="34">
-                        <c:v>204</c:v>
-                      </c:pt>
-                      <c:pt idx="35">
-                        <c:v>200</c:v>
-                      </c:pt>
-                      <c:pt idx="36">
-                        <c:v>195</c:v>
-                      </c:pt>
-                      <c:pt idx="37">
-                        <c:v>190</c:v>
-                      </c:pt>
-                      <c:pt idx="38">
-                        <c:v>186</c:v>
-                      </c:pt>
-                      <c:pt idx="39">
-                        <c:v>181</c:v>
-                      </c:pt>
-                      <c:pt idx="40">
-                        <c:v>177</c:v>
-                      </c:pt>
-                      <c:pt idx="41">
-                        <c:v>173</c:v>
-                      </c:pt>
-                      <c:pt idx="42">
-                        <c:v>168</c:v>
-                      </c:pt>
-                      <c:pt idx="43">
-                        <c:v>162</c:v>
-                      </c:pt>
-                      <c:pt idx="44">
-                        <c:v>158</c:v>
-                      </c:pt>
-                      <c:pt idx="45">
-                        <c:v>154</c:v>
-                      </c:pt>
-                      <c:pt idx="46">
-                        <c:v>149</c:v>
-                      </c:pt>
-                      <c:pt idx="47">
-                        <c:v>145</c:v>
-                      </c:pt>
-                      <c:pt idx="48">
-                        <c:v>140</c:v>
-                      </c:pt>
-                      <c:pt idx="49">
-                        <c:v>135</c:v>
-                      </c:pt>
-                      <c:pt idx="50">
-                        <c:v>130</c:v>
-                      </c:pt>
-                      <c:pt idx="51">
-                        <c:v>125</c:v>
-                      </c:pt>
-                      <c:pt idx="52">
-                        <c:v>121</c:v>
-                      </c:pt>
-                      <c:pt idx="53">
-                        <c:v>116</c:v>
-                      </c:pt>
-                      <c:pt idx="54">
-                        <c:v>111</c:v>
-                      </c:pt>
-                      <c:pt idx="55">
-                        <c:v>106</c:v>
-                      </c:pt>
-                      <c:pt idx="56">
-                        <c:v>102</c:v>
-                      </c:pt>
-                      <c:pt idx="57">
-                        <c:v>97</c:v>
-                      </c:pt>
-                      <c:pt idx="58">
-                        <c:v>93</c:v>
-                      </c:pt>
-                      <c:pt idx="59">
-                        <c:v>88</c:v>
-                      </c:pt>
-                      <c:pt idx="60">
-                        <c:v>84</c:v>
-                      </c:pt>
-                      <c:pt idx="61">
-                        <c:v>79</c:v>
-                      </c:pt>
-                      <c:pt idx="62">
-                        <c:v>74</c:v>
-                      </c:pt>
-                      <c:pt idx="63">
-                        <c:v>69</c:v>
-                      </c:pt>
-                      <c:pt idx="64">
-                        <c:v>65</c:v>
-                      </c:pt>
-                      <c:pt idx="65">
-                        <c:v>60</c:v>
-                      </c:pt>
-                      <c:pt idx="66">
-                        <c:v>56</c:v>
-                      </c:pt>
-                      <c:pt idx="67">
-                        <c:v>51</c:v>
-                      </c:pt>
-                      <c:pt idx="68">
-                        <c:v>47</c:v>
-                      </c:pt>
-                      <c:pt idx="69">
-                        <c:v>42</c:v>
-                      </c:pt>
-                      <c:pt idx="70">
-                        <c:v>38</c:v>
-                      </c:pt>
-                      <c:pt idx="71">
-                        <c:v>33</c:v>
-                      </c:pt>
-                      <c:pt idx="72">
-                        <c:v>29</c:v>
-                      </c:pt>
-                      <c:pt idx="73">
-                        <c:v>25</c:v>
-                      </c:pt>
-                      <c:pt idx="74">
-                        <c:v>20</c:v>
-                      </c:pt>
-                      <c:pt idx="75">
-                        <c:v>15</c:v>
-                      </c:pt>
-                      <c:pt idx="76">
-                        <c:v>10</c:v>
-                      </c:pt>
-                      <c:pt idx="77">
-                        <c:v>5</c:v>
-                      </c:pt>
-                      <c:pt idx="78">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="79">
-                        <c:v>-5</c:v>
-                      </c:pt>
-                      <c:pt idx="80">
-                        <c:v>-10</c:v>
-                      </c:pt>
-                      <c:pt idx="81">
-                        <c:v>-15</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:yVal>
-                <c:smooth val="1"/>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000001-35DB-42FC-81AB-3F3AED2338BD}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredScatterSeries>
-            <c15:filteredScatterSeries>
-              <c15:ser>
-                <c:idx val="7"/>
-                <c:order val="3"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>usa!$C$1</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>termocupla</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="19050" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent2"/>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="none"/>
-                </c:marker>
-                <c:trendline>
-                  <c:trendlineType val="log"/>
-                  <c:dispRSqr val="1"/>
-                  <c:dispEq val="1"/>
-                  <c:trendlineLbl>
-                    <c:numFmt formatCode="General" sourceLinked="0"/>
-                  </c:trendlineLbl>
-                </c:trendline>
-                <c:xVal>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>usa!$A$8:$A$41</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="34"/>
-                      <c:pt idx="0">
-                        <c:v>10</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>11</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>12</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>13</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>14</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>15</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>16</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>17</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>18</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>19</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>20</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>22</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>23</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>25</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>27</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>28</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>31</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>33</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>35</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>38</c:v>
-                      </c:pt>
-                      <c:pt idx="20">
-                        <c:v>41</c:v>
-                      </c:pt>
-                      <c:pt idx="21">
-                        <c:v>44</c:v>
-                      </c:pt>
-                      <c:pt idx="22">
-                        <c:v>48</c:v>
-                      </c:pt>
-                      <c:pt idx="23">
-                        <c:v>52</c:v>
-                      </c:pt>
-                      <c:pt idx="24">
-                        <c:v>56</c:v>
-                      </c:pt>
-                      <c:pt idx="25">
-                        <c:v>61</c:v>
-                      </c:pt>
-                      <c:pt idx="26">
-                        <c:v>66</c:v>
-                      </c:pt>
-                      <c:pt idx="27">
-                        <c:v>71</c:v>
-                      </c:pt>
-                      <c:pt idx="28">
-                        <c:v>78</c:v>
-                      </c:pt>
-                      <c:pt idx="29">
-                        <c:v>84</c:v>
-                      </c:pt>
-                      <c:pt idx="30">
-                        <c:v>92</c:v>
-                      </c:pt>
-                      <c:pt idx="31">
-                        <c:v>100</c:v>
-                      </c:pt>
-                      <c:pt idx="32">
-                        <c:v>109</c:v>
-                      </c:pt>
-                      <c:pt idx="33">
-                        <c:v>120</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:xVal>
-                <c:yVal>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>usa!$C$8:$C$41</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="34"/>
-                      <c:pt idx="0">
-                        <c:v>314</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>309</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>304</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>300</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>296</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>292</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>289</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>285</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>282</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>280</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>277</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>272</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>269</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>265</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>263</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>260</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>255</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>250</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>248</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>243</c:v>
-                      </c:pt>
-                      <c:pt idx="20">
-                        <c:v>239</c:v>
-                      </c:pt>
-                      <c:pt idx="21">
-                        <c:v>235</c:v>
-                      </c:pt>
-                      <c:pt idx="22">
-                        <c:v>230</c:v>
-                      </c:pt>
-                      <c:pt idx="23">
-                        <c:v>225</c:v>
-                      </c:pt>
-                      <c:pt idx="24">
-                        <c:v>220</c:v>
-                      </c:pt>
-                      <c:pt idx="25">
-                        <c:v>217</c:v>
-                      </c:pt>
-                      <c:pt idx="26">
-                        <c:v>213</c:v>
-                      </c:pt>
-                      <c:pt idx="27">
-                        <c:v>209</c:v>
-                      </c:pt>
-                      <c:pt idx="28">
-                        <c:v>204</c:v>
-                      </c:pt>
-                      <c:pt idx="29">
-                        <c:v>200</c:v>
-                      </c:pt>
-                      <c:pt idx="30">
-                        <c:v>195</c:v>
-                      </c:pt>
-                      <c:pt idx="31">
-                        <c:v>190</c:v>
-                      </c:pt>
-                      <c:pt idx="32">
-                        <c:v>186</c:v>
-                      </c:pt>
-                      <c:pt idx="33">
-                        <c:v>181</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:yVal>
-                <c:smooth val="1"/>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000003-35DB-42FC-81AB-3F3AED2338BD}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredScatterSeries>
-            <c15:filteredScatterSeries>
-              <c15:ser>
-                <c:idx val="1"/>
-                <c:order val="6"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>usa!$C$1</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>termocupla</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="19050" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent2"/>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="none"/>
-                </c:marker>
-                <c:xVal>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>usa!$A$2:$A$33</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="32"/>
-                      <c:pt idx="0">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>2</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>3</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>4</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>5</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>9</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>10</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>11</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>12</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>13</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>14</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>15</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>16</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>17</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>18</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>19</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>20</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>22</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>23</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>25</c:v>
-                      </c:pt>
-                      <c:pt idx="20">
-                        <c:v>27</c:v>
-                      </c:pt>
-                      <c:pt idx="21">
-                        <c:v>28</c:v>
-                      </c:pt>
-                      <c:pt idx="22">
-                        <c:v>31</c:v>
-                      </c:pt>
-                      <c:pt idx="23">
-                        <c:v>33</c:v>
-                      </c:pt>
-                      <c:pt idx="24">
-                        <c:v>35</c:v>
-                      </c:pt>
-                      <c:pt idx="25">
-                        <c:v>38</c:v>
-                      </c:pt>
-                      <c:pt idx="26">
-                        <c:v>41</c:v>
-                      </c:pt>
-                      <c:pt idx="27">
-                        <c:v>44</c:v>
-                      </c:pt>
-                      <c:pt idx="28">
-                        <c:v>48</c:v>
-                      </c:pt>
-                      <c:pt idx="29">
-                        <c:v>52</c:v>
-                      </c:pt>
-                      <c:pt idx="30">
-                        <c:v>56</c:v>
-                      </c:pt>
-                      <c:pt idx="31">
-                        <c:v>61</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:xVal>
-                <c:yVal>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>usa!$C$2:$C$33</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="32"/>
-                      <c:pt idx="5">
-                        <c:v>320</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>314</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>309</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>304</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>300</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>296</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>292</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>289</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>285</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>282</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>280</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>277</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>272</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>269</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>265</c:v>
-                      </c:pt>
-                      <c:pt idx="20">
-                        <c:v>263</c:v>
-                      </c:pt>
-                      <c:pt idx="21">
-                        <c:v>260</c:v>
-                      </c:pt>
-                      <c:pt idx="22">
-                        <c:v>255</c:v>
-                      </c:pt>
-                      <c:pt idx="23">
-                        <c:v>250</c:v>
-                      </c:pt>
-                      <c:pt idx="24">
-                        <c:v>248</c:v>
-                      </c:pt>
-                      <c:pt idx="25">
-                        <c:v>243</c:v>
-                      </c:pt>
-                      <c:pt idx="26">
-                        <c:v>239</c:v>
-                      </c:pt>
-                      <c:pt idx="27">
-                        <c:v>235</c:v>
-                      </c:pt>
-                      <c:pt idx="28">
-                        <c:v>230</c:v>
-                      </c:pt>
-                      <c:pt idx="29">
-                        <c:v>225</c:v>
-                      </c:pt>
-                      <c:pt idx="30">
-                        <c:v>220</c:v>
-                      </c:pt>
-                      <c:pt idx="31">
-                        <c:v>217</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:yVal>
-                <c:smooth val="1"/>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000008-35DB-42FC-81AB-3F3AED2338BD}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredScatterSeries>
-          </c:ext>
-        </c:extLst>
+        <c:axId val="1466811376"/>
+        <c:axId val="1466806576"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1392664367"/>
+        <c:axId val="1466811376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10403,12 +7889,12 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1345038847"/>
+        <c:crossAx val="1466806576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1345038847"/>
+        <c:axId val="1466806576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10465,10 +7951,17 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1392664367"/>
+        <c:crossAx val="1466811376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
@@ -10503,9 +7996,30 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
     <c:showDLblsOverMax val="0"/>
-    <c:extLst/>
   </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
   <c:txPr>
     <a:bodyPr/>
     <a:lstStyle/>
@@ -10565,6 +8079,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -11636,6 +9190,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -11717,13 +9787,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>181842</xdr:colOff>
       <xdr:row>80</xdr:row>
       <xdr:rowOff>132051</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>519979</xdr:colOff>
       <xdr:row>145</xdr:row>
       <xdr:rowOff>132051</xdr:rowOff>
@@ -11753,29 +9823,27 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>64434</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>39221</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>566737</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>402571</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>39221</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Gráfico 6">
+        <xdr:cNvPr id="3" name="Gráfico 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA91E657-2F3F-49FF-A36C-9740E37B5886}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BF658F2-08AD-E828-207D-DF3FAFCFB380}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -11803,10 +9871,10 @@
     <tableColumn id="5" xr3:uid="{65EF1CB1-6BBC-43AC-A72B-DA603C088E40}" name="Termometro K"/>
     <tableColumn id="6" xr3:uid="{E0BD7114-7686-4BB6-AB81-489787702221}" name="adoptado"/>
     <tableColumn id="7" xr3:uid="{64094014-E0D2-4511-A2FB-BC11E513A135}" name="IanProm"/>
-    <tableColumn id="8" xr3:uid="{964E7193-4BE8-42F2-AF01-B9F3BC796F2C}" name="Dif" dataDxfId="6">
+    <tableColumn id="8" xr3:uid="{964E7193-4BE8-42F2-AF01-B9F3BC796F2C}" name="Dif" dataDxfId="5">
       <calculatedColumnFormula>Tabla1[[#This Row],[Valor]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{2AA7AC65-A4AA-4F03-8B79-BD568DEB48B6}" name="DifAnt" dataDxfId="5">
+    <tableColumn id="9" xr3:uid="{2AA7AC65-A4AA-4F03-8B79-BD568DEB48B6}" name="DifAnt" dataDxfId="4">
       <calculatedColumnFormula>CONCATENATE("{ OV(  ",Tabla1[[#This Row],[Dif]],"), ",Tabla1[[#This Row],[IanProm]]," },")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -11815,31 +9883,28 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{829CD81E-7403-4255-A2AA-E45D28D83766}" name="Tabla13" displayName="Tabla13" ref="A1:J83" totalsRowShown="0">
-  <autoFilter ref="A1:J83" xr:uid="{F51493D3-77F3-4F43-BE10-20FD61E5E4EA}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I83">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{829CD81E-7403-4255-A2AA-E45D28D83766}" name="Tabla13" displayName="Tabla13" ref="A1:I83" totalsRowShown="0">
+  <autoFilter ref="A1:I83" xr:uid="{F51493D3-77F3-4F43-BE10-20FD61E5E4EA}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H83">
     <sortCondition ref="A1:A83"/>
   </sortState>
-  <tableColumns count="10">
+  <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{CD40BD62-504B-41F8-84C6-F832FB0AFE1F}" name="Valor"/>
     <tableColumn id="2" xr3:uid="{EFBD1770-C9CB-439E-90D5-13E06A3F722B}" name="original marlin"/>
-    <tableColumn id="3" xr3:uid="{9FDD27FD-3E9E-485D-B95D-12211081E729}" name="termocupla"/>
-    <tableColumn id="4" xr3:uid="{0BE02F66-8B5D-492E-A0EB-CC00F73BE616}" name="TermistorUSA" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{9FDD27FD-3E9E-485D-B95D-12211081E729}" name="termocupla Ian"/>
+    <tableColumn id="4" xr3:uid="{0BE02F66-8B5D-492E-A0EB-CC00F73BE616}" name="Ian Calculado" dataDxfId="3">
       <calculatedColumnFormula>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{93B80CB3-20D7-4B76-9D4F-9B0B307F0392}" name="Termometro K"/>
+    <tableColumn id="7" xr3:uid="{1FEA4167-CBD0-4EA2-8988-01B77E124520}" name="TermK Calculado" dataDxfId="0">
+      <calculatedColumnFormula>-53.47*LN(Tabla13[[#This Row],[Valor]])+442.58</calculatedColumnFormula>
+    </tableColumn>
     <tableColumn id="6" xr3:uid="{E4F52C58-EEEE-4D91-92BC-CD2EC6D332FB}" name="adoptado"/>
-    <tableColumn id="7" xr3:uid="{ED2B0AF0-48AD-45EE-950C-A77141E4628B}" name="IanProm" dataDxfId="4">
-      <calculatedColumnFormula>Tabla13[[#This Row],[termocupla]]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="8" xr3:uid="{4F61F1DB-ECCF-4E96-A5A0-B3595C48D2F9}" name="Dif" dataDxfId="3">
-      <calculatedColumnFormula>Tabla13[[#This Row],[Valor]]</calculatedColumnFormula>
-    </tableColumn>
     <tableColumn id="9" xr3:uid="{E4A8903A-036F-423A-9687-40B1A3D2D4FB}" name="DifAnt" dataDxfId="2">
-      <calculatedColumnFormula>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Dif]],"), ",Tabla13[[#This Row],[IanProm]]," },")</calculatedColumnFormula>
+      <calculatedColumnFormula>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[termocupla Ian]]," },")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="10" xr3:uid="{73E68F1E-C946-4E3F-9943-A57F02EC03F0}" name="DifAnt Termocupla K" dataDxfId="1">
-      <calculatedColumnFormula>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[Termometro K]]," },")</calculatedColumnFormula>
+      <calculatedColumnFormula>IF(Tabla13[[#This Row],[adoptado]]="","",CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[adoptado]]," },"))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -11847,9 +9912,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -11887,7 +9952,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -11993,7 +10058,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -12135,7 +10200,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -13175,10 +11240,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C10B22CE-B10E-47F1-ACE5-C86D93104FE3}">
-  <dimension ref="A1:J83"/>
+  <dimension ref="A1:I83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13188,12 +11253,13 @@
     <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.7109375" customWidth="1"/>
-    <col min="10" max="10" width="23.85546875" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.7109375" customWidth="1"/>
+    <col min="9" max="9" width="23.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -13201,31 +11267,28 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>8</v>
-      </c>
       <c r="H1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -13233,27 +11296,23 @@
         <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
         <v>435.86</v>
       </c>
-      <c r="E2">
+      <c r="F2">
+        <f>-53.47*LN(Tabla13[[#This Row],[Valor]])+442.58</f>
+        <v>442.58</v>
+      </c>
+      <c r="G2">
         <v>713</v>
       </c>
-      <c r="G2">
-        <f>Tabla13[[#This Row],[termocupla]]</f>
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <f>Tabla13[[#This Row],[Valor]]</f>
-        <v>1</v>
+      <c r="H2" t="str">
+        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[termocupla Ian]]," },")</f>
+        <v>{ OV(  1),  },</v>
       </c>
       <c r="I2" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Dif]],"), ",Tabla13[[#This Row],[IanProm]]," },")</f>
-        <v>{ OV(  1), 0 },</v>
-      </c>
-      <c r="J2" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[Termometro K]]," },")</f>
+        <f>IF(Tabla13[[#This Row],[adoptado]]="","",CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[adoptado]]," },"))</f>
         <v>{ OV(  1), 713 },</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -13261,24 +11320,20 @@
         <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
         <v>399.06081618407251</v>
       </c>
-      <c r="G3">
-        <f>Tabla13[[#This Row],[termocupla]]</f>
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <f>Tabla13[[#This Row],[Valor]]</f>
-        <v>2</v>
+      <c r="F3">
+        <f>-53.47*LN(Tabla13[[#This Row],[Valor]])+442.58</f>
+        <v>405.51742025545968</v>
+      </c>
+      <c r="H3" t="str">
+        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[termocupla Ian]]," },")</f>
+        <v>{ OV(  2),  },</v>
       </c>
       <c r="I3" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Dif]],"), ",Tabla13[[#This Row],[IanProm]]," },")</f>
-        <v>{ OV(  2), 0 },</v>
-      </c>
-      <c r="J3" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[Termometro K]]," },")</f>
-        <v>{ OV(  2),  },</v>
+        <f>IF(Tabla13[[#This Row],[adoptado]]="","",CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[adoptado]]," },"))</f>
+        <v/>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -13286,24 +11341,20 @@
         <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
         <v>377.53467359461007</v>
       </c>
-      <c r="G4">
-        <f>Tabla13[[#This Row],[termocupla]]</f>
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <f>Tabla13[[#This Row],[Valor]]</f>
-        <v>3</v>
+      <c r="F4">
+        <f>-53.47*LN(Tabla13[[#This Row],[Valor]])+442.58</f>
+        <v>383.83720092491615</v>
+      </c>
+      <c r="H4" t="str">
+        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[termocupla Ian]]," },")</f>
+        <v>{ OV(  3),  },</v>
       </c>
       <c r="I4" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Dif]],"), ",Tabla13[[#This Row],[IanProm]]," },")</f>
-        <v>{ OV(  3), 0 },</v>
-      </c>
-      <c r="J4" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[Termometro K]]," },")</f>
-        <v>{ OV(  3),  },</v>
+        <f>IF(Tabla13[[#This Row],[adoptado]]="","",CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[adoptado]]," },"))</f>
+        <v/>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -13311,24 +11362,20 @@
         <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
         <v>362.261632368145</v>
       </c>
-      <c r="G5">
-        <f>Tabla13[[#This Row],[termocupla]]</f>
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <f>Tabla13[[#This Row],[Valor]]</f>
-        <v>4</v>
+      <c r="F5">
+        <f>-53.47*LN(Tabla13[[#This Row],[Valor]])+442.58</f>
+        <v>368.45484051091944</v>
+      </c>
+      <c r="H5" t="str">
+        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[termocupla Ian]]," },")</f>
+        <v>{ OV(  4),  },</v>
       </c>
       <c r="I5" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Dif]],"), ",Tabla13[[#This Row],[IanProm]]," },")</f>
-        <v>{ OV(  4), 0 },</v>
-      </c>
-      <c r="J5" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[Termometro K]]," },")</f>
-        <v>{ OV(  4),  },</v>
+        <f>IF(Tabla13[[#This Row],[adoptado]]="","",CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[adoptado]]," },"))</f>
+        <v/>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -13336,24 +11383,20 @@
         <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
         <v>350.41494122887366</v>
       </c>
-      <c r="G6">
-        <f>Tabla13[[#This Row],[termocupla]]</f>
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <f>Tabla13[[#This Row],[Valor]]</f>
-        <v>5</v>
+      <c r="F6">
+        <f>-53.47*LN(Tabla13[[#This Row],[Valor]])+442.58</f>
+        <v>356.52335482214863</v>
+      </c>
+      <c r="H6" t="str">
+        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[termocupla Ian]]," },")</f>
+        <v>{ OV(  5),  },</v>
       </c>
       <c r="I6" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Dif]],"), ",Tabla13[[#This Row],[IanProm]]," },")</f>
-        <v>{ OV(  5), 0 },</v>
-      </c>
-      <c r="J6" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[Termometro K]]," },")</f>
-        <v>{ OV(  5),  },</v>
+        <f>IF(Tabla13[[#This Row],[adoptado]]="","",CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[adoptado]]," },"))</f>
+        <v/>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>9</v>
       </c>
@@ -13364,24 +11407,20 @@
         <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
         <v>319.20934718922013</v>
       </c>
-      <c r="G7">
-        <f>Tabla13[[#This Row],[termocupla]]</f>
-        <v>320</v>
-      </c>
-      <c r="H7">
-        <f>Tabla13[[#This Row],[Valor]]</f>
-        <v>9</v>
+      <c r="F7">
+        <f>-53.47*LN(Tabla13[[#This Row],[Valor]])+442.58</f>
+        <v>325.09440184983231</v>
+      </c>
+      <c r="H7" t="str">
+        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[termocupla Ian]]," },")</f>
+        <v>{ OV(  9), 320 },</v>
       </c>
       <c r="I7" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Dif]],"), ",Tabla13[[#This Row],[IanProm]]," },")</f>
-        <v>{ OV(  9), 320 },</v>
-      </c>
-      <c r="J7" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[Termometro K]]," },")</f>
-        <v>{ OV(  9),  },</v>
+        <f>IF(Tabla13[[#This Row],[adoptado]]="","",CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[adoptado]]," },"))</f>
+        <v/>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>10</v>
       </c>
@@ -13392,24 +11431,20 @@
         <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
         <v>313.6157574129461</v>
       </c>
-      <c r="G8">
-        <f>Tabla13[[#This Row],[termocupla]]</f>
-        <v>314</v>
-      </c>
-      <c r="H8">
-        <f>Tabla13[[#This Row],[Valor]]</f>
-        <v>10</v>
+      <c r="F8">
+        <f>-53.47*LN(Tabla13[[#This Row],[Valor]])+442.58</f>
+        <v>319.46077507760833</v>
+      </c>
+      <c r="H8" t="str">
+        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[termocupla Ian]]," },")</f>
+        <v>{ OV(  10), 314 },</v>
       </c>
       <c r="I8" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Dif]],"), ",Tabla13[[#This Row],[IanProm]]," },")</f>
-        <v>{ OV(  10), 314 },</v>
-      </c>
-      <c r="J8" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[Termometro K]]," },")</f>
-        <v>{ OV(  10),  },</v>
+        <f>IF(Tabla13[[#This Row],[adoptado]]="","",CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[adoptado]]," },"))</f>
+        <v/>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>11</v>
       </c>
@@ -13420,24 +11455,20 @@
         <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
         <v>308.55573996713451</v>
       </c>
-      <c r="G9">
-        <f>Tabla13[[#This Row],[termocupla]]</f>
-        <v>309</v>
-      </c>
-      <c r="H9">
-        <f>Tabla13[[#This Row],[Valor]]</f>
-        <v>11</v>
+      <c r="F9">
+        <f>-53.47*LN(Tabla13[[#This Row],[Valor]])+442.58</f>
+        <v>314.3645397634711</v>
+      </c>
+      <c r="H9" t="str">
+        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[termocupla Ian]]," },")</f>
+        <v>{ OV(  11), 309 },</v>
       </c>
       <c r="I9" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Dif]],"), ",Tabla13[[#This Row],[IanProm]]," },")</f>
-        <v>{ OV(  11), 309 },</v>
-      </c>
-      <c r="J9" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[Termometro K]]," },")</f>
-        <v>{ OV(  11),  },</v>
+        <f>IF(Tabla13[[#This Row],[adoptado]]="","",CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[adoptado]]," },"))</f>
+        <v/>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>12</v>
       </c>
@@ -13448,24 +11479,20 @@
         <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
         <v>303.93630596275506</v>
       </c>
-      <c r="G10">
-        <f>Tabla13[[#This Row],[termocupla]]</f>
-        <v>304</v>
-      </c>
-      <c r="H10">
-        <f>Tabla13[[#This Row],[Valor]]</f>
-        <v>12</v>
+      <c r="F10">
+        <f>-53.47*LN(Tabla13[[#This Row],[Valor]])+442.58</f>
+        <v>309.7120414358356</v>
+      </c>
+      <c r="H10" t="str">
+        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[termocupla Ian]]," },")</f>
+        <v>{ OV(  12), 304 },</v>
       </c>
       <c r="I10" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Dif]],"), ",Tabla13[[#This Row],[IanProm]]," },")</f>
-        <v>{ OV(  12), 304 },</v>
-      </c>
-      <c r="J10" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[Termometro K]]," },")</f>
-        <v>{ OV(  12),  },</v>
+        <f>IF(Tabla13[[#This Row],[adoptado]]="","",CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[adoptado]]," },"))</f>
+        <v/>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>13</v>
       </c>
@@ -13476,24 +11503,20 @@
         <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
         <v>299.68683861236701</v>
       </c>
-      <c r="G11">
-        <f>Tabla13[[#This Row],[termocupla]]</f>
-        <v>300</v>
-      </c>
-      <c r="H11">
-        <f>Tabla13[[#This Row],[Valor]]</f>
-        <v>13</v>
+      <c r="F11">
+        <f>-53.47*LN(Tabla13[[#This Row],[Valor]])+442.58</f>
+        <v>305.4321578565316</v>
+      </c>
+      <c r="H11" t="str">
+        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[termocupla Ian]]," },")</f>
+        <v>{ OV(  13), 300 },</v>
       </c>
       <c r="I11" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Dif]],"), ",Tabla13[[#This Row],[IanProm]]," },")</f>
-        <v>{ OV(  13), 300 },</v>
-      </c>
-      <c r="J11" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[Termometro K]]," },")</f>
-        <v>{ OV(  13),  },</v>
+        <f>IF(Tabla13[[#This Row],[adoptado]]="","",CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[adoptado]]," },"))</f>
+        <v/>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>14</v>
       </c>
@@ -13504,24 +11527,20 @@
         <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
         <v>295.75244637072592</v>
       </c>
-      <c r="G12">
-        <f>Tabla13[[#This Row],[termocupla]]</f>
-        <v>296</v>
-      </c>
-      <c r="H12">
-        <f>Tabla13[[#This Row],[Valor]]</f>
-        <v>14</v>
+      <c r="F12">
+        <f>-53.47*LN(Tabla13[[#This Row],[Valor]])+442.58</f>
+        <v>301.4696045854721</v>
+      </c>
+      <c r="H12" t="str">
+        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[termocupla Ian]]," },")</f>
+        <v>{ OV(  14), 296 },</v>
       </c>
       <c r="I12" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Dif]],"), ",Tabla13[[#This Row],[IanProm]]," },")</f>
-        <v>{ OV(  14), 296 },</v>
-      </c>
-      <c r="J12" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[Termometro K]]," },")</f>
-        <v>{ OV(  14),  },</v>
+        <f>IF(Tabla13[[#This Row],[adoptado]]="","",CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[adoptado]]," },"))</f>
+        <v/>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>15</v>
       </c>
@@ -13532,24 +11551,20 @@
         <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
         <v>292.08961482348366</v>
       </c>
-      <c r="G13">
-        <f>Tabla13[[#This Row],[termocupla]]</f>
-        <v>292</v>
-      </c>
-      <c r="H13">
-        <f>Tabla13[[#This Row],[Valor]]</f>
-        <v>15</v>
+      <c r="F13">
+        <f>-53.47*LN(Tabla13[[#This Row],[Valor]])+442.58</f>
+        <v>297.7805557470648</v>
+      </c>
+      <c r="H13" t="str">
+        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[termocupla Ian]]," },")</f>
+        <v>{ OV(  15), 292 },</v>
       </c>
       <c r="I13" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Dif]],"), ",Tabla13[[#This Row],[IanProm]]," },")</f>
-        <v>{ OV(  15), 292 },</v>
-      </c>
-      <c r="J13" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[Termometro K]]," },")</f>
-        <v>{ OV(  15),  },</v>
+        <f>IF(Tabla13[[#This Row],[adoptado]]="","",CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[adoptado]]," },"))</f>
+        <v/>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>16</v>
       </c>
@@ -13563,24 +11578,23 @@
       <c r="E14">
         <v>301</v>
       </c>
+      <c r="F14">
+        <f>-53.47*LN(Tabla13[[#This Row],[Valor]])+442.58</f>
+        <v>294.32968102183889</v>
+      </c>
       <c r="G14">
-        <f>Tabla13[[#This Row],[termocupla]]</f>
-        <v>289</v>
-      </c>
-      <c r="H14">
-        <f>Tabla13[[#This Row],[Valor]]</f>
-        <v>16</v>
+        <v>301</v>
+      </c>
+      <c r="H14" t="str">
+        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[termocupla Ian]]," },")</f>
+        <v>{ OV(  16), 289 },</v>
       </c>
       <c r="I14" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Dif]],"), ",Tabla13[[#This Row],[IanProm]]," },")</f>
-        <v>{ OV(  16), 289 },</v>
-      </c>
-      <c r="J14" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[Termometro K]]," },")</f>
+        <f>IF(Tabla13[[#This Row],[adoptado]]="","",CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[adoptado]]," },"))</f>
         <v>{ OV(  16), 301 },</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>17</v>
       </c>
@@ -13594,24 +11608,23 @@
       <c r="E15">
         <v>296</v>
       </c>
+      <c r="F15">
+        <f>-53.47*LN(Tabla13[[#This Row],[Valor]])+442.58</f>
+        <v>291.08808249331412</v>
+      </c>
       <c r="G15">
-        <f>Tabla13[[#This Row],[termocupla]]</f>
-        <v>285</v>
-      </c>
-      <c r="H15">
-        <f>Tabla13[[#This Row],[Valor]]</f>
-        <v>17</v>
+        <v>296</v>
+      </c>
+      <c r="H15" t="str">
+        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[termocupla Ian]]," },")</f>
+        <v>{ OV(  17), 285 },</v>
       </c>
       <c r="I15" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Dif]],"), ",Tabla13[[#This Row],[IanProm]]," },")</f>
-        <v>{ OV(  17), 285 },</v>
-      </c>
-      <c r="J15" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[Termometro K]]," },")</f>
+        <f>IF(Tabla13[[#This Row],[adoptado]]="","",CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[adoptado]]," },"))</f>
         <v>{ OV(  17), 296 },</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>18</v>
       </c>
@@ -13625,27 +11638,26 @@
         <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
         <v>282.41016337329262</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16">
         <v>293</v>
       </c>
+      <c r="F16">
+        <f>-53.47*LN(Tabla13[[#This Row],[Valor]])+442.58</f>
+        <v>288.03182210529206</v>
+      </c>
       <c r="G16">
-        <f>Tabla13[[#This Row],[termocupla]]</f>
-        <v>282</v>
-      </c>
-      <c r="H16">
-        <f>Tabla13[[#This Row],[Valor]]</f>
-        <v>18</v>
+        <v>293</v>
+      </c>
+      <c r="H16" t="str">
+        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[termocupla Ian]]," },")</f>
+        <v>{ OV(  18), 282 },</v>
       </c>
       <c r="I16" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Dif]],"), ",Tabla13[[#This Row],[IanProm]]," },")</f>
-        <v>{ OV(  18), 282 },</v>
-      </c>
-      <c r="J16" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[Termometro K]]," },")</f>
+        <f>IF(Tabla13[[#This Row],[adoptado]]="","",CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[adoptado]]," },"))</f>
         <v>{ OV(  18), 293 },</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>19</v>
       </c>
@@ -13659,27 +11671,26 @@
         <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
         <v>279.53973459605368</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17">
         <v>290</v>
       </c>
+      <c r="F17">
+        <f>-53.47*LN(Tabla13[[#This Row],[Valor]])+442.58</f>
+        <v>285.14084778397046</v>
+      </c>
       <c r="G17">
-        <f>Tabla13[[#This Row],[termocupla]]</f>
-        <v>280</v>
-      </c>
-      <c r="H17">
-        <f>Tabla13[[#This Row],[Valor]]</f>
-        <v>19</v>
+        <v>290</v>
+      </c>
+      <c r="H17" t="str">
+        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[termocupla Ian]]," },")</f>
+        <v>{ OV(  19), 280 },</v>
       </c>
       <c r="I17" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Dif]],"), ",Tabla13[[#This Row],[IanProm]]," },")</f>
-        <v>{ OV(  19), 280 },</v>
-      </c>
-      <c r="J17" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[Termometro K]]," },")</f>
+        <f>IF(Tabla13[[#This Row],[adoptado]]="","",CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[adoptado]]," },"))</f>
         <v>{ OV(  19), 290 },</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>20</v>
       </c>
@@ -13693,27 +11704,26 @@
         <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
         <v>276.81657359701865</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18">
         <v>286</v>
       </c>
+      <c r="F18">
+        <f>-53.47*LN(Tabla13[[#This Row],[Valor]])+442.58</f>
+        <v>282.39819533306809</v>
+      </c>
       <c r="G18">
-        <f>Tabla13[[#This Row],[termocupla]]</f>
-        <v>277</v>
-      </c>
-      <c r="H18">
-        <f>Tabla13[[#This Row],[Valor]]</f>
-        <v>20</v>
+        <v>286</v>
+      </c>
+      <c r="H18" t="str">
+        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[termocupla Ian]]," },")</f>
+        <v>{ OV(  20), 277 },</v>
       </c>
       <c r="I18" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Dif]],"), ",Tabla13[[#This Row],[IanProm]]," },")</f>
-        <v>{ OV(  20), 277 },</v>
-      </c>
-      <c r="J18" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[Termometro K]]," },")</f>
+        <f>IF(Tabla13[[#This Row],[adoptado]]="","",CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[adoptado]]," },"))</f>
         <v>{ OV(  20), 286 },</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>22</v>
       </c>
@@ -13727,27 +11737,26 @@
         <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
         <v>271.75655615120701</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19">
         <v>280</v>
       </c>
+      <c r="F19">
+        <f>-53.47*LN(Tabla13[[#This Row],[Valor]])+442.58</f>
+        <v>277.3019600189308</v>
+      </c>
       <c r="G19">
-        <f>Tabla13[[#This Row],[termocupla]]</f>
-        <v>272</v>
-      </c>
-      <c r="H19">
-        <f>Tabla13[[#This Row],[Valor]]</f>
-        <v>22</v>
+        <v>280</v>
+      </c>
+      <c r="H19" t="str">
+        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[termocupla Ian]]," },")</f>
+        <v>{ OV(  22), 272 },</v>
       </c>
       <c r="I19" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Dif]],"), ",Tabla13[[#This Row],[IanProm]]," },")</f>
-        <v>{ OV(  22), 272 },</v>
-      </c>
-      <c r="J19" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[Termometro K]]," },")</f>
+        <f>IF(Tabla13[[#This Row],[adoptado]]="","",CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[adoptado]]," },"))</f>
         <v>{ OV(  22), 280 },</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>23</v>
       </c>
@@ -13761,27 +11770,26 @@
         <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
         <v>269.39661207632145</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20">
         <v>275</v>
       </c>
+      <c r="F20">
+        <f>-53.47*LN(Tabla13[[#This Row],[Valor]])+442.58</f>
+        <v>274.92512427426834</v>
+      </c>
       <c r="G20">
-        <f>Tabla13[[#This Row],[termocupla]]</f>
-        <v>269</v>
-      </c>
-      <c r="H20">
-        <f>Tabla13[[#This Row],[Valor]]</f>
-        <v>23</v>
+        <v>275</v>
+      </c>
+      <c r="H20" t="str">
+        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[termocupla Ian]]," },")</f>
+        <v>{ OV(  23), 269 },</v>
       </c>
       <c r="I20" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Dif]],"), ",Tabla13[[#This Row],[IanProm]]," },")</f>
-        <v>{ OV(  23), 269 },</v>
-      </c>
-      <c r="J20" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[Termometro K]]," },")</f>
+        <f>IF(Tabla13[[#This Row],[adoptado]]="","",CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[adoptado]]," },"))</f>
         <v>{ OV(  23), 275 },</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>25</v>
       </c>
@@ -13795,27 +11803,26 @@
         <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
         <v>264.96988245774725</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21">
         <v>270</v>
       </c>
+      <c r="F21">
+        <f>-53.47*LN(Tabla13[[#This Row],[Valor]])+442.58</f>
+        <v>270.46670964429734</v>
+      </c>
       <c r="G21">
-        <f>Tabla13[[#This Row],[termocupla]]</f>
-        <v>265</v>
-      </c>
-      <c r="H21">
-        <f>Tabla13[[#This Row],[Valor]]</f>
-        <v>25</v>
+        <v>270</v>
+      </c>
+      <c r="H21" t="str">
+        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[termocupla Ian]]," },")</f>
+        <v>{ OV(  25), 265 },</v>
       </c>
       <c r="I21" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Dif]],"), ",Tabla13[[#This Row],[IanProm]]," },")</f>
-        <v>{ OV(  25), 265 },</v>
-      </c>
-      <c r="J21" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[Termometro K]]," },")</f>
+        <f>IF(Tabla13[[#This Row],[adoptado]]="","",CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[adoptado]]," },"))</f>
         <v>{ OV(  25), 270 },</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>27</v>
       </c>
@@ -13829,27 +11836,26 @@
         <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
         <v>260.88402078383018</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22">
         <v>267</v>
       </c>
+      <c r="F22">
+        <f>-53.47*LN(Tabla13[[#This Row],[Valor]])+442.58</f>
+        <v>266.35160277474847</v>
+      </c>
       <c r="G22">
-        <f>Tabla13[[#This Row],[termocupla]]</f>
-        <v>263</v>
-      </c>
-      <c r="H22">
-        <f>Tabla13[[#This Row],[Valor]]</f>
-        <v>27</v>
+        <v>267</v>
+      </c>
+      <c r="H22" t="str">
+        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[termocupla Ian]]," },")</f>
+        <v>{ OV(  27), 263 },</v>
       </c>
       <c r="I22" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Dif]],"), ",Tabla13[[#This Row],[IanProm]]," },")</f>
-        <v>{ OV(  27), 263 },</v>
-      </c>
-      <c r="J22" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[Termometro K]]," },")</f>
+        <f>IF(Tabla13[[#This Row],[adoptado]]="","",CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[adoptado]]," },"))</f>
         <v>{ OV(  27), 267 },</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>28</v>
       </c>
@@ -13863,27 +11869,26 @@
         <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
         <v>258.95326255479847</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23">
         <v>264</v>
       </c>
+      <c r="F23">
+        <f>-53.47*LN(Tabla13[[#This Row],[Valor]])+442.58</f>
+        <v>264.40702484093185</v>
+      </c>
       <c r="G23">
-        <f>Tabla13[[#This Row],[termocupla]]</f>
-        <v>260</v>
-      </c>
-      <c r="H23">
-        <f>Tabla13[[#This Row],[Valor]]</f>
-        <v>28</v>
+        <v>264</v>
+      </c>
+      <c r="H23" t="str">
+        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[termocupla Ian]]," },")</f>
+        <v>{ OV(  28), 260 },</v>
       </c>
       <c r="I23" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Dif]],"), ",Tabla13[[#This Row],[IanProm]]," },")</f>
-        <v>{ OV(  28), 260 },</v>
-      </c>
-      <c r="J23" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[Termometro K]]," },")</f>
+        <f>IF(Tabla13[[#This Row],[adoptado]]="","",CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[adoptado]]," },"))</f>
         <v>{ OV(  28), 264 },</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>31</v>
       </c>
@@ -13897,27 +11902,26 @@
         <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
         <v>253.5496193138836</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24">
         <v>259</v>
       </c>
+      <c r="F24">
+        <f>-53.47*LN(Tabla13[[#This Row],[Valor]])+442.58</f>
+        <v>258.96470417617923</v>
+      </c>
       <c r="G24">
-        <f>Tabla13[[#This Row],[termocupla]]</f>
-        <v>255</v>
-      </c>
-      <c r="H24">
-        <f>Tabla13[[#This Row],[Valor]]</f>
-        <v>31</v>
+        <v>259</v>
+      </c>
+      <c r="H24" t="str">
+        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[termocupla Ian]]," },")</f>
+        <v>{ OV(  31), 255 },</v>
       </c>
       <c r="I24" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Dif]],"), ",Tabla13[[#This Row],[IanProm]]," },")</f>
-        <v>{ OV(  31), 255 },</v>
-      </c>
-      <c r="J24" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[Termometro K]]," },")</f>
+        <f>IF(Tabla13[[#This Row],[adoptado]]="","",CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[adoptado]]," },"))</f>
         <v>{ OV(  31), 259 },</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>33</v>
       </c>
@@ -13931,27 +11935,26 @@
         <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
         <v>250.23041356174457</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25">
         <v>254</v>
       </c>
+      <c r="F25">
+        <f>-53.47*LN(Tabla13[[#This Row],[Valor]])+442.58</f>
+        <v>255.62174068838729</v>
+      </c>
       <c r="G25">
-        <f>Tabla13[[#This Row],[termocupla]]</f>
-        <v>250</v>
-      </c>
-      <c r="H25">
-        <f>Tabla13[[#This Row],[Valor]]</f>
-        <v>33</v>
+        <v>254</v>
+      </c>
+      <c r="H25" t="str">
+        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[termocupla Ian]]," },")</f>
+        <v>{ OV(  33), 250 },</v>
       </c>
       <c r="I25" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Dif]],"), ",Tabla13[[#This Row],[IanProm]]," },")</f>
-        <v>{ OV(  33), 250 },</v>
-      </c>
-      <c r="J25" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[Termometro K]]," },")</f>
+        <f>IF(Tabla13[[#This Row],[adoptado]]="","",CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[adoptado]]," },"))</f>
         <v>{ OV(  33), 254 },</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>35</v>
       </c>
@@ -13965,27 +11968,26 @@
         <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
         <v>247.10657141552704</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26">
         <v>250</v>
       </c>
+      <c r="F26">
+        <f>-53.47*LN(Tabla13[[#This Row],[Valor]])+442.58</f>
+        <v>252.47553915216105</v>
+      </c>
       <c r="G26">
-        <f>Tabla13[[#This Row],[termocupla]]</f>
-        <v>248</v>
-      </c>
-      <c r="H26">
-        <f>Tabla13[[#This Row],[Valor]]</f>
-        <v>35</v>
+        <v>250</v>
+      </c>
+      <c r="H26" t="str">
+        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[termocupla Ian]]," },")</f>
+        <v>{ OV(  35), 248 },</v>
       </c>
       <c r="I26" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Dif]],"), ",Tabla13[[#This Row],[IanProm]]," },")</f>
-        <v>{ OV(  35), 248 },</v>
-      </c>
-      <c r="J26" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[Termometro K]]," },")</f>
+        <f>IF(Tabla13[[#This Row],[adoptado]]="","",CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[adoptado]]," },"))</f>
         <v>{ OV(  35), 250 },</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>38</v>
       </c>
@@ -13999,27 +12001,26 @@
         <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
         <v>242.7405507801262</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27">
         <v>246</v>
       </c>
+      <c r="F27">
+        <f>-53.47*LN(Tabla13[[#This Row],[Valor]])+442.58</f>
+        <v>248.07826803943016</v>
+      </c>
       <c r="G27">
-        <f>Tabla13[[#This Row],[termocupla]]</f>
-        <v>243</v>
-      </c>
-      <c r="H27">
-        <f>Tabla13[[#This Row],[Valor]]</f>
-        <v>38</v>
+        <v>246</v>
+      </c>
+      <c r="H27" t="str">
+        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[termocupla Ian]]," },")</f>
+        <v>{ OV(  38), 243 },</v>
       </c>
       <c r="I27" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Dif]],"), ",Tabla13[[#This Row],[IanProm]]," },")</f>
-        <v>{ OV(  38), 243 },</v>
-      </c>
-      <c r="J27" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[Termometro K]]," },")</f>
+        <f>IF(Tabla13[[#This Row],[adoptado]]="","",CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[adoptado]]," },"))</f>
         <v>{ OV(  38), 246 },</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>41</v>
       </c>
@@ -14033,27 +12034,26 @@
         <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
         <v>238.70645897866828</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28">
         <v>242</v>
       </c>
+      <c r="F28">
+        <f>-53.47*LN(Tabla13[[#This Row],[Valor]])+442.58</f>
+        <v>244.01530159332063</v>
+      </c>
       <c r="G28">
-        <f>Tabla13[[#This Row],[termocupla]]</f>
-        <v>239</v>
-      </c>
-      <c r="H28">
-        <f>Tabla13[[#This Row],[Valor]]</f>
-        <v>41</v>
+        <v>242</v>
+      </c>
+      <c r="H28" t="str">
+        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[termocupla Ian]]," },")</f>
+        <v>{ OV(  41), 239 },</v>
       </c>
       <c r="I28" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Dif]],"), ",Tabla13[[#This Row],[IanProm]]," },")</f>
-        <v>{ OV(  41), 239 },</v>
-      </c>
-      <c r="J28" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[Termometro K]]," },")</f>
+        <f>IF(Tabla13[[#This Row],[adoptado]]="","",CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[adoptado]]," },"))</f>
         <v>{ OV(  41), 242 },</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>44</v>
       </c>
@@ -14067,27 +12067,26 @@
         <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
         <v>234.95737233527953</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29">
         <v>237</v>
       </c>
+      <c r="F29">
+        <f>-53.47*LN(Tabla13[[#This Row],[Valor]])+442.58</f>
+        <v>240.23938027439058</v>
+      </c>
       <c r="G29">
-        <f>Tabla13[[#This Row],[termocupla]]</f>
-        <v>235</v>
-      </c>
-      <c r="H29">
-        <f>Tabla13[[#This Row],[Valor]]</f>
-        <v>44</v>
+        <v>237</v>
+      </c>
+      <c r="H29" t="str">
+        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[termocupla Ian]]," },")</f>
+        <v>{ OV(  44), 235 },</v>
       </c>
       <c r="I29" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Dif]],"), ",Tabla13[[#This Row],[IanProm]]," },")</f>
-        <v>{ OV(  44), 235 },</v>
-      </c>
-      <c r="J29" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[Termometro K]]," },")</f>
+        <f>IF(Tabla13[[#This Row],[adoptado]]="","",CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[adoptado]]," },"))</f>
         <v>{ OV(  44), 237 },</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>48</v>
       </c>
@@ -14101,27 +12100,26 @@
         <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
         <v>230.33793833090007</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30">
         <v>233</v>
       </c>
+      <c r="F30">
+        <f>-53.47*LN(Tabla13[[#This Row],[Valor]])+442.58</f>
+        <v>235.58688194675506</v>
+      </c>
       <c r="G30">
-        <f>Tabla13[[#This Row],[termocupla]]</f>
-        <v>230</v>
-      </c>
-      <c r="H30">
-        <f>Tabla13[[#This Row],[Valor]]</f>
-        <v>48</v>
+        <v>233</v>
+      </c>
+      <c r="H30" t="str">
+        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[termocupla Ian]]," },")</f>
+        <v>{ OV(  48), 230 },</v>
       </c>
       <c r="I30" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Dif]],"), ",Tabla13[[#This Row],[IanProm]]," },")</f>
-        <v>{ OV(  48), 230 },</v>
-      </c>
-      <c r="J30" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[Termometro K]]," },")</f>
+        <f>IF(Tabla13[[#This Row],[adoptado]]="","",CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[adoptado]]," },"))</f>
         <v>{ OV(  48), 233 },</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>52</v>
       </c>
@@ -14135,27 +12133,26 @@
         <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
         <v>226.088470980512</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31">
         <v>228</v>
       </c>
+      <c r="F31">
+        <f>-53.47*LN(Tabla13[[#This Row],[Valor]])+442.58</f>
+        <v>231.30699836745106</v>
+      </c>
       <c r="G31">
-        <f>Tabla13[[#This Row],[termocupla]]</f>
-        <v>225</v>
-      </c>
-      <c r="H31">
-        <f>Tabla13[[#This Row],[Valor]]</f>
-        <v>52</v>
+        <v>228</v>
+      </c>
+      <c r="H31" t="str">
+        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[termocupla Ian]]," },")</f>
+        <v>{ OV(  52), 225 },</v>
       </c>
       <c r="I31" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Dif]],"), ",Tabla13[[#This Row],[IanProm]]," },")</f>
-        <v>{ OV(  52), 225 },</v>
-      </c>
-      <c r="J31" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[Termometro K]]," },")</f>
+        <f>IF(Tabla13[[#This Row],[adoptado]]="","",CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[adoptado]]," },"))</f>
         <v>{ OV(  52), 228 },</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>56</v>
       </c>
@@ -14169,27 +12166,26 @@
         <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
         <v>222.15407873887091</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E32">
         <v>224</v>
       </c>
+      <c r="F32">
+        <f>-53.47*LN(Tabla13[[#This Row],[Valor]])+442.58</f>
+        <v>227.34444509639152</v>
+      </c>
       <c r="G32">
-        <f>Tabla13[[#This Row],[termocupla]]</f>
-        <v>220</v>
-      </c>
-      <c r="H32">
-        <f>Tabla13[[#This Row],[Valor]]</f>
-        <v>56</v>
+        <v>224</v>
+      </c>
+      <c r="H32" t="str">
+        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[termocupla Ian]]," },")</f>
+        <v>{ OV(  56), 220 },</v>
       </c>
       <c r="I32" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Dif]],"), ",Tabla13[[#This Row],[IanProm]]," },")</f>
-        <v>{ OV(  56), 220 },</v>
-      </c>
-      <c r="J32" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[Termometro K]]," },")</f>
+        <f>IF(Tabla13[[#This Row],[adoptado]]="","",CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[adoptado]]," },"))</f>
         <v>{ OV(  56), 224 },</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>61</v>
       </c>
@@ -14203,27 +12199,26 @@
         <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
         <v>217.61370655103889</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E33">
         <v>219</v>
       </c>
+      <c r="F33">
+        <f>-53.47*LN(Tabla13[[#This Row],[Valor]])+442.58</f>
+        <v>222.77157448265302</v>
+      </c>
       <c r="G33">
-        <f>Tabla13[[#This Row],[termocupla]]</f>
-        <v>217</v>
-      </c>
-      <c r="H33">
-        <f>Tabla13[[#This Row],[Valor]]</f>
-        <v>61</v>
+        <v>219</v>
+      </c>
+      <c r="H33" t="str">
+        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[termocupla Ian]]," },")</f>
+        <v>{ OV(  61), 217 },</v>
       </c>
       <c r="I33" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Dif]],"), ",Tabla13[[#This Row],[IanProm]]," },")</f>
-        <v>{ OV(  61), 217 },</v>
-      </c>
-      <c r="J33" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[Termometro K]]," },")</f>
+        <f>IF(Tabla13[[#This Row],[adoptado]]="","",CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[adoptado]]," },"))</f>
         <v>{ OV(  61), 219 },</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>66</v>
       </c>
@@ -14237,27 +12232,26 @@
         <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
         <v>213.43122974581709</v>
       </c>
-      <c r="E34" s="1">
+      <c r="E34">
         <v>215</v>
       </c>
+      <c r="F34">
+        <f>-53.47*LN(Tabla13[[#This Row],[Valor]])+442.58</f>
+        <v>218.55916094384705</v>
+      </c>
       <c r="G34">
-        <f>Tabla13[[#This Row],[termocupla]]</f>
-        <v>213</v>
-      </c>
-      <c r="H34">
-        <f>Tabla13[[#This Row],[Valor]]</f>
-        <v>66</v>
+        <v>215</v>
+      </c>
+      <c r="H34" t="str">
+        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[termocupla Ian]]," },")</f>
+        <v>{ OV(  66), 213 },</v>
       </c>
       <c r="I34" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Dif]],"), ",Tabla13[[#This Row],[IanProm]]," },")</f>
-        <v>{ OV(  66), 213 },</v>
-      </c>
-      <c r="J34" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[Termometro K]]," },")</f>
+        <f>IF(Tabla13[[#This Row],[adoptado]]="","",CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[adoptado]]," },"))</f>
         <v>{ OV(  66), 215 },</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>71</v>
       </c>
@@ -14271,27 +12265,26 @@
         <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
         <v>209.55432532787657</v>
       </c>
-      <c r="E35" s="1">
+      <c r="E35">
         <v>211</v>
       </c>
+      <c r="F35">
+        <f>-53.47*LN(Tabla13[[#This Row],[Valor]])+442.58</f>
+        <v>214.65450697460085</v>
+      </c>
       <c r="G35">
-        <f>Tabla13[[#This Row],[termocupla]]</f>
-        <v>209</v>
-      </c>
-      <c r="H35">
-        <f>Tabla13[[#This Row],[Valor]]</f>
-        <v>71</v>
+        <v>211</v>
+      </c>
+      <c r="H35" t="str">
+        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[termocupla Ian]]," },")</f>
+        <v>{ OV(  71), 209 },</v>
       </c>
       <c r="I35" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Dif]],"), ",Tabla13[[#This Row],[IanProm]]," },")</f>
-        <v>{ OV(  71), 209 },</v>
-      </c>
-      <c r="J35" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[Termometro K]]," },")</f>
+        <f>IF(Tabla13[[#This Row],[adoptado]]="","",CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[adoptado]]," },"))</f>
         <v>{ OV(  71), 211 },</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>78</v>
       </c>
@@ -14305,27 +12298,26 @@
         <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
         <v>204.56232839104956</v>
       </c>
-      <c r="E36" s="1">
+      <c r="E36">
         <v>207</v>
       </c>
+      <c r="F36">
+        <f>-53.47*LN(Tabla13[[#This Row],[Valor]])+442.58</f>
+        <v>209.62677903690752</v>
+      </c>
       <c r="G36">
-        <f>Tabla13[[#This Row],[termocupla]]</f>
-        <v>204</v>
-      </c>
-      <c r="H36">
-        <f>Tabla13[[#This Row],[Valor]]</f>
-        <v>78</v>
+        <v>207</v>
+      </c>
+      <c r="H36" t="str">
+        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[termocupla Ian]]," },")</f>
+        <v>{ OV(  78), 204 },</v>
       </c>
       <c r="I36" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Dif]],"), ",Tabla13[[#This Row],[IanProm]]," },")</f>
-        <v>{ OV(  78), 204 },</v>
-      </c>
-      <c r="J36" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[Termometro K]]," },")</f>
+        <f>IF(Tabla13[[#This Row],[adoptado]]="","",CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[adoptado]]," },"))</f>
         <v>{ OV(  78), 207 },</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>84</v>
       </c>
@@ -14339,27 +12331,26 @@
         <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
         <v>200.6279361494085</v>
       </c>
-      <c r="E37" s="1">
+      <c r="E37">
         <v>202</v>
       </c>
+      <c r="F37">
+        <f>-53.47*LN(Tabla13[[#This Row],[Valor]])+442.58</f>
+        <v>205.66422576584802</v>
+      </c>
       <c r="G37">
-        <f>Tabla13[[#This Row],[termocupla]]</f>
-        <v>200</v>
-      </c>
-      <c r="H37">
-        <f>Tabla13[[#This Row],[Valor]]</f>
-        <v>84</v>
+        <v>202</v>
+      </c>
+      <c r="H37" t="str">
+        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[termocupla Ian]]," },")</f>
+        <v>{ OV(  84), 200 },</v>
       </c>
       <c r="I37" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Dif]],"), ",Tabla13[[#This Row],[IanProm]]," },")</f>
-        <v>{ OV(  84), 200 },</v>
-      </c>
-      <c r="J37" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[Termometro K]]," },")</f>
+        <f>IF(Tabla13[[#This Row],[adoptado]]="","",CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[adoptado]]," },"))</f>
         <v>{ OV(  84), 202 },</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>92</v>
       </c>
@@ -14373,27 +12364,26 @@
         <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
         <v>195.79824444446643</v>
       </c>
-      <c r="E38" s="1">
+      <c r="E38">
         <v>198</v>
       </c>
+      <c r="F38">
+        <f>-53.47*LN(Tabla13[[#This Row],[Valor]])+442.58</f>
+        <v>200.7999647851878</v>
+      </c>
       <c r="G38">
-        <f>Tabla13[[#This Row],[termocupla]]</f>
-        <v>195</v>
-      </c>
-      <c r="H38">
-        <f>Tabla13[[#This Row],[Valor]]</f>
-        <v>92</v>
+        <v>198</v>
+      </c>
+      <c r="H38" t="str">
+        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[termocupla Ian]]," },")</f>
+        <v>{ OV(  92), 195 },</v>
       </c>
       <c r="I38" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Dif]],"), ",Tabla13[[#This Row],[IanProm]]," },")</f>
-        <v>{ OV(  92), 195 },</v>
-      </c>
-      <c r="J38" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[Termometro K]]," },")</f>
+        <f>IF(Tabla13[[#This Row],[adoptado]]="","",CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[adoptado]]," },"))</f>
         <v>{ OV(  92), 198 },</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>100</v>
       </c>
@@ -14407,27 +12397,26 @@
         <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
         <v>191.37151482589221</v>
       </c>
-      <c r="E39" s="1">
+      <c r="E39">
         <v>193</v>
       </c>
+      <c r="F39">
+        <f>-53.47*LN(Tabla13[[#This Row],[Valor]])+442.58</f>
+        <v>196.34155015521671</v>
+      </c>
       <c r="G39">
-        <f>Tabla13[[#This Row],[termocupla]]</f>
-        <v>190</v>
-      </c>
-      <c r="H39">
-        <f>Tabla13[[#This Row],[Valor]]</f>
-        <v>100</v>
+        <v>193</v>
+      </c>
+      <c r="H39" t="str">
+        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[termocupla Ian]]," },")</f>
+        <v>{ OV(  100), 190 },</v>
       </c>
       <c r="I39" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Dif]],"), ",Tabla13[[#This Row],[IanProm]]," },")</f>
-        <v>{ OV(  100), 190 },</v>
-      </c>
-      <c r="J39" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[Termometro K]]," },")</f>
+        <f>IF(Tabla13[[#This Row],[adoptado]]="","",CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[adoptado]]," },"))</f>
         <v>{ OV(  100), 193 },</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>109</v>
       </c>
@@ -14441,27 +12430,26 @@
         <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
         <v>186.79634093245477</v>
       </c>
-      <c r="E40" s="1">
+      <c r="E40">
         <v>189</v>
       </c>
+      <c r="F40">
+        <f>-53.47*LN(Tabla13[[#This Row],[Valor]])+442.58</f>
+        <v>191.73362873720768</v>
+      </c>
       <c r="G40">
-        <f>Tabla13[[#This Row],[termocupla]]</f>
-        <v>186</v>
-      </c>
-      <c r="H40">
-        <f>Tabla13[[#This Row],[Valor]]</f>
-        <v>109</v>
+        <v>189</v>
+      </c>
+      <c r="H40" t="str">
+        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[termocupla Ian]]," },")</f>
+        <v>{ OV(  109), 186 },</v>
       </c>
       <c r="I40" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Dif]],"), ",Tabla13[[#This Row],[IanProm]]," },")</f>
-        <v>{ OV(  109), 186 },</v>
-      </c>
-      <c r="J40" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[Termometro K]]," },")</f>
+        <f>IF(Tabla13[[#This Row],[adoptado]]="","",CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[adoptado]]," },"))</f>
         <v>{ OV(  109), 189 },</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>120</v>
       </c>
@@ -14475,27 +12463,26 @@
         <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
         <v>181.6920633757012</v>
       </c>
-      <c r="E41" s="1">
+      <c r="E41">
         <v>184</v>
       </c>
+      <c r="F41">
+        <f>-53.47*LN(Tabla13[[#This Row],[Valor]])+442.58</f>
+        <v>186.59281651344401</v>
+      </c>
       <c r="G41">
-        <f>Tabla13[[#This Row],[termocupla]]</f>
-        <v>181</v>
-      </c>
-      <c r="H41">
-        <f>Tabla13[[#This Row],[Valor]]</f>
-        <v>120</v>
+        <v>184</v>
+      </c>
+      <c r="H41" t="str">
+        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[termocupla Ian]]," },")</f>
+        <v>{ OV(  120), 181 },</v>
       </c>
       <c r="I41" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Dif]],"), ",Tabla13[[#This Row],[IanProm]]," },")</f>
-        <v>{ OV(  120), 181 },</v>
-      </c>
-      <c r="J41" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[Termometro K]]," },")</f>
+        <f>IF(Tabla13[[#This Row],[adoptado]]="","",CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[adoptado]]," },"))</f>
         <v>{ OV(  120), 184 },</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>131</v>
       </c>
@@ -14509,27 +12496,26 @@
         <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
         <v>177.03577411125087</v>
       </c>
-      <c r="E42" s="1">
+      <c r="E42">
         <v>180</v>
       </c>
+      <c r="F42">
+        <f>-53.47*LN(Tabla13[[#This Row],[Valor]])+442.58</f>
+        <v>181.90319912843444</v>
+      </c>
       <c r="G42">
-        <f>Tabla13[[#This Row],[termocupla]]</f>
-        <v>177</v>
-      </c>
-      <c r="H42">
-        <f>Tabla13[[#This Row],[Valor]]</f>
-        <v>131</v>
+        <v>180</v>
+      </c>
+      <c r="H42" t="str">
+        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[termocupla Ian]]," },")</f>
+        <v>{ OV(  131), 177 },</v>
       </c>
       <c r="I42" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Dif]],"), ",Tabla13[[#This Row],[IanProm]]," },")</f>
-        <v>{ OV(  131), 177 },</v>
-      </c>
-      <c r="J42" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[Termometro K]]," },")</f>
+        <f>IF(Tabla13[[#This Row],[adoptado]]="","",CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[adoptado]]," },"))</f>
         <v>{ OV(  131), 180 },</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>143</v>
       </c>
@@ -14543,27 +12529,26 @@
         <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
         <v>172.38257857950151</v>
       </c>
-      <c r="E43" s="1">
+      <c r="E43">
         <v>176</v>
       </c>
+      <c r="F43">
+        <f>-53.47*LN(Tabla13[[#This Row],[Valor]])+442.58</f>
+        <v>177.21669762000278</v>
+      </c>
       <c r="G43">
-        <f>Tabla13[[#This Row],[termocupla]]</f>
-        <v>173</v>
-      </c>
-      <c r="H43">
-        <f>Tabla13[[#This Row],[Valor]]</f>
-        <v>143</v>
+        <v>176</v>
+      </c>
+      <c r="H43" t="str">
+        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[termocupla Ian]]," },")</f>
+        <v>{ OV(  143), 173 },</v>
       </c>
       <c r="I43" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Dif]],"), ",Tabla13[[#This Row],[IanProm]]," },")</f>
-        <v>{ OV(  143), 173 },</v>
-      </c>
-      <c r="J43" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[Termometro K]]," },")</f>
+        <f>IF(Tabla13[[#This Row],[adoptado]]="","",CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[adoptado]]," },"))</f>
         <v>{ OV(  143), 176 },</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>156</v>
       </c>
@@ -14577,27 +12562,26 @@
         <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
         <v>167.76314457512206</v>
       </c>
-      <c r="E44" s="1">
+      <c r="E44">
         <v>171</v>
       </c>
+      <c r="F44">
+        <f>-53.47*LN(Tabla13[[#This Row],[Valor]])+442.58</f>
+        <v>172.56419929236722</v>
+      </c>
       <c r="G44">
-        <f>Tabla13[[#This Row],[termocupla]]</f>
-        <v>168</v>
-      </c>
-      <c r="H44">
-        <f>Tabla13[[#This Row],[Valor]]</f>
-        <v>156</v>
+        <v>171</v>
+      </c>
+      <c r="H44" t="str">
+        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[termocupla Ian]]," },")</f>
+        <v>{ OV(  156), 168 },</v>
       </c>
       <c r="I44" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Dif]],"), ",Tabla13[[#This Row],[IanProm]]," },")</f>
-        <v>{ OV(  156), 168 },</v>
-      </c>
-      <c r="J44" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[Termometro K]]," },")</f>
+        <f>IF(Tabla13[[#This Row],[adoptado]]="","",CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[adoptado]]," },"))</f>
         <v>{ OV(  156), 171 },</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>171</v>
       </c>
@@ -14611,27 +12595,26 @@
         <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
         <v>162.88908178527379</v>
       </c>
-      <c r="E45" s="1">
+      <c r="E45">
         <v>168</v>
       </c>
+      <c r="F45">
+        <f>-53.47*LN(Tabla13[[#This Row],[Valor]])+442.58</f>
+        <v>167.65524963380273</v>
+      </c>
       <c r="G45">
-        <f>Tabla13[[#This Row],[termocupla]]</f>
-        <v>162</v>
-      </c>
-      <c r="H45">
-        <f>Tabla13[[#This Row],[Valor]]</f>
-        <v>171</v>
+        <v>168</v>
+      </c>
+      <c r="H45" t="str">
+        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[termocupla Ian]]," },")</f>
+        <v>{ OV(  171), 162 },</v>
       </c>
       <c r="I45" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Dif]],"), ",Tabla13[[#This Row],[IanProm]]," },")</f>
-        <v>{ OV(  171), 162 },</v>
-      </c>
-      <c r="J45" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[Termometro K]]," },")</f>
+        <f>IF(Tabla13[[#This Row],[adoptado]]="","",CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[adoptado]]," },"))</f>
         <v>{ OV(  171), 168 },</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>187</v>
       </c>
@@ -14645,27 +12628,26 @@
         <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
         <v>158.14044353118999</v>
       </c>
-      <c r="E46" s="1">
+      <c r="E46">
         <v>165</v>
       </c>
+      <c r="F46">
+        <f>-53.47*LN(Tabla13[[#This Row],[Valor]])+442.58</f>
+        <v>162.87262225678523</v>
+      </c>
       <c r="G46">
-        <f>Tabla13[[#This Row],[termocupla]]</f>
-        <v>158</v>
-      </c>
-      <c r="H46">
-        <f>Tabla13[[#This Row],[Valor]]</f>
-        <v>187</v>
+        <v>165</v>
+      </c>
+      <c r="H46" t="str">
+        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[termocupla Ian]]," },")</f>
+        <v>{ OV(  187), 158 },</v>
       </c>
       <c r="I46" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Dif]],"), ",Tabla13[[#This Row],[IanProm]]," },")</f>
-        <v>{ OV(  187), 158 },</v>
-      </c>
-      <c r="J46" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[Termometro K]]," },")</f>
+        <f>IF(Tabla13[[#This Row],[adoptado]]="","",CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[adoptado]]," },"))</f>
         <v>{ OV(  187), 165 },</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>205</v>
       </c>
@@ -14679,27 +12661,26 @@
         <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
         <v>153.2614002075419</v>
       </c>
-      <c r="E47" s="1">
+      <c r="E47">
         <v>160</v>
       </c>
+      <c r="F47">
+        <f>-53.47*LN(Tabla13[[#This Row],[Valor]])+442.58</f>
+        <v>157.95865641546931</v>
+      </c>
       <c r="G47">
-        <f>Tabla13[[#This Row],[termocupla]]</f>
-        <v>154</v>
-      </c>
-      <c r="H47">
-        <f>Tabla13[[#This Row],[Valor]]</f>
-        <v>205</v>
+        <v>160</v>
+      </c>
+      <c r="H47" t="str">
+        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[termocupla Ian]]," },")</f>
+        <v>{ OV(  205), 154 },</v>
       </c>
       <c r="I47" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Dif]],"), ",Tabla13[[#This Row],[IanProm]]," },")</f>
-        <v>{ OV(  205), 154 },</v>
-      </c>
-      <c r="J47" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[Termometro K]]," },")</f>
+        <f>IF(Tabla13[[#This Row],[adoptado]]="","",CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[adoptado]]," },"))</f>
         <v>{ OV(  205), 160 },</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>224</v>
       </c>
@@ -14713,27 +12694,26 @@
         <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
         <v>148.55571110701595</v>
       </c>
-      <c r="E48" s="1">
+      <c r="E48">
         <v>157</v>
       </c>
+      <c r="F48">
+        <f>-53.47*LN(Tabla13[[#This Row],[Valor]])+442.58</f>
+        <v>153.21928560731101</v>
+      </c>
       <c r="G48">
-        <f>Tabla13[[#This Row],[termocupla]]</f>
-        <v>149</v>
-      </c>
-      <c r="H48">
-        <f>Tabla13[[#This Row],[Valor]]</f>
-        <v>224</v>
+        <v>157</v>
+      </c>
+      <c r="H48" t="str">
+        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[termocupla Ian]]," },")</f>
+        <v>{ OV(  224), 149 },</v>
       </c>
       <c r="I48" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Dif]],"), ",Tabla13[[#This Row],[IanProm]]," },")</f>
-        <v>{ OV(  224), 149 },</v>
-      </c>
-      <c r="J48" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[Termometro K]]," },")</f>
+        <f>IF(Tabla13[[#This Row],[adoptado]]="","",CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[adoptado]]," },"))</f>
         <v>{ OV(  224), 157 },</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>245</v>
       </c>
@@ -14747,27 +12727,26 @@
         <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
         <v>143.79820160218043</v>
       </c>
-      <c r="E49" s="1">
+      <c r="E49">
         <v>152</v>
       </c>
+      <c r="F49">
+        <f>-53.47*LN(Tabla13[[#This Row],[Valor]])+442.58</f>
+        <v>148.42772348217341</v>
+      </c>
       <c r="G49">
-        <f>Tabla13[[#This Row],[termocupla]]</f>
-        <v>145</v>
-      </c>
-      <c r="H49">
-        <f>Tabla13[[#This Row],[Valor]]</f>
-        <v>245</v>
+        <v>152</v>
+      </c>
+      <c r="H49" t="str">
+        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[termocupla Ian]]," },")</f>
+        <v>{ OV(  245), 145 },</v>
       </c>
       <c r="I49" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Dif]],"), ",Tabla13[[#This Row],[IanProm]]," },")</f>
-        <v>{ OV(  245), 145 },</v>
-      </c>
-      <c r="J49" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[Termometro K]]," },")</f>
+        <f>IF(Tabla13[[#This Row],[adoptado]]="","",CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[adoptado]]," },"))</f>
         <v>{ OV(  245), 152 },</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>268</v>
       </c>
@@ -14781,27 +12760,26 @@
         <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
         <v>139.03450120467863</v>
       </c>
-      <c r="E50" s="1">
+      <c r="E50">
         <v>147</v>
       </c>
+      <c r="F50">
+        <f>-53.47*LN(Tabla13[[#This Row],[Valor]])+442.58</f>
+        <v>143.62992615208447</v>
+      </c>
       <c r="G50">
-        <f>Tabla13[[#This Row],[termocupla]]</f>
-        <v>140</v>
-      </c>
-      <c r="H50">
-        <f>Tabla13[[#This Row],[Valor]]</f>
-        <v>268</v>
+        <v>147</v>
+      </c>
+      <c r="H50" t="str">
+        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[termocupla Ian]]," },")</f>
+        <v>{ OV(  268), 140 },</v>
       </c>
       <c r="I50" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Dif]],"), ",Tabla13[[#This Row],[IanProm]]," },")</f>
-        <v>{ OV(  268), 140 },</v>
-      </c>
-      <c r="J50" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[Termometro K]]," },")</f>
+        <f>IF(Tabla13[[#This Row],[adoptado]]="","",CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[adoptado]]," },"))</f>
         <v>{ OV(  268), 147 },</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>293</v>
       </c>
@@ -14815,27 +12793,26 @@
         <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
         <v>134.29963618728385</v>
       </c>
-      <c r="E51" s="1">
+      <c r="E51">
         <v>142</v>
       </c>
+      <c r="F51">
+        <f>-53.47*LN(Tabla13[[#This Row],[Valor]])+442.58</f>
+        <v>138.8611705958574</v>
+      </c>
       <c r="G51">
-        <f>Tabla13[[#This Row],[termocupla]]</f>
-        <v>135</v>
-      </c>
-      <c r="H51">
-        <f>Tabla13[[#This Row],[Valor]]</f>
-        <v>293</v>
+        <v>142</v>
+      </c>
+      <c r="H51" t="str">
+        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[termocupla Ian]]," },")</f>
+        <v>{ OV(  293), 135 },</v>
       </c>
       <c r="I51" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Dif]],"), ",Tabla13[[#This Row],[IanProm]]," },")</f>
-        <v>{ OV(  293), 135 },</v>
-      </c>
-      <c r="J51" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[Termometro K]]," },")</f>
+        <f>IF(Tabla13[[#This Row],[adoptado]]="","",CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[adoptado]]," },"))</f>
         <v>{ OV(  293), 142 },</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>320</v>
       </c>
@@ -14849,27 +12826,26 @@
         <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
         <v>129.61983833330862</v>
       </c>
-      <c r="E52" s="1">
+      <c r="E52">
         <v>137</v>
       </c>
+      <c r="F52">
+        <f>-53.47*LN(Tabla13[[#This Row],[Valor]])+442.58</f>
+        <v>134.147876354907</v>
+      </c>
       <c r="G52">
-        <f>Tabla13[[#This Row],[termocupla]]</f>
-        <v>130</v>
-      </c>
-      <c r="H52">
-        <f>Tabla13[[#This Row],[Valor]]</f>
-        <v>320</v>
+        <v>137</v>
+      </c>
+      <c r="H52" t="str">
+        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[termocupla Ian]]," },")</f>
+        <v>{ OV(  320), 130 },</v>
       </c>
       <c r="I52" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Dif]],"), ",Tabla13[[#This Row],[IanProm]]," },")</f>
-        <v>{ OV(  320), 130 },</v>
-      </c>
-      <c r="J52" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[Termometro K]]," },")</f>
+        <f>IF(Tabla13[[#This Row],[adoptado]]="","",CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[adoptado]]," },"))</f>
         <v>{ OV(  320), 137 },</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>348</v>
       </c>
@@ -14883,27 +12859,26 @@
         <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
         <v>125.16657034877312</v>
       </c>
-      <c r="E53" s="1">
+      <c r="E53">
         <v>133</v>
       </c>
+      <c r="F53">
+        <f>-53.47*LN(Tabla13[[#This Row],[Valor]])+442.58</f>
+        <v>129.66273340645881</v>
+      </c>
       <c r="G53">
-        <f>Tabla13[[#This Row],[termocupla]]</f>
-        <v>125</v>
-      </c>
-      <c r="H53">
-        <f>Tabla13[[#This Row],[Valor]]</f>
-        <v>348</v>
+        <v>133</v>
+      </c>
+      <c r="H53" t="str">
+        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[termocupla Ian]]," },")</f>
+        <v>{ OV(  348), 125 },</v>
       </c>
       <c r="I53" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Dif]],"), ",Tabla13[[#This Row],[IanProm]]," },")</f>
-        <v>{ OV(  348), 125 },</v>
-      </c>
-      <c r="J53" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[Termometro K]]," },")</f>
+        <f>IF(Tabla13[[#This Row],[adoptado]]="","",CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[adoptado]]," },"))</f>
         <v>{ OV(  348), 133 },</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>379</v>
       </c>
@@ -14917,27 +12892,26 @@
         <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
         <v>120.63620287217395</v>
       </c>
-      <c r="E54" s="1">
+      <c r="E54">
         <v>127</v>
       </c>
+      <c r="F54">
+        <f>-53.47*LN(Tabla13[[#This Row],[Valor]])+442.58</f>
+        <v>125.09993911424266</v>
+      </c>
       <c r="G54">
-        <f>Tabla13[[#This Row],[termocupla]]</f>
-        <v>121</v>
-      </c>
-      <c r="H54">
-        <f>Tabla13[[#This Row],[Valor]]</f>
-        <v>379</v>
+        <v>127</v>
+      </c>
+      <c r="H54" t="str">
+        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[termocupla Ian]]," },")</f>
+        <v>{ OV(  379), 121 },</v>
       </c>
       <c r="I54" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Dif]],"), ",Tabla13[[#This Row],[IanProm]]," },")</f>
-        <v>{ OV(  379), 121 },</v>
-      </c>
-      <c r="J54" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[Termometro K]]," },")</f>
+        <f>IF(Tabla13[[#This Row],[adoptado]]="","",CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[adoptado]]," },"))</f>
         <v>{ OV(  379), 127 },</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>411</v>
       </c>
@@ -14951,27 +12925,26 @@
         <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
         <v>116.33288624239492</v>
       </c>
-      <c r="E55" s="1">
+      <c r="E55">
         <v>122</v>
       </c>
+      <c r="F55">
+        <f>-53.47*LN(Tabla13[[#This Row],[Valor]])+442.58</f>
+        <v>120.76582082088635</v>
+      </c>
       <c r="G55">
-        <f>Tabla13[[#This Row],[termocupla]]</f>
-        <v>116</v>
-      </c>
-      <c r="H55">
-        <f>Tabla13[[#This Row],[Valor]]</f>
-        <v>411</v>
+        <v>122</v>
+      </c>
+      <c r="H55" t="str">
+        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[termocupla Ian]]," },")</f>
+        <v>{ OV(  411), 116 },</v>
       </c>
       <c r="I55" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Dif]],"), ",Tabla13[[#This Row],[IanProm]]," },")</f>
-        <v>{ OV(  411), 116 },</v>
-      </c>
-      <c r="J55" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[Termometro K]]," },")</f>
+        <f>IF(Tabla13[[#This Row],[adoptado]]="","",CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[adoptado]]," },"))</f>
         <v>{ OV(  411), 122 },</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>445</v>
       </c>
@@ -14985,27 +12958,26 @@
         <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
         <v>112.11323635979431</v>
       </c>
-      <c r="E56" s="1">
+      <c r="E56">
         <v>117</v>
       </c>
+      <c r="F56">
+        <f>-53.47*LN(Tabla13[[#This Row],[Valor]])+442.58</f>
+        <v>116.51596813257112</v>
+      </c>
       <c r="G56">
-        <f>Tabla13[[#This Row],[termocupla]]</f>
-        <v>111</v>
-      </c>
-      <c r="H56">
-        <f>Tabla13[[#This Row],[Valor]]</f>
-        <v>445</v>
+        <v>117</v>
+      </c>
+      <c r="H56" t="str">
+        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[termocupla Ian]]," },")</f>
+        <v>{ OV(  445), 111 },</v>
       </c>
       <c r="I56" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Dif]],"), ",Tabla13[[#This Row],[IanProm]]," },")</f>
-        <v>{ OV(  445), 111 },</v>
-      </c>
-      <c r="J56" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[Termometro K]]," },")</f>
+        <f>IF(Tabla13[[#This Row],[adoptado]]="","",CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[adoptado]]," },"))</f>
         <v>{ OV(  445), 117 },</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>480</v>
       </c>
@@ -15019,27 +12991,26 @@
         <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
         <v>108.09369574384618</v>
       </c>
-      <c r="E57" s="1">
+      <c r="E57">
         <v>112</v>
       </c>
+      <c r="F57">
+        <f>-53.47*LN(Tabla13[[#This Row],[Valor]])+442.58</f>
+        <v>112.46765702436346</v>
+      </c>
       <c r="G57">
-        <f>Tabla13[[#This Row],[termocupla]]</f>
-        <v>106</v>
-      </c>
-      <c r="H57">
-        <f>Tabla13[[#This Row],[Valor]]</f>
-        <v>480</v>
+        <v>112</v>
+      </c>
+      <c r="H57" t="str">
+        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[termocupla Ian]]," },")</f>
+        <v>{ OV(  480), 106 },</v>
       </c>
       <c r="I57" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Dif]],"), ",Tabla13[[#This Row],[IanProm]]," },")</f>
-        <v>{ OV(  480), 106 },</v>
-      </c>
-      <c r="J57" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[Termometro K]]," },")</f>
+        <f>IF(Tabla13[[#This Row],[adoptado]]="","",CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[adoptado]]," },"))</f>
         <v>{ OV(  480), 112 },</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>516</v>
       </c>
@@ -15053,27 +13024,26 @@
         <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
         <v>104.2541918205838</v>
       </c>
-      <c r="E58" s="1">
+      <c r="E58">
         <v>108</v>
       </c>
+      <c r="F58">
+        <f>-53.47*LN(Tabla13[[#This Row],[Valor]])+442.58</f>
+        <v>108.60067124970084</v>
+      </c>
       <c r="G58">
-        <f>Tabla13[[#This Row],[termocupla]]</f>
-        <v>102</v>
-      </c>
-      <c r="H58">
-        <f>Tabla13[[#This Row],[Valor]]</f>
-        <v>516</v>
+        <v>108</v>
+      </c>
+      <c r="H58" t="str">
+        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[termocupla Ian]]," },")</f>
+        <v>{ OV(  516), 102 },</v>
       </c>
       <c r="I58" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Dif]],"), ",Tabla13[[#This Row],[IanProm]]," },")</f>
-        <v>{ OV(  516), 102 },</v>
-      </c>
-      <c r="J58" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[Termometro K]]," },")</f>
+        <f>IF(Tabla13[[#This Row],[adoptado]]="","",CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[adoptado]]," },"))</f>
         <v>{ OV(  516), 108 },</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>553</v>
       </c>
@@ -15087,27 +13057,23 @@
         <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
         <v>100.57764369917925</v>
       </c>
-      <c r="E59">
+      <c r="F59">
+        <f>-53.47*LN(Tabla13[[#This Row],[Valor]])+442.58</f>
+        <v>104.89780765860075</v>
+      </c>
+      <c r="G59">
         <v>105</v>
       </c>
-      <c r="G59">
-        <f>Tabla13[[#This Row],[termocupla]]</f>
-        <v>97</v>
-      </c>
-      <c r="H59">
-        <f>Tabla13[[#This Row],[Valor]]</f>
-        <v>553</v>
+      <c r="H59" t="str">
+        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[termocupla Ian]]," },")</f>
+        <v>{ OV(  553), 97 },</v>
       </c>
       <c r="I59" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Dif]],"), ",Tabla13[[#This Row],[IanProm]]," },")</f>
-        <v>{ OV(  553), 97 },</v>
-      </c>
-      <c r="J59" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[Termometro K]]," },")</f>
+        <f>IF(Tabla13[[#This Row],[adoptado]]="","",CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[adoptado]]," },"))</f>
         <v>{ OV(  553), 105 },</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>591</v>
       </c>
@@ -15121,27 +13087,23 @@
         <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
         <v>97.04938763591025</v>
       </c>
-      <c r="E60">
+      <c r="F60">
+        <f>-53.47*LN(Tabla13[[#This Row],[Valor]])+442.58</f>
+        <v>101.3442975492959</v>
+      </c>
+      <c r="G60">
         <v>100</v>
       </c>
-      <c r="G60">
-        <f>Tabla13[[#This Row],[termocupla]]</f>
-        <v>93</v>
-      </c>
-      <c r="H60">
-        <f>Tabla13[[#This Row],[Valor]]</f>
-        <v>591</v>
+      <c r="H60" t="str">
+        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[termocupla Ian]]," },")</f>
+        <v>{ OV(  591), 93 },</v>
       </c>
       <c r="I60" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Dif]],"), ",Tabla13[[#This Row],[IanProm]]," },")</f>
-        <v>{ OV(  591), 93 },</v>
-      </c>
-      <c r="J60" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[Termometro K]]," },")</f>
+        <f>IF(Tabla13[[#This Row],[adoptado]]="","",CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[adoptado]]," },"))</f>
         <v>{ OV(  591), 100 },</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>628</v>
       </c>
@@ -15155,27 +13117,23 @@
         <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
         <v>93.825542562203339</v>
       </c>
-      <c r="E61">
+      <c r="F61">
+        <f>-53.47*LN(Tabla13[[#This Row],[Valor]])+442.58</f>
+        <v>98.097377298945446</v>
+      </c>
+      <c r="G61">
         <v>95</v>
       </c>
-      <c r="G61">
-        <f>Tabla13[[#This Row],[termocupla]]</f>
-        <v>88</v>
-      </c>
-      <c r="H61">
-        <f>Tabla13[[#This Row],[Valor]]</f>
-        <v>628</v>
+      <c r="H61" t="str">
+        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[termocupla Ian]]," },")</f>
+        <v>{ OV(  628), 88 },</v>
       </c>
       <c r="I61" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Dif]],"), ",Tabla13[[#This Row],[IanProm]]," },")</f>
-        <v>{ OV(  628), 88 },</v>
-      </c>
-      <c r="J61" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[Termometro K]]," },")</f>
+        <f>IF(Tabla13[[#This Row],[adoptado]]="","",CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[adoptado]]," },"))</f>
         <v>{ OV(  628), 95 },</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>665</v>
       </c>
@@ -15189,27 +13147,23 @@
         <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
         <v>90.786306011580677</v>
       </c>
-      <c r="E62">
+      <c r="F62">
+        <f>-53.47*LN(Tabla13[[#This Row],[Valor]])+442.58</f>
+        <v>95.036386936131464</v>
+      </c>
+      <c r="G62">
         <v>90</v>
       </c>
-      <c r="G62">
-        <f>Tabla13[[#This Row],[termocupla]]</f>
-        <v>84</v>
-      </c>
-      <c r="H62">
-        <f>Tabla13[[#This Row],[Valor]]</f>
-        <v>665</v>
+      <c r="H62" t="str">
+        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[termocupla Ian]]," },")</f>
+        <v>{ OV(  665), 84 },</v>
       </c>
       <c r="I62" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Dif]],"), ",Tabla13[[#This Row],[IanProm]]," },")</f>
-        <v>{ OV(  665), 84 },</v>
-      </c>
-      <c r="J62" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[Termometro K]]," },")</f>
+        <f>IF(Tabla13[[#This Row],[adoptado]]="","",CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[adoptado]]," },"))</f>
         <v>{ OV(  665), 90 },</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>702</v>
       </c>
@@ -15223,27 +13177,23 @@
         <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
         <v>87.911675580269673</v>
       </c>
-      <c r="E63">
+      <c r="F63">
+        <f>-53.47*LN(Tabla13[[#This Row],[Valor]])+442.58</f>
+        <v>92.141180886739903</v>
+      </c>
+      <c r="G63">
         <v>85</v>
       </c>
-      <c r="G63">
-        <f>Tabla13[[#This Row],[termocupla]]</f>
-        <v>79</v>
-      </c>
-      <c r="H63">
-        <f>Tabla13[[#This Row],[Valor]]</f>
-        <v>702</v>
+      <c r="H63" t="str">
+        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[termocupla Ian]]," },")</f>
+        <v>{ OV(  702), 79 },</v>
       </c>
       <c r="I63" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Dif]],"), ",Tabla13[[#This Row],[IanProm]]," },")</f>
-        <v>{ OV(  702), 79 },</v>
-      </c>
-      <c r="J63" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[Termometro K]]," },")</f>
+        <f>IF(Tabla13[[#This Row],[adoptado]]="","",CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[adoptado]]," },"))</f>
         <v>{ OV(  702), 85 },</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>737</v>
       </c>
@@ -15257,27 +13207,23 @@
         <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
         <v>85.328608803668146</v>
       </c>
-      <c r="E64">
+      <c r="F64">
+        <f>-53.47*LN(Tabla13[[#This Row],[Valor]])+442.58</f>
+        <v>89.539625404636183</v>
+      </c>
+      <c r="G64">
         <v>80</v>
       </c>
-      <c r="G64">
-        <f>Tabla13[[#This Row],[termocupla]]</f>
-        <v>74</v>
-      </c>
-      <c r="H64">
-        <f>Tabla13[[#This Row],[Valor]]</f>
-        <v>737</v>
+      <c r="H64" t="str">
+        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[termocupla Ian]]," },")</f>
+        <v>{ OV(  737), 74 },</v>
       </c>
       <c r="I64" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Dif]],"), ",Tabla13[[#This Row],[IanProm]]," },")</f>
-        <v>{ OV(  737), 74 },</v>
-      </c>
-      <c r="J64" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[Termometro K]]," },")</f>
+        <f>IF(Tabla13[[#This Row],[adoptado]]="","",CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[adoptado]]," },"))</f>
         <v>{ OV(  737), 80 },</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>770</v>
       </c>
@@ -15291,27 +13237,23 @@
         <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
         <v>83.003127566734065</v>
       </c>
-      <c r="E65">
+      <c r="F65">
+        <f>-53.47*LN(Tabla13[[#This Row],[Valor]])+442.58</f>
+        <v>87.19749917109192</v>
+      </c>
+      <c r="G65">
         <v>75</v>
       </c>
-      <c r="G65">
-        <f>Tabla13[[#This Row],[termocupla]]</f>
-        <v>69</v>
-      </c>
-      <c r="H65">
-        <f>Tabla13[[#This Row],[Valor]]</f>
-        <v>770</v>
+      <c r="H65" t="str">
+        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[termocupla Ian]]," },")</f>
+        <v>{ OV(  770), 69 },</v>
       </c>
       <c r="I65" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Dif]],"), ",Tabla13[[#This Row],[IanProm]]," },")</f>
-        <v>{ OV(  770), 69 },</v>
-      </c>
-      <c r="J65" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[Termometro K]]," },")</f>
+        <f>IF(Tabla13[[#This Row],[adoptado]]="","",CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[adoptado]]," },"))</f>
         <v>{ OV(  770), 75 },</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>801</v>
       </c>
@@ -15325,27 +13267,23 @@
         <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
         <v>80.907642320140781</v>
       </c>
-      <c r="E66">
+      <c r="F66">
+        <f>-53.47*LN(Tabla13[[#This Row],[Valor]])+442.58</f>
+        <v>85.087015160254793</v>
+      </c>
+      <c r="G66">
         <v>70</v>
       </c>
-      <c r="G66">
-        <f>Tabla13[[#This Row],[termocupla]]</f>
-        <v>65</v>
-      </c>
-      <c r="H66">
-        <f>Tabla13[[#This Row],[Valor]]</f>
-        <v>801</v>
+      <c r="H66" t="str">
+        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[termocupla Ian]]," },")</f>
+        <v>{ OV(  801), 65 },</v>
       </c>
       <c r="I66" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Dif]],"), ",Tabla13[[#This Row],[IanProm]]," },")</f>
-        <v>{ OV(  801), 65 },</v>
-      </c>
-      <c r="J66" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[Termometro K]]," },")</f>
+        <f>IF(Tabla13[[#This Row],[adoptado]]="","",CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[adoptado]]," },"))</f>
         <v>{ OV(  801), 70 },</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>830</v>
       </c>
@@ -15359,27 +13297,23 @@
         <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
         <v>79.019509545024732</v>
       </c>
-      <c r="E67" s="1">
+      <c r="F67">
+        <f>-53.47*LN(Tabla13[[#This Row],[Valor]])+442.58</f>
+        <v>83.185367778724299</v>
+      </c>
+      <c r="G67">
         <v>64</v>
       </c>
-      <c r="G67">
-        <f>Tabla13[[#This Row],[termocupla]]</f>
-        <v>60</v>
-      </c>
-      <c r="H67">
-        <f>Tabla13[[#This Row],[Valor]]</f>
-        <v>830</v>
+      <c r="H67" t="str">
+        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[termocupla Ian]]," },")</f>
+        <v>{ OV(  830), 60 },</v>
       </c>
       <c r="I67" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Dif]],"), ",Tabla13[[#This Row],[IanProm]]," },")</f>
-        <v>{ OV(  830), 60 },</v>
-      </c>
-      <c r="J67" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[Termometro K]]," },")</f>
+        <f>IF(Tabla13[[#This Row],[adoptado]]="","",CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[adoptado]]," },"))</f>
         <v>{ OV(  830), 64 },</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>857</v>
       </c>
@@ -15393,27 +13327,23 @@
         <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
         <v>77.319980901643873</v>
       </c>
-      <c r="E68" s="1">
+      <c r="F68">
+        <f>-53.47*LN(Tabla13[[#This Row],[Valor]])+442.58</f>
+        <v>81.47367449257672</v>
+      </c>
+      <c r="G68">
         <v>60</v>
       </c>
-      <c r="G68">
-        <f>Tabla13[[#This Row],[termocupla]]</f>
-        <v>56</v>
-      </c>
-      <c r="H68">
-        <f>Tabla13[[#This Row],[Valor]]</f>
-        <v>857</v>
+      <c r="H68" t="str">
+        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[termocupla Ian]]," },")</f>
+        <v>{ OV(  857), 56 },</v>
       </c>
       <c r="I68" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Dif]],"), ",Tabla13[[#This Row],[IanProm]]," },")</f>
-        <v>{ OV(  857), 56 },</v>
-      </c>
-      <c r="J68" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[Termometro K]]," },")</f>
+        <f>IF(Tabla13[[#This Row],[adoptado]]="","",CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[adoptado]]," },"))</f>
         <v>{ OV(  857), 60 },</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>881</v>
       </c>
@@ -15427,27 +13357,23 @@
         <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
         <v>75.853650639048226</v>
       </c>
-      <c r="E69" s="1">
+      <c r="F69">
+        <f>-53.47*LN(Tabla13[[#This Row],[Valor]])+442.58</f>
+        <v>79.99684874119248</v>
+      </c>
+      <c r="G69">
         <v>54</v>
       </c>
-      <c r="G69">
-        <f>Tabla13[[#This Row],[termocupla]]</f>
-        <v>51</v>
-      </c>
-      <c r="H69">
-        <f>Tabla13[[#This Row],[Valor]]</f>
-        <v>881</v>
+      <c r="H69" t="str">
+        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[termocupla Ian]]," },")</f>
+        <v>{ OV(  881), 51 },</v>
       </c>
       <c r="I69" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Dif]],"), ",Tabla13[[#This Row],[IanProm]]," },")</f>
-        <v>{ OV(  881), 51 },</v>
-      </c>
-      <c r="J69" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[Termometro K]]," },")</f>
+        <f>IF(Tabla13[[#This Row],[adoptado]]="","",CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[adoptado]]," },"))</f>
         <v>{ OV(  881), 54 },</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>903</v>
       </c>
@@ -15461,27 +13387,23 @@
         <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
         <v>74.544189639092224</v>
       </c>
-      <c r="E70">
+      <c r="F70">
+        <f>-53.47*LN(Tabla13[[#This Row],[Valor]])+442.58</f>
+        <v>78.678015068793798</v>
+      </c>
+      <c r="G70">
         <v>50</v>
       </c>
-      <c r="G70">
-        <f>Tabla13[[#This Row],[termocupla]]</f>
-        <v>47</v>
-      </c>
-      <c r="H70">
-        <f>Tabla13[[#This Row],[Valor]]</f>
-        <v>903</v>
+      <c r="H70" t="str">
+        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[termocupla Ian]]," },")</f>
+        <v>{ OV(  903), 47 },</v>
       </c>
       <c r="I70" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Dif]],"), ",Tabla13[[#This Row],[IanProm]]," },")</f>
-        <v>{ OV(  903), 47 },</v>
-      </c>
-      <c r="J70" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[Termometro K]]," },")</f>
+        <f>IF(Tabla13[[#This Row],[adoptado]]="","",CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[adoptado]]," },"))</f>
         <v>{ OV(  903), 50 },</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>922</v>
       </c>
@@ -15495,27 +13417,23 @@
         <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
         <v>73.438714081380397</v>
       </c>
-      <c r="E71">
+      <c r="F71">
+        <f>-53.47*LN(Tabla13[[#This Row],[Valor]])+442.58</f>
+        <v>77.564626896428933</v>
+      </c>
+      <c r="G71">
         <v>45</v>
       </c>
-      <c r="G71">
-        <f>Tabla13[[#This Row],[termocupla]]</f>
-        <v>42</v>
-      </c>
-      <c r="H71">
-        <f>Tabla13[[#This Row],[Valor]]</f>
-        <v>922</v>
+      <c r="H71" t="str">
+        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[termocupla Ian]]," },")</f>
+        <v>{ OV(  922), 42 },</v>
       </c>
       <c r="I71" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Dif]],"), ",Tabla13[[#This Row],[IanProm]]," },")</f>
-        <v>{ OV(  922), 42 },</v>
-      </c>
-      <c r="J71" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[Termometro K]]," },")</f>
+        <f>IF(Tabla13[[#This Row],[adoptado]]="","",CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[adoptado]]," },"))</f>
         <v>{ OV(  922), 45 },</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>939</v>
       </c>
@@ -15529,27 +13447,23 @@
         <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
         <v>72.468746208833295</v>
       </c>
-      <c r="E72">
+      <c r="F72">
+        <f>-53.47*LN(Tabla13[[#This Row],[Valor]])+442.58</f>
+        <v>76.587716326734153</v>
+      </c>
+      <c r="G72">
         <v>40</v>
       </c>
-      <c r="G72">
-        <f>Tabla13[[#This Row],[termocupla]]</f>
-        <v>38</v>
-      </c>
-      <c r="H72">
-        <f>Tabla13[[#This Row],[Valor]]</f>
-        <v>939</v>
+      <c r="H72" t="str">
+        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[termocupla Ian]]," },")</f>
+        <v>{ OV(  939), 38 },</v>
       </c>
       <c r="I72" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Dif]],"), ",Tabla13[[#This Row],[IanProm]]," },")</f>
-        <v>{ OV(  939), 38 },</v>
-      </c>
-      <c r="J72" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[Termometro K]]," },")</f>
+        <f>IF(Tabla13[[#This Row],[adoptado]]="","",CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[adoptado]]," },"))</f>
         <v>{ OV(  939), 40 },</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>954</v>
       </c>
@@ -15563,27 +13477,23 @@
         <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
         <v>71.627365682810421</v>
       </c>
-      <c r="E73">
+      <c r="F73">
+        <f>-53.47*LN(Tabla13[[#This Row],[Valor]])+442.58</f>
+        <v>75.740313487660103</v>
+      </c>
+      <c r="G73">
         <v>35</v>
       </c>
-      <c r="G73">
-        <f>Tabla13[[#This Row],[termocupla]]</f>
-        <v>33</v>
-      </c>
-      <c r="H73">
-        <f>Tabla13[[#This Row],[Valor]]</f>
-        <v>954</v>
+      <c r="H73" t="str">
+        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[termocupla Ian]]," },")</f>
+        <v>{ OV(  954), 33 },</v>
       </c>
       <c r="I73" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Dif]],"), ",Tabla13[[#This Row],[IanProm]]," },")</f>
-        <v>{ OV(  954), 33 },</v>
-      </c>
-      <c r="J73" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[Termometro K]]," },")</f>
+        <f>IF(Tabla13[[#This Row],[adoptado]]="","",CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[adoptado]]," },"))</f>
         <v>{ OV(  954), 35 },</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>966</v>
       </c>
@@ -15597,27 +13507,23 @@
         <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
         <v>70.963732041657408</v>
       </c>
-      <c r="E74">
+      <c r="F74">
+        <f>-53.47*LN(Tabla13[[#This Row],[Valor]])+442.58</f>
+        <v>75.071929784656675</v>
+      </c>
+      <c r="G74">
         <v>30</v>
       </c>
-      <c r="G74">
-        <f>Tabla13[[#This Row],[termocupla]]</f>
-        <v>29</v>
-      </c>
-      <c r="H74">
-        <f>Tabla13[[#This Row],[Valor]]</f>
-        <v>966</v>
+      <c r="H74" t="str">
+        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[termocupla Ian]]," },")</f>
+        <v>{ OV(  966), 29 },</v>
       </c>
       <c r="I74" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Dif]],"), ",Tabla13[[#This Row],[IanProm]]," },")</f>
-        <v>{ OV(  966), 29 },</v>
-      </c>
-      <c r="J74" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[Termometro K]]," },")</f>
+        <f>IF(Tabla13[[#This Row],[adoptado]]="","",CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[adoptado]]," },"))</f>
         <v>{ OV(  966), 30 },</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>977</v>
       </c>
@@ -15631,27 +13537,23 @@
         <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
         <v>70.362603643048658</v>
       </c>
-      <c r="E75">
+      <c r="F75">
+        <f>-53.47*LN(Tabla13[[#This Row],[Valor]])+442.58</f>
+        <v>74.466498715272394</v>
+      </c>
+      <c r="G75">
         <v>25</v>
       </c>
-      <c r="G75">
-        <f>Tabla13[[#This Row],[termocupla]]</f>
-        <v>25</v>
-      </c>
-      <c r="H75">
-        <f>Tabla13[[#This Row],[Valor]]</f>
-        <v>977</v>
+      <c r="H75" t="str">
+        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[termocupla Ian]]," },")</f>
+        <v>{ OV(  977), 25 },</v>
       </c>
       <c r="I75" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Dif]],"), ",Tabla13[[#This Row],[IanProm]]," },")</f>
+        <f>IF(Tabla13[[#This Row],[adoptado]]="","",CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[adoptado]]," },"))</f>
         <v>{ OV(  977), 25 },</v>
       </c>
-      <c r="J75" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[Termometro K]]," },")</f>
-        <v>{ OV(  977), 25 },</v>
-      </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>985</v>
       </c>
@@ -15665,27 +13567,23 @@
         <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
         <v>69.929655270173782</v>
       </c>
-      <c r="E76">
+      <c r="F76">
+        <f>-53.47*LN(Tabla13[[#This Row],[Valor]])+442.58</f>
+        <v>74.030451446528389</v>
+      </c>
+      <c r="G76">
         <v>20</v>
       </c>
-      <c r="G76">
-        <f>Tabla13[[#This Row],[termocupla]]</f>
-        <v>20</v>
-      </c>
-      <c r="H76">
-        <f>Tabla13[[#This Row],[Valor]]</f>
-        <v>985</v>
+      <c r="H76" t="str">
+        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[termocupla Ian]]," },")</f>
+        <v>{ OV(  985), 20 },</v>
       </c>
       <c r="I76" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Dif]],"), ",Tabla13[[#This Row],[IanProm]]," },")</f>
+        <f>IF(Tabla13[[#This Row],[adoptado]]="","",CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[adoptado]]," },"))</f>
         <v>{ OV(  985), 20 },</v>
       </c>
-      <c r="J76" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[Termometro K]]," },")</f>
-        <v>{ OV(  985), 20 },</v>
-      </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>993</v>
       </c>
@@ -15699,27 +13597,23 @@
         <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
         <v>69.500209045841757</v>
       </c>
-      <c r="E77">
+      <c r="F77">
+        <f>-53.47*LN(Tabla13[[#This Row],[Valor]])+442.58</f>
+        <v>73.597931393504609</v>
+      </c>
+      <c r="G77">
         <v>15</v>
       </c>
-      <c r="G77">
-        <f>Tabla13[[#This Row],[termocupla]]</f>
-        <v>15</v>
-      </c>
-      <c r="H77">
-        <f>Tabla13[[#This Row],[Valor]]</f>
-        <v>993</v>
+      <c r="H77" t="str">
+        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[termocupla Ian]]," },")</f>
+        <v>{ OV(  993), 15 },</v>
       </c>
       <c r="I77" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Dif]],"), ",Tabla13[[#This Row],[IanProm]]," },")</f>
+        <f>IF(Tabla13[[#This Row],[adoptado]]="","",CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[adoptado]]," },"))</f>
         <v>{ OV(  993), 15 },</v>
       </c>
-      <c r="J77" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[Termometro K]]," },")</f>
-        <v>{ OV(  993), 15 },</v>
-      </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>999</v>
       </c>
@@ -15733,27 +13627,23 @@
         <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
         <v>69.180388801548247</v>
       </c>
-      <c r="E78">
+      <c r="F78">
+        <f>-53.47*LN(Tabla13[[#This Row],[Valor]])+442.58</f>
+        <v>73.275821985661821</v>
+      </c>
+      <c r="G78">
         <v>10</v>
       </c>
-      <c r="G78">
-        <f>Tabla13[[#This Row],[termocupla]]</f>
-        <v>10</v>
-      </c>
-      <c r="H78">
-        <f>Tabla13[[#This Row],[Valor]]</f>
-        <v>999</v>
+      <c r="H78" t="str">
+        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[termocupla Ian]]," },")</f>
+        <v>{ OV(  999), 10 },</v>
       </c>
       <c r="I78" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Dif]],"), ",Tabla13[[#This Row],[IanProm]]," },")</f>
+        <f>IF(Tabla13[[#This Row],[adoptado]]="","",CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[adoptado]]," },"))</f>
         <v>{ OV(  999), 10 },</v>
       </c>
-      <c r="J78" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[Termometro K]]," },")</f>
-        <v>{ OV(  999), 10 },</v>
-      </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>1004</v>
       </c>
@@ -15767,27 +13657,23 @@
         <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
         <v>68.915335829638593</v>
       </c>
-      <c r="E79">
+      <c r="F79">
+        <f>-53.47*LN(Tabla13[[#This Row],[Valor]])+442.58</f>
+        <v>73.008871855542964</v>
+      </c>
+      <c r="G79">
         <v>5</v>
       </c>
-      <c r="G79">
-        <f>Tabla13[[#This Row],[termocupla]]</f>
-        <v>5</v>
-      </c>
-      <c r="H79">
-        <f>Tabla13[[#This Row],[Valor]]</f>
-        <v>1004</v>
+      <c r="H79" t="str">
+        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[termocupla Ian]]," },")</f>
+        <v>{ OV(  1004), 5 },</v>
       </c>
       <c r="I79" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Dif]],"), ",Tabla13[[#This Row],[IanProm]]," },")</f>
+        <f>IF(Tabla13[[#This Row],[adoptado]]="","",CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[adoptado]]," },"))</f>
         <v>{ OV(  1004), 5 },</v>
       </c>
-      <c r="J79" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[Termometro K]]," },")</f>
-        <v>{ OV(  1004), 5 },</v>
-      </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>1008</v>
       </c>
@@ -15801,27 +13687,23 @@
         <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
         <v>68.704242112163513</v>
       </c>
-      <c r="E80">
+      <c r="F80">
+        <f>-53.47*LN(Tabla13[[#This Row],[Valor]])+442.58</f>
+        <v>72.796267201683634</v>
+      </c>
+      <c r="G80">
         <v>0</v>
       </c>
-      <c r="G80">
-        <f>Tabla13[[#This Row],[termocupla]]</f>
-        <v>0</v>
-      </c>
-      <c r="H80">
-        <f>Tabla13[[#This Row],[Valor]]</f>
-        <v>1008</v>
+      <c r="H80" t="str">
+        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[termocupla Ian]]," },")</f>
+        <v>{ OV(  1008), 0 },</v>
       </c>
       <c r="I80" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Dif]],"), ",Tabla13[[#This Row],[IanProm]]," },")</f>
+        <f>IF(Tabla13[[#This Row],[adoptado]]="","",CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[adoptado]]," },"))</f>
         <v>{ OV(  1008), 0 },</v>
       </c>
-      <c r="J80" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[Termometro K]]," },")</f>
-        <v>{ OV(  1008), 0 },</v>
-      </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>1012</v>
       </c>
@@ -15835,27 +13717,23 @@
         <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
         <v>68.493984411600934</v>
       </c>
-      <c r="E81">
+      <c r="F81">
+        <f>-53.47*LN(Tabla13[[#This Row],[Valor]])+442.58</f>
+        <v>72.584504548658913</v>
+      </c>
+      <c r="G81">
         <v>-5</v>
       </c>
-      <c r="G81">
-        <f>Tabla13[[#This Row],[termocupla]]</f>
-        <v>-5</v>
-      </c>
-      <c r="H81">
-        <f>Tabla13[[#This Row],[Valor]]</f>
-        <v>1012</v>
+      <c r="H81" t="str">
+        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[termocupla Ian]]," },")</f>
+        <v>{ OV(  1012), -5 },</v>
       </c>
       <c r="I81" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Dif]],"), ",Tabla13[[#This Row],[IanProm]]," },")</f>
+        <f>IF(Tabla13[[#This Row],[adoptado]]="","",CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[adoptado]]," },"))</f>
         <v>{ OV(  1012), -5 },</v>
       </c>
-      <c r="J81" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[Termometro K]]," },")</f>
-        <v>{ OV(  1012), -5 },</v>
-      </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>1016</v>
       </c>
@@ -15869,27 +13747,23 @@
         <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
         <v>68.284556132130888</v>
       </c>
-      <c r="E82">
+      <c r="F82">
+        <f>-53.47*LN(Tabla13[[#This Row],[Valor]])+442.58</f>
+        <v>72.37357725343827</v>
+      </c>
+      <c r="G82">
         <v>-10</v>
       </c>
-      <c r="G82">
-        <f>Tabla13[[#This Row],[termocupla]]</f>
-        <v>-10</v>
-      </c>
-      <c r="H82">
-        <f>Tabla13[[#This Row],[Valor]]</f>
-        <v>1016</v>
+      <c r="H82" t="str">
+        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[termocupla Ian]]," },")</f>
+        <v>{ OV(  1016), -10 },</v>
       </c>
       <c r="I82" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Dif]],"), ",Tabla13[[#This Row],[IanProm]]," },")</f>
+        <f>IF(Tabla13[[#This Row],[adoptado]]="","",CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[adoptado]]," },"))</f>
         <v>{ OV(  1016), -10 },</v>
       </c>
-      <c r="J82" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[Termometro K]]," },")</f>
-        <v>{ OV(  1016), -10 },</v>
-      </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>1020</v>
       </c>
@@ -15903,23 +13777,19 @@
         <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
         <v>68.075950755684175</v>
       </c>
-      <c r="E83">
+      <c r="F83">
+        <f>-53.47*LN(Tabla13[[#This Row],[Valor]])+442.58</f>
+        <v>72.163478751298385</v>
+      </c>
+      <c r="G83">
         <v>-15</v>
       </c>
-      <c r="G83">
-        <f>Tabla13[[#This Row],[termocupla]]</f>
-        <v>-15</v>
-      </c>
-      <c r="H83">
-        <f>Tabla13[[#This Row],[Valor]]</f>
-        <v>1020</v>
+      <c r="H83" t="str">
+        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[termocupla Ian]]," },")</f>
+        <v>{ OV(  1020), -15 },</v>
       </c>
       <c r="I83" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Dif]],"), ",Tabla13[[#This Row],[IanProm]]," },")</f>
-        <v>{ OV(  1020), -15 },</v>
-      </c>
-      <c r="J83" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[Termometro K]]," },")</f>
+        <f>IF(Tabla13[[#This Row],[adoptado]]="","",CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[adoptado]]," },"))</f>
         <v>{ OV(  1020), -15 },</v>
       </c>
     </row>

--- a/Calibracion termistor 104 GT-2.xlsx
+++ b/Calibracion termistor 104 GT-2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\IanMarlin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48997692-1D79-4ECC-9AC3-3D5EC61AC15E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3837F81C-2C9E-4132-BC7E-16DF9091756D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{A08EAA92-78C6-4BC2-A345-6463F8A185EB}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>original marlin</t>
   </si>
@@ -66,16 +66,16 @@
     <t>IanProm</t>
   </si>
   <si>
-    <t>DifAnt Termocupla K</t>
+    <t>Codigo</t>
   </si>
   <si>
-    <t>termocupla Ian</t>
+    <t>TermK LN</t>
   </si>
   <si>
-    <t>Ian Calculado</t>
+    <t>TermK Pot</t>
   </si>
   <si>
-    <t>TermK Calculado</t>
+    <t>TermK</t>
   </si>
 </sst>
 </file>
@@ -117,10 +117,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -2431,44 +2428,24 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-AR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="2.9892755168617325E-2"/>
+          <c:y val="4.011682549534322E-2"/>
+          <c:w val="0.95240353983694515"/>
+          <c:h val="0.94685635408110147"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="4"/>
+          <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
@@ -2477,1518 +2454,6 @@
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>original marlin</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>usa!$A$2:$A$83</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="82"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>109</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>131</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>143</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>156</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>171</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>187</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>205</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>224</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>245</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>268</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>293</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>320</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>348</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>379</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>411</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>445</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>480</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>516</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>553</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>591</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>628</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>665</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>702</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>737</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>770</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>801</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>830</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>857</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>881</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>903</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>922</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>939</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>954</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>966</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>977</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>985</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>993</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>999</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>1004</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>1008</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>1012</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>1016</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>1020</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>usa!$B$2:$B$83</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="82"/>
-                <c:pt idx="14">
-                  <c:v>320</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>315</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>310</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>305</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>295</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>290</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>285</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>280</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>275</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>270</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>265</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>260</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>255</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>245</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>235</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>230</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>225</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>220</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>215</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>205</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>195</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>190</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>185</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>175</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>165</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>155</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>145</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>135</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>125</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>115</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>-5</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>-10</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>-15</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000014-A695-490D-9959-E9870CA02D5A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>usa!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>termocupla Ian</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>usa!$A$2:$A$83</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="82"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>109</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>131</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>143</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>156</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>171</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>187</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>205</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>224</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>245</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>268</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>293</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>320</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>348</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>379</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>411</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>445</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>480</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>516</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>553</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>591</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>628</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>665</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>702</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>737</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>770</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>801</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>830</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>857</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>881</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>903</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>922</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>939</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>954</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>966</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>977</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>985</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>993</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>999</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>1004</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>1008</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>1012</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>1016</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>1020</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>usa!$C$2:$C$83</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="82"/>
-                <c:pt idx="5">
-                  <c:v>320</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>314</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>309</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>304</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>296</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>292</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>289</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>285</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>282</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>280</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>277</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>272</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>269</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>265</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>263</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>260</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>255</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>248</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>243</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>239</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>235</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>230</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>225</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>220</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>217</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>213</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>209</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>204</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>195</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>190</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>186</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>181</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>177</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>173</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>168</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>162</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>158</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>154</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>149</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>145</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>135</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>125</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>121</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>116</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>111</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>106</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>102</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>-5</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>-10</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>-15</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000015-A695-490D-9959-E9870CA02D5A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>usa!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>original marlin</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>usa!$A$2:$A$83</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="82"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>109</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>131</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>143</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>156</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>171</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>187</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>205</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>224</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>245</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>268</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>293</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>320</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>348</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>379</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>411</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>445</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>480</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>516</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>553</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>591</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>628</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>665</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>702</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>737</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>770</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>801</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>830</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>857</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>881</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>903</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>922</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>939</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>954</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>966</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>977</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>985</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>993</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>999</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>1004</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>1008</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>1012</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>1016</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>1020</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>usa!$B$2:$B$83</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="82"/>
-                <c:pt idx="14">
-                  <c:v>320</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>315</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>310</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>305</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>295</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>290</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>285</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>280</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>275</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>270</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>265</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>260</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>255</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>245</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>235</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>230</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>225</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>220</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>215</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>205</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>195</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>190</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>185</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>175</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>165</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>155</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>145</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>135</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>125</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>115</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>-5</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>-10</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>-15</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000016-A695-490D-9959-E9870CA02D5A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>usa!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>termocupla Ian</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4262,525 +2727,6 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>usa!$C$2:$C$83</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="82"/>
-                <c:pt idx="5">
-                  <c:v>320</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>314</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>309</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>304</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>296</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>292</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>289</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>285</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>282</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>280</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>277</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>272</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>269</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>265</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>263</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>260</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>255</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>248</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>243</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>239</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>235</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>230</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>225</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>220</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>217</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>213</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>209</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>204</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>195</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>190</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>186</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>181</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>177</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>173</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>168</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>162</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>158</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>154</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>149</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>145</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>135</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>125</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>121</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>116</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>111</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>106</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>102</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>-5</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>-10</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>-15</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000017-A695-490D-9959-E9870CA02D5A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>usa!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>original marlin</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>usa!$A$2:$A$83</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="82"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>109</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>131</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>143</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>156</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>171</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>187</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>205</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>224</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>245</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>268</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>293</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>320</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>348</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>379</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>411</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>445</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>480</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>516</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>553</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>591</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>628</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>665</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>702</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>737</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>770</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>801</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>830</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>857</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>881</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>903</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>922</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>939</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>954</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>966</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>977</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>985</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>993</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>999</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>1004</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>1008</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>1012</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>1016</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>1020</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
               <c:f>usa!$B$2:$B$83</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -4992,542 +2938,23 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000C-A695-490D-9959-E9870CA02D5A}"/>
+              <c16:uniqueId val="{00000000-C04D-4364-90BE-BA7A8A4487AF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="3"/>
-          <c:order val="5"/>
+          <c:idx val="1"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>usa!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>termocupla Ian</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>usa!$A$2:$A$83</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="82"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>109</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>131</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>143</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>156</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>171</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>187</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>205</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>224</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>245</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>268</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>293</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>320</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>348</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>379</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>411</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>445</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>480</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>516</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>553</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>591</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>628</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>665</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>702</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>737</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>770</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>801</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>830</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>857</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>881</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>903</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>922</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>939</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>954</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>966</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>977</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>985</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>993</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>999</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>1004</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>1008</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>1012</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>1016</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>1020</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>usa!$C$2:$C$83</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="82"/>
-                <c:pt idx="5">
-                  <c:v>320</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>314</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>309</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>304</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>296</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>292</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>289</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>285</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>282</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>280</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>277</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>272</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>269</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>265</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>263</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>260</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>255</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>248</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>243</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>239</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>235</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>230</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>225</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>220</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>217</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>213</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>209</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>204</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>195</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>190</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>186</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>181</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>177</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>173</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>168</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>162</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>158</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>154</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>149</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>145</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>135</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>125</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>121</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>116</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>111</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>106</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>102</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>-5</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>-10</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>-15</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000E-A695-490D-9959-E9870CA02D5A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>usa!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>original marlin</c:v>
+                  <c:v>TermK</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5535,7 +2962,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent4"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -5801,234 +3228,165 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>usa!$B$2:$B$83</c:f>
+              <c:f>usa!$C$2:$C$83</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="82"/>
+                <c:pt idx="12">
+                  <c:v>301</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>296</c:v>
+                </c:pt>
                 <c:pt idx="14">
-                  <c:v>320</c:v>
+                  <c:v>293</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>315</c:v>
+                  <c:v>290</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>310</c:v>
+                  <c:v>286</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>305</c:v>
+                  <c:v>280</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>300</c:v>
+                  <c:v>275</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>295</c:v>
+                  <c:v>270</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>290</c:v>
+                  <c:v>267</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>285</c:v>
+                  <c:v>264</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>280</c:v>
+                  <c:v>259</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>275</c:v>
+                  <c:v>254</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>270</c:v>
+                  <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>265</c:v>
+                  <c:v>246</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>260</c:v>
+                  <c:v>242</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>255</c:v>
+                  <c:v>237</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>250</c:v>
+                  <c:v>233</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>245</c:v>
+                  <c:v>228</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>240</c:v>
+                  <c:v>224</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>235</c:v>
+                  <c:v>219</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>230</c:v>
+                  <c:v>215</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>225</c:v>
+                  <c:v>211</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>220</c:v>
+                  <c:v>207</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>215</c:v>
+                  <c:v>202</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>210</c:v>
+                  <c:v>198</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>205</c:v>
+                  <c:v>193</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>200</c:v>
+                  <c:v>189</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>195</c:v>
+                  <c:v>184</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>190</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>185</c:v>
+                  <c:v>176</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>180</c:v>
+                  <c:v>171</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>175</c:v>
+                  <c:v>168</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>170</c:v>
+                  <c:v>165</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>165</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>160</c:v>
+                  <c:v>157</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>155</c:v>
+                  <c:v>152</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>150</c:v>
+                  <c:v>147</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>145</c:v>
+                  <c:v>142</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>140</c:v>
+                  <c:v>137</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>135</c:v>
+                  <c:v>133</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>130</c:v>
+                  <c:v>127</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>125</c:v>
+                  <c:v>122</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>120</c:v>
+                  <c:v>117</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>115</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>-5</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>-10</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>-15</c:v>
+                  <c:v>108</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000010-A695-490D-9959-E9870CA02D5A}"/>
+              <c16:uniqueId val="{00000001-C04D-4364-90BE-BA7A8A4487AF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
-          <c:order val="7"/>
+          <c:idx val="2"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>usa!$C$1</c:f>
+              <c:f>usa!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>termocupla Ian</c:v>
+                  <c:v>adoptado</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6036,7 +3394,9 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent6">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -6045,56 +3405,6 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="log"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.5834099020625233"/>
-                  <c:y val="-0.41077811427417726"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="es-AR"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>usa!$A$2:$A$83</c:f>
@@ -6352,213 +3662,228 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>usa!$C$2:$C$83</c:f>
+              <c:f>usa!$F$2:$F$83</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="82"/>
+                <c:pt idx="0">
+                  <c:v>601</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>506</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>458</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>426</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>404</c:v>
+                </c:pt>
                 <c:pt idx="5">
-                  <c:v>320</c:v>
+                  <c:v>349</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>314</c:v>
+                  <c:v>340</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>309</c:v>
+                  <c:v>332</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>304</c:v>
+                  <c:v>325</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>300</c:v>
+                  <c:v>319</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>313</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>308</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>301</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>296</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>292</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>289</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>285</c:v>
-                </c:pt>
                 <c:pt idx="14">
-                  <c:v>282</c:v>
+                  <c:v>293</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>286</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>280</c:v>
                 </c:pt>
-                <c:pt idx="16">
-                  <c:v>277</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>272</c:v>
-                </c:pt>
                 <c:pt idx="18">
-                  <c:v>269</c:v>
+                  <c:v>275</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>265</c:v>
+                  <c:v>270</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>263</c:v>
+                  <c:v>267</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>260</c:v>
+                  <c:v>264</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>255</c:v>
+                  <c:v>259</c:v>
                 </c:pt>
                 <c:pt idx="23">
+                  <c:v>254</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>250</c:v>
                 </c:pt>
-                <c:pt idx="24">
-                  <c:v>248</c:v>
-                </c:pt>
                 <c:pt idx="25">
-                  <c:v>243</c:v>
+                  <c:v>246</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>239</c:v>
+                  <c:v>242</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>235</c:v>
+                  <c:v>237</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>230</c:v>
+                  <c:v>233</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>225</c:v>
+                  <c:v>228</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>220</c:v>
+                  <c:v>224</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>217</c:v>
+                  <c:v>219</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>213</c:v>
+                  <c:v>215</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>209</c:v>
+                  <c:v>211</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>204</c:v>
+                  <c:v>207</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>200</c:v>
+                  <c:v>202</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>195</c:v>
+                  <c:v>198</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>190</c:v>
+                  <c:v>193</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>186</c:v>
+                  <c:v>189</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>181</c:v>
+                  <c:v>184</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>177</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>173</c:v>
+                  <c:v>176</c:v>
                 </c:pt>
                 <c:pt idx="42">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="43">
                   <c:v>168</c:v>
                 </c:pt>
-                <c:pt idx="43">
-                  <c:v>162</c:v>
-                </c:pt>
                 <c:pt idx="44">
-                  <c:v>158</c:v>
+                  <c:v>165</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>154</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>149</c:v>
+                  <c:v>157</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>145</c:v>
+                  <c:v>152</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>140</c:v>
+                  <c:v>147</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>135</c:v>
+                  <c:v>142</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>130</c:v>
+                  <c:v>137</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>125</c:v>
+                  <c:v>133</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>121</c:v>
+                  <c:v>127</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>116</c:v>
+                  <c:v>122</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>111</c:v>
+                  <c:v>117</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>106</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>102</c:v>
+                  <c:v>108</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>97</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>93</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>88</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>84</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>79</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>74</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>69</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="64">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="65">
                   <c:v>65</c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="66">
                   <c:v>60</c:v>
                 </c:pt>
-                <c:pt idx="66">
-                  <c:v>56</c:v>
-                </c:pt>
                 <c:pt idx="67">
-                  <c:v>51</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>47</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>42</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>38</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>33</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>29</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>25</c:v>
@@ -6590,10 +3915,10 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000013-A695-490D-9959-E9870CA02D5A}"/>
+              <c16:uniqueId val="{00000002-C04D-4364-90BE-BA7A8A4487AF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6605,11 +3930,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1392664367"/>
-        <c:axId val="1345038847"/>
+        <c:axId val="670218127"/>
+        <c:axId val="670199887"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1392664367"/>
+        <c:axId val="670218127"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6666,12 +3991,12 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1345038847"/>
+        <c:crossAx val="670199887"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1345038847"/>
+        <c:axId val="670199887"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6728,1230 +4053,7 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1392664367"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-AR"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst/>
-  </c:chart>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="es-AR"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="es-MX"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-AR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>usa!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>original marlin</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>usa!$A$2:$A$83</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="82"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>109</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>131</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>143</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>156</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>171</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>187</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>205</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>224</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>245</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>268</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>293</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>320</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>348</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>379</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>411</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>445</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>480</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>516</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>553</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>591</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>628</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>665</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>702</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>737</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>770</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>801</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>830</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>857</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>881</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>903</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>922</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>939</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>954</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>966</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>977</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>985</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>993</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>999</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>1004</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>1008</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>1012</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>1016</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>1020</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>usa!$B$2:$B$83</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="82"/>
-                <c:pt idx="14">
-                  <c:v>320</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>315</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>310</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>305</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>295</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>290</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>285</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>280</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>275</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>270</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>265</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>260</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>255</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>245</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>235</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>230</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>225</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>220</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>215</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>205</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>195</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>190</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>185</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>175</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>165</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>155</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>145</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>135</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>125</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>115</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>-5</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>-10</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>-15</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-81AB-4639-A602-D81B6F4E5F1A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>usa!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Termometro K</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="log"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.62663244975886212"/>
-                  <c:y val="-0.51550163495449064"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="es-AR"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>usa!$A$2:$A$83</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="82"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>109</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>131</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>143</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>156</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>171</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>187</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>205</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>224</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>245</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>268</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>293</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>320</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>348</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>379</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>411</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>445</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>480</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>516</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>553</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>591</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>628</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>665</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>702</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>737</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>770</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>801</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>830</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>857</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>881</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>903</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>922</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>939</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>954</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>966</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>977</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>985</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>993</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>999</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>1004</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>1008</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>1012</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>1016</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>1020</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>usa!$E$2:$E$83</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="82"/>
-                <c:pt idx="12">
-                  <c:v>301</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>296</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>293</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>290</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>286</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>280</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>275</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>270</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>267</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>264</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>259</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>254</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>246</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>242</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>237</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>233</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>228</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>224</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>219</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>215</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>211</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>207</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>202</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>198</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>193</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>189</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>184</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>176</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>171</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>168</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>165</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>157</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>152</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>147</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>142</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>137</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>133</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>127</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>122</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>117</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>112</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>108</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-81AB-4639-A602-D81B6F4E5F1A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1466811376"/>
-        <c:axId val="1466806576"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1466811376"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1466806576"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1466806576"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1466811376"/>
+        <c:crossAx val="670218127"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8119,12 +4221,9 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
   <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
   <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
@@ -9787,23 +5886,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>181842</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>132051</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>198296</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>519979</xdr:colOff>
-      <xdr:row>145</xdr:row>
-      <xdr:rowOff>132051</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>198295</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>57004</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Gráfico 5">
+        <xdr:cNvPr id="5" name="Gráfico 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD3946F5-7B6F-4F09-BE23-A6ED9081D093}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE4C72E2-6D75-014E-9EB3-F8D9D754F722}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9816,42 +5915,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>566737</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>100012</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Gráfico 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BF658F2-08AD-E828-207D-DF3FAFCFB380}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -9871,10 +5934,10 @@
     <tableColumn id="5" xr3:uid="{65EF1CB1-6BBC-43AC-A72B-DA603C088E40}" name="Termometro K"/>
     <tableColumn id="6" xr3:uid="{E0BD7114-7686-4BB6-AB81-489787702221}" name="adoptado"/>
     <tableColumn id="7" xr3:uid="{64094014-E0D2-4511-A2FB-BC11E513A135}" name="IanProm"/>
-    <tableColumn id="8" xr3:uid="{964E7193-4BE8-42F2-AF01-B9F3BC796F2C}" name="Dif" dataDxfId="5">
+    <tableColumn id="8" xr3:uid="{964E7193-4BE8-42F2-AF01-B9F3BC796F2C}" name="Dif" dataDxfId="4">
       <calculatedColumnFormula>Tabla1[[#This Row],[Valor]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{2AA7AC65-A4AA-4F03-8B79-BD568DEB48B6}" name="DifAnt" dataDxfId="4">
+    <tableColumn id="9" xr3:uid="{2AA7AC65-A4AA-4F03-8B79-BD568DEB48B6}" name="DifAnt" dataDxfId="3">
       <calculatedColumnFormula>CONCATENATE("{ OV(  ",Tabla1[[#This Row],[Dif]],"), ",Tabla1[[#This Row],[IanProm]]," },")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9883,28 +5946,26 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{829CD81E-7403-4255-A2AA-E45D28D83766}" name="Tabla13" displayName="Tabla13" ref="A1:I83" totalsRowShown="0">
-  <autoFilter ref="A1:I83" xr:uid="{F51493D3-77F3-4F43-BE10-20FD61E5E4EA}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H83">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{829CD81E-7403-4255-A2AA-E45D28D83766}" name="Tabla13" displayName="Tabla13" ref="A1:G83" totalsRowShown="0">
+  <autoFilter ref="A1:G83" xr:uid="{F51493D3-77F3-4F43-BE10-20FD61E5E4EA}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F83">
     <sortCondition ref="A1:A83"/>
   </sortState>
-  <tableColumns count="9">
+  <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{CD40BD62-504B-41F8-84C6-F832FB0AFE1F}" name="Valor"/>
     <tableColumn id="2" xr3:uid="{EFBD1770-C9CB-439E-90D5-13E06A3F722B}" name="original marlin"/>
-    <tableColumn id="3" xr3:uid="{9FDD27FD-3E9E-485D-B95D-12211081E729}" name="termocupla Ian"/>
-    <tableColumn id="4" xr3:uid="{0BE02F66-8B5D-492E-A0EB-CC00F73BE616}" name="Ian Calculado" dataDxfId="3">
-      <calculatedColumnFormula>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</calculatedColumnFormula>
+    <tableColumn id="4" xr3:uid="{0FE6344C-4F08-452A-A844-1A1942B39E99}" name="TermK"/>
+    <tableColumn id="7" xr3:uid="{1FEA4167-CBD0-4EA2-8988-01B77E124520}" name="TermK LN" dataDxfId="2">
+      <calculatedColumnFormula>-60*LN(Tabla13[[#This Row],[Valor]])+462.8</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{93B80CB3-20D7-4B76-9D4F-9B0B307F0392}" name="Termometro K"/>
-    <tableColumn id="7" xr3:uid="{1FEA4167-CBD0-4EA2-8988-01B77E124520}" name="TermK Calculado" dataDxfId="0">
-      <calculatedColumnFormula>-53.47*LN(Tabla13[[#This Row],[Valor]])+442.58</calculatedColumnFormula>
+    <tableColumn id="3" xr3:uid="{DCF4012B-7201-4ADB-A19B-FC217519D115}" name="TermK Pot" dataDxfId="1">
+      <calculatedColumnFormula>600.56*Tabla13[[#This Row],[Valor]]^(-0.247)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{E4F52C58-EEEE-4D91-92BC-CD2EC6D332FB}" name="adoptado"/>
-    <tableColumn id="9" xr3:uid="{E4A8903A-036F-423A-9687-40B1A3D2D4FB}" name="DifAnt" dataDxfId="2">
-      <calculatedColumnFormula>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[termocupla Ian]]," },")</calculatedColumnFormula>
+    <tableColumn id="6" xr3:uid="{E4F52C58-EEEE-4D91-92BC-CD2EC6D332FB}" name="adoptado">
+      <calculatedColumnFormula>IF(Tabla13[[#This Row],[TermK]]&lt;&gt;"",Tabla13[[#This Row],[TermK]],IF(AND(Tabla13[[#This Row],[original marlin]]&lt;&gt;"",Tabla13[[#This Row],[original marlin]]&lt;110),Tabla13[[#This Row],[original marlin]],ROUND(Tabla13[[#This Row],[TermK Pot]],)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{73E68F1E-C946-4E3F-9943-A57F02EC03F0}" name="DifAnt Termocupla K" dataDxfId="1">
-      <calculatedColumnFormula>IF(Tabla13[[#This Row],[adoptado]]="","",CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[adoptado]]," },"))</calculatedColumnFormula>
+    <tableColumn id="10" xr3:uid="{73E68F1E-C946-4E3F-9943-A57F02EC03F0}" name="Codigo" dataDxfId="0">
+      <calculatedColumnFormula>IF(Tabla13[[#This Row],[adoptado]]="","","  { OV("&amp;REPT(" ",4 - LEN(Tabla13[[#This Row],[Valor]])) &amp; Tabla13[[#This Row],[Valor]]&amp;"), "&amp;REPT(" ",3 - LEN(Tabla13[[#This Row],[adoptado]])) &amp; Tabla13[[#This Row],[adoptado]]&amp;" }"&amp;IF(Tabla13[[#This Row],[Valor]]&lt;MAX(Tabla13[Valor]),",",))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -11240,26 +7301,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C10B22CE-B10E-47F1-ACE5-C86D93104FE3}">
-  <dimension ref="A1:I83"/>
+  <dimension ref="A1:G83"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.7109375" customWidth="1"/>
-    <col min="9" max="9" width="23.85546875" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1"/>
+    <col min="4" max="5" width="16" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -11267,364 +7325,322 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="D2">
-        <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
-        <v>435.86</v>
+        <f>-60*LN(Tabla13[[#This Row],[Valor]])+462.8</f>
+        <v>462.8</v>
+      </c>
+      <c r="E2">
+        <f>600.56*Tabla13[[#This Row],[Valor]]^(-0.247)</f>
+        <v>600.55999999999995</v>
       </c>
       <c r="F2">
-        <f>-53.47*LN(Tabla13[[#This Row],[Valor]])+442.58</f>
-        <v>442.58</v>
-      </c>
-      <c r="G2">
-        <v>713</v>
-      </c>
-      <c r="H2" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[termocupla Ian]]," },")</f>
-        <v>{ OV(  1),  },</v>
-      </c>
-      <c r="I2" t="str">
-        <f>IF(Tabla13[[#This Row],[adoptado]]="","",CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[adoptado]]," },"))</f>
-        <v>{ OV(  1), 713 },</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <f>IF(Tabla13[[#This Row],[TermK]]&lt;&gt;"",Tabla13[[#This Row],[TermK]],IF(AND(Tabla13[[#This Row],[original marlin]]&lt;&gt;"",Tabla13[[#This Row],[original marlin]]&lt;110),Tabla13[[#This Row],[original marlin]],ROUND(Tabla13[[#This Row],[TermK Pot]],)))</f>
+        <v>601</v>
+      </c>
+      <c r="G2" t="str">
+        <f>IF(Tabla13[[#This Row],[adoptado]]="","","  { OV("&amp;REPT(" ",4 - LEN(Tabla13[[#This Row],[Valor]])) &amp; Tabla13[[#This Row],[Valor]]&amp;"), "&amp;REPT(" ",3 - LEN(Tabla13[[#This Row],[adoptado]])) &amp; Tabla13[[#This Row],[adoptado]]&amp;" }"&amp;IF(Tabla13[[#This Row],[Valor]]&lt;MAX(Tabla13[Valor]),",",))</f>
+        <v xml:space="preserve">  { OV(   1), 601 },</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="D3">
-        <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
-        <v>399.06081618407251</v>
+        <f>-60*LN(Tabla13[[#This Row],[Valor]])+462.8</f>
+        <v>421.21116916640329</v>
+      </c>
+      <c r="E3">
+        <f>600.56*Tabla13[[#This Row],[Valor]]^(-0.247)</f>
+        <v>506.05997992641267</v>
       </c>
       <c r="F3">
-        <f>-53.47*LN(Tabla13[[#This Row],[Valor]])+442.58</f>
-        <v>405.51742025545968</v>
-      </c>
-      <c r="H3" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[termocupla Ian]]," },")</f>
-        <v>{ OV(  2),  },</v>
-      </c>
-      <c r="I3" t="str">
-        <f>IF(Tabla13[[#This Row],[adoptado]]="","",CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[adoptado]]," },"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <f>IF(Tabla13[[#This Row],[TermK]]&lt;&gt;"",Tabla13[[#This Row],[TermK]],IF(AND(Tabla13[[#This Row],[original marlin]]&lt;&gt;"",Tabla13[[#This Row],[original marlin]]&lt;110),Tabla13[[#This Row],[original marlin]],ROUND(Tabla13[[#This Row],[TermK Pot]],)))</f>
+        <v>506</v>
+      </c>
+      <c r="G3" t="str">
+        <f>IF(Tabla13[[#This Row],[adoptado]]="","","  { OV("&amp;REPT(" ",4 - LEN(Tabla13[[#This Row],[Valor]])) &amp; Tabla13[[#This Row],[Valor]]&amp;"), "&amp;REPT(" ",3 - LEN(Tabla13[[#This Row],[adoptado]])) &amp; Tabla13[[#This Row],[adoptado]]&amp;" }"&amp;IF(Tabla13[[#This Row],[Valor]]&lt;MAX(Tabla13[Valor]),",",))</f>
+        <v xml:space="preserve">  { OV(   2), 506 },</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="D4">
-        <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
-        <v>377.53467359461007</v>
+        <f>-60*LN(Tabla13[[#This Row],[Valor]])+462.8</f>
+        <v>396.8832626799134</v>
+      </c>
+      <c r="E4">
+        <f>600.56*Tabla13[[#This Row],[Valor]]^(-0.247)</f>
+        <v>457.83337961868546</v>
       </c>
       <c r="F4">
-        <f>-53.47*LN(Tabla13[[#This Row],[Valor]])+442.58</f>
-        <v>383.83720092491615</v>
-      </c>
-      <c r="H4" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[termocupla Ian]]," },")</f>
-        <v>{ OV(  3),  },</v>
-      </c>
-      <c r="I4" t="str">
-        <f>IF(Tabla13[[#This Row],[adoptado]]="","",CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[adoptado]]," },"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <f>IF(Tabla13[[#This Row],[TermK]]&lt;&gt;"",Tabla13[[#This Row],[TermK]],IF(AND(Tabla13[[#This Row],[original marlin]]&lt;&gt;"",Tabla13[[#This Row],[original marlin]]&lt;110),Tabla13[[#This Row],[original marlin]],ROUND(Tabla13[[#This Row],[TermK Pot]],)))</f>
+        <v>458</v>
+      </c>
+      <c r="G4" t="str">
+        <f>IF(Tabla13[[#This Row],[adoptado]]="","","  { OV("&amp;REPT(" ",4 - LEN(Tabla13[[#This Row],[Valor]])) &amp; Tabla13[[#This Row],[Valor]]&amp;"), "&amp;REPT(" ",3 - LEN(Tabla13[[#This Row],[adoptado]])) &amp; Tabla13[[#This Row],[adoptado]]&amp;" }"&amp;IF(Tabla13[[#This Row],[Valor]]&lt;MAX(Tabla13[Valor]),",",))</f>
+        <v xml:space="preserve">  { OV(   3), 458 },</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="D5">
-        <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
-        <v>362.261632368145</v>
+        <f>-60*LN(Tabla13[[#This Row],[Valor]])+462.8</f>
+        <v>379.62233833280658</v>
+      </c>
+      <c r="E5">
+        <f>600.56*Tabla13[[#This Row],[Valor]]^(-0.247)</f>
+        <v>426.42983762342027</v>
       </c>
       <c r="F5">
-        <f>-53.47*LN(Tabla13[[#This Row],[Valor]])+442.58</f>
-        <v>368.45484051091944</v>
-      </c>
-      <c r="H5" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[termocupla Ian]]," },")</f>
-        <v>{ OV(  4),  },</v>
-      </c>
-      <c r="I5" t="str">
-        <f>IF(Tabla13[[#This Row],[adoptado]]="","",CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[adoptado]]," },"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <f>IF(Tabla13[[#This Row],[TermK]]&lt;&gt;"",Tabla13[[#This Row],[TermK]],IF(AND(Tabla13[[#This Row],[original marlin]]&lt;&gt;"",Tabla13[[#This Row],[original marlin]]&lt;110),Tabla13[[#This Row],[original marlin]],ROUND(Tabla13[[#This Row],[TermK Pot]],)))</f>
+        <v>426</v>
+      </c>
+      <c r="G5" t="str">
+        <f>IF(Tabla13[[#This Row],[adoptado]]="","","  { OV("&amp;REPT(" ",4 - LEN(Tabla13[[#This Row],[Valor]])) &amp; Tabla13[[#This Row],[Valor]]&amp;"), "&amp;REPT(" ",3 - LEN(Tabla13[[#This Row],[adoptado]])) &amp; Tabla13[[#This Row],[adoptado]]&amp;" }"&amp;IF(Tabla13[[#This Row],[Valor]]&lt;MAX(Tabla13[Valor]),",",))</f>
+        <v xml:space="preserve">  { OV(   4), 426 },</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="D6">
-        <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
-        <v>350.41494122887366</v>
+        <f>-60*LN(Tabla13[[#This Row],[Valor]])+462.8</f>
+        <v>366.23372525395399</v>
+      </c>
+      <c r="E6">
+        <f>600.56*Tabla13[[#This Row],[Valor]]^(-0.247)</f>
+        <v>403.56250746866601</v>
       </c>
       <c r="F6">
-        <f>-53.47*LN(Tabla13[[#This Row],[Valor]])+442.58</f>
-        <v>356.52335482214863</v>
-      </c>
-      <c r="H6" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[termocupla Ian]]," },")</f>
-        <v>{ OV(  5),  },</v>
-      </c>
-      <c r="I6" t="str">
-        <f>IF(Tabla13[[#This Row],[adoptado]]="","",CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[adoptado]]," },"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <f>IF(Tabla13[[#This Row],[TermK]]&lt;&gt;"",Tabla13[[#This Row],[TermK]],IF(AND(Tabla13[[#This Row],[original marlin]]&lt;&gt;"",Tabla13[[#This Row],[original marlin]]&lt;110),Tabla13[[#This Row],[original marlin]],ROUND(Tabla13[[#This Row],[TermK Pot]],)))</f>
+        <v>404</v>
+      </c>
+      <c r="G6" t="str">
+        <f>IF(Tabla13[[#This Row],[adoptado]]="","","  { OV("&amp;REPT(" ",4 - LEN(Tabla13[[#This Row],[Valor]])) &amp; Tabla13[[#This Row],[Valor]]&amp;"), "&amp;REPT(" ",3 - LEN(Tabla13[[#This Row],[adoptado]])) &amp; Tabla13[[#This Row],[adoptado]]&amp;" }"&amp;IF(Tabla13[[#This Row],[Valor]]&lt;MAX(Tabla13[Valor]),",",))</f>
+        <v xml:space="preserve">  { OV(   5), 404 },</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>9</v>
       </c>
-      <c r="C7">
-        <v>320</v>
-      </c>
       <c r="D7">
-        <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
-        <v>319.20934718922013</v>
+        <f>-60*LN(Tabla13[[#This Row],[Valor]])+462.8</f>
+        <v>330.96652535982685</v>
+      </c>
+      <c r="E7">
+        <f>600.56*Tabla13[[#This Row],[Valor]]^(-0.247)</f>
+        <v>349.02658101283367</v>
       </c>
       <c r="F7">
-        <f>-53.47*LN(Tabla13[[#This Row],[Valor]])+442.58</f>
-        <v>325.09440184983231</v>
-      </c>
-      <c r="H7" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[termocupla Ian]]," },")</f>
-        <v>{ OV(  9), 320 },</v>
-      </c>
-      <c r="I7" t="str">
-        <f>IF(Tabla13[[#This Row],[adoptado]]="","",CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[adoptado]]," },"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <f>IF(Tabla13[[#This Row],[TermK]]&lt;&gt;"",Tabla13[[#This Row],[TermK]],IF(AND(Tabla13[[#This Row],[original marlin]]&lt;&gt;"",Tabla13[[#This Row],[original marlin]]&lt;110),Tabla13[[#This Row],[original marlin]],ROUND(Tabla13[[#This Row],[TermK Pot]],)))</f>
+        <v>349</v>
+      </c>
+      <c r="G7" t="str">
+        <f>IF(Tabla13[[#This Row],[adoptado]]="","","  { OV("&amp;REPT(" ",4 - LEN(Tabla13[[#This Row],[Valor]])) &amp; Tabla13[[#This Row],[Valor]]&amp;"), "&amp;REPT(" ",3 - LEN(Tabla13[[#This Row],[adoptado]])) &amp; Tabla13[[#This Row],[adoptado]]&amp;" }"&amp;IF(Tabla13[[#This Row],[Valor]]&lt;MAX(Tabla13[Valor]),",",))</f>
+        <v xml:space="preserve">  { OV(   9), 349 },</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>10</v>
       </c>
-      <c r="C8">
-        <v>314</v>
-      </c>
       <c r="D8">
-        <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
-        <v>313.6157574129461</v>
+        <f>-60*LN(Tabla13[[#This Row],[Valor]])+462.8</f>
+        <v>324.64489442035722</v>
+      </c>
+      <c r="E8">
+        <f>600.56*Tabla13[[#This Row],[Valor]]^(-0.247)</f>
+        <v>340.06066742481335</v>
       </c>
       <c r="F8">
-        <f>-53.47*LN(Tabla13[[#This Row],[Valor]])+442.58</f>
-        <v>319.46077507760833</v>
-      </c>
-      <c r="H8" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[termocupla Ian]]," },")</f>
-        <v>{ OV(  10), 314 },</v>
-      </c>
-      <c r="I8" t="str">
-        <f>IF(Tabla13[[#This Row],[adoptado]]="","",CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[adoptado]]," },"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <f>IF(Tabla13[[#This Row],[TermK]]&lt;&gt;"",Tabla13[[#This Row],[TermK]],IF(AND(Tabla13[[#This Row],[original marlin]]&lt;&gt;"",Tabla13[[#This Row],[original marlin]]&lt;110),Tabla13[[#This Row],[original marlin]],ROUND(Tabla13[[#This Row],[TermK Pot]],)))</f>
+        <v>340</v>
+      </c>
+      <c r="G8" t="str">
+        <f>IF(Tabla13[[#This Row],[adoptado]]="","","  { OV("&amp;REPT(" ",4 - LEN(Tabla13[[#This Row],[Valor]])) &amp; Tabla13[[#This Row],[Valor]]&amp;"), "&amp;REPT(" ",3 - LEN(Tabla13[[#This Row],[adoptado]])) &amp; Tabla13[[#This Row],[adoptado]]&amp;" }"&amp;IF(Tabla13[[#This Row],[Valor]]&lt;MAX(Tabla13[Valor]),",",))</f>
+        <v xml:space="preserve">  { OV(  10), 340 },</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>11</v>
       </c>
-      <c r="C9">
-        <v>309</v>
-      </c>
       <c r="D9">
-        <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
-        <v>308.55573996713451</v>
+        <f>-60*LN(Tabla13[[#This Row],[Valor]])+462.8</f>
+        <v>318.92628363209781</v>
+      </c>
+      <c r="E9">
+        <f>600.56*Tabla13[[#This Row],[Valor]]^(-0.247)</f>
+        <v>332.14858729342342</v>
       </c>
       <c r="F9">
-        <f>-53.47*LN(Tabla13[[#This Row],[Valor]])+442.58</f>
-        <v>314.3645397634711</v>
-      </c>
-      <c r="H9" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[termocupla Ian]]," },")</f>
-        <v>{ OV(  11), 309 },</v>
-      </c>
-      <c r="I9" t="str">
-        <f>IF(Tabla13[[#This Row],[adoptado]]="","",CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[adoptado]]," },"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <f>IF(Tabla13[[#This Row],[TermK]]&lt;&gt;"",Tabla13[[#This Row],[TermK]],IF(AND(Tabla13[[#This Row],[original marlin]]&lt;&gt;"",Tabla13[[#This Row],[original marlin]]&lt;110),Tabla13[[#This Row],[original marlin]],ROUND(Tabla13[[#This Row],[TermK Pot]],)))</f>
+        <v>332</v>
+      </c>
+      <c r="G9" t="str">
+        <f>IF(Tabla13[[#This Row],[adoptado]]="","","  { OV("&amp;REPT(" ",4 - LEN(Tabla13[[#This Row],[Valor]])) &amp; Tabla13[[#This Row],[Valor]]&amp;"), "&amp;REPT(" ",3 - LEN(Tabla13[[#This Row],[adoptado]])) &amp; Tabla13[[#This Row],[adoptado]]&amp;" }"&amp;IF(Tabla13[[#This Row],[Valor]]&lt;MAX(Tabla13[Valor]),",",))</f>
+        <v xml:space="preserve">  { OV(  11), 332 },</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>12</v>
       </c>
-      <c r="C10">
-        <v>304</v>
-      </c>
       <c r="D10">
-        <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
-        <v>303.93630596275506</v>
+        <f>-60*LN(Tabla13[[#This Row],[Valor]])+462.8</f>
+        <v>313.70560101271997</v>
+      </c>
+      <c r="E10">
+        <f>600.56*Tabla13[[#This Row],[Valor]]^(-0.247)</f>
+        <v>325.08627569165077</v>
       </c>
       <c r="F10">
-        <f>-53.47*LN(Tabla13[[#This Row],[Valor]])+442.58</f>
-        <v>309.7120414358356</v>
-      </c>
-      <c r="H10" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[termocupla Ian]]," },")</f>
-        <v>{ OV(  12), 304 },</v>
-      </c>
-      <c r="I10" t="str">
-        <f>IF(Tabla13[[#This Row],[adoptado]]="","",CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[adoptado]]," },"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+        <f>IF(Tabla13[[#This Row],[TermK]]&lt;&gt;"",Tabla13[[#This Row],[TermK]],IF(AND(Tabla13[[#This Row],[original marlin]]&lt;&gt;"",Tabla13[[#This Row],[original marlin]]&lt;110),Tabla13[[#This Row],[original marlin]],ROUND(Tabla13[[#This Row],[TermK Pot]],)))</f>
+        <v>325</v>
+      </c>
+      <c r="G10" t="str">
+        <f>IF(Tabla13[[#This Row],[adoptado]]="","","  { OV("&amp;REPT(" ",4 - LEN(Tabla13[[#This Row],[Valor]])) &amp; Tabla13[[#This Row],[Valor]]&amp;"), "&amp;REPT(" ",3 - LEN(Tabla13[[#This Row],[adoptado]])) &amp; Tabla13[[#This Row],[adoptado]]&amp;" }"&amp;IF(Tabla13[[#This Row],[Valor]]&lt;MAX(Tabla13[Valor]),",",))</f>
+        <v xml:space="preserve">  { OV(  12), 325 },</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>13</v>
       </c>
-      <c r="C11">
-        <v>300</v>
-      </c>
       <c r="D11">
-        <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
-        <v>299.68683861236701</v>
+        <f>-60*LN(Tabla13[[#This Row],[Valor]])+462.8</f>
+        <v>308.90303855230781</v>
+      </c>
+      <c r="E11">
+        <f>600.56*Tabla13[[#This Row],[Valor]]^(-0.247)</f>
+        <v>318.72225896007302</v>
       </c>
       <c r="F11">
-        <f>-53.47*LN(Tabla13[[#This Row],[Valor]])+442.58</f>
-        <v>305.4321578565316</v>
-      </c>
-      <c r="H11" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[termocupla Ian]]," },")</f>
-        <v>{ OV(  13), 300 },</v>
-      </c>
-      <c r="I11" t="str">
-        <f>IF(Tabla13[[#This Row],[adoptado]]="","",CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[adoptado]]," },"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+        <f>IF(Tabla13[[#This Row],[TermK]]&lt;&gt;"",Tabla13[[#This Row],[TermK]],IF(AND(Tabla13[[#This Row],[original marlin]]&lt;&gt;"",Tabla13[[#This Row],[original marlin]]&lt;110),Tabla13[[#This Row],[original marlin]],ROUND(Tabla13[[#This Row],[TermK Pot]],)))</f>
+        <v>319</v>
+      </c>
+      <c r="G11" t="str">
+        <f>IF(Tabla13[[#This Row],[adoptado]]="","","  { OV("&amp;REPT(" ",4 - LEN(Tabla13[[#This Row],[Valor]])) &amp; Tabla13[[#This Row],[Valor]]&amp;"), "&amp;REPT(" ",3 - LEN(Tabla13[[#This Row],[adoptado]])) &amp; Tabla13[[#This Row],[adoptado]]&amp;" }"&amp;IF(Tabla13[[#This Row],[Valor]]&lt;MAX(Tabla13[Valor]),",",))</f>
+        <v xml:space="preserve">  { OV(  13), 319 },</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>14</v>
       </c>
-      <c r="C12">
-        <v>296</v>
-      </c>
       <c r="D12">
-        <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
-        <v>295.75244637072592</v>
+        <f>-60*LN(Tabla13[[#This Row],[Valor]])+462.8</f>
+        <v>304.45656022308447</v>
+      </c>
+      <c r="E12">
+        <f>600.56*Tabla13[[#This Row],[Valor]]^(-0.247)</f>
+        <v>312.94122484200477</v>
       </c>
       <c r="F12">
-        <f>-53.47*LN(Tabla13[[#This Row],[Valor]])+442.58</f>
-        <v>301.4696045854721</v>
-      </c>
-      <c r="H12" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[termocupla Ian]]," },")</f>
-        <v>{ OV(  14), 296 },</v>
-      </c>
-      <c r="I12" t="str">
-        <f>IF(Tabla13[[#This Row],[adoptado]]="","",CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[adoptado]]," },"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+        <f>IF(Tabla13[[#This Row],[TermK]]&lt;&gt;"",Tabla13[[#This Row],[TermK]],IF(AND(Tabla13[[#This Row],[original marlin]]&lt;&gt;"",Tabla13[[#This Row],[original marlin]]&lt;110),Tabla13[[#This Row],[original marlin]],ROUND(Tabla13[[#This Row],[TermK Pot]],)))</f>
+        <v>313</v>
+      </c>
+      <c r="G12" t="str">
+        <f>IF(Tabla13[[#This Row],[adoptado]]="","","  { OV("&amp;REPT(" ",4 - LEN(Tabla13[[#This Row],[Valor]])) &amp; Tabla13[[#This Row],[Valor]]&amp;"), "&amp;REPT(" ",3 - LEN(Tabla13[[#This Row],[adoptado]])) &amp; Tabla13[[#This Row],[adoptado]]&amp;" }"&amp;IF(Tabla13[[#This Row],[Valor]]&lt;MAX(Tabla13[Valor]),",",))</f>
+        <v xml:space="preserve">  { OV(  14), 313 },</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>15</v>
       </c>
-      <c r="C13">
-        <v>292</v>
-      </c>
       <c r="D13">
-        <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
-        <v>292.08961482348366</v>
+        <f>-60*LN(Tabla13[[#This Row],[Valor]])+462.8</f>
+        <v>300.31698793386738</v>
+      </c>
+      <c r="E13">
+        <f>600.56*Tabla13[[#This Row],[Valor]]^(-0.247)</f>
+        <v>307.65350120182893</v>
       </c>
       <c r="F13">
-        <f>-53.47*LN(Tabla13[[#This Row],[Valor]])+442.58</f>
-        <v>297.7805557470648</v>
-      </c>
-      <c r="H13" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[termocupla Ian]]," },")</f>
-        <v>{ OV(  15), 292 },</v>
-      </c>
-      <c r="I13" t="str">
-        <f>IF(Tabla13[[#This Row],[adoptado]]="","",CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[adoptado]]," },"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+        <f>IF(Tabla13[[#This Row],[TermK]]&lt;&gt;"",Tabla13[[#This Row],[TermK]],IF(AND(Tabla13[[#This Row],[original marlin]]&lt;&gt;"",Tabla13[[#This Row],[original marlin]]&lt;110),Tabla13[[#This Row],[original marlin]],ROUND(Tabla13[[#This Row],[TermK Pot]],)))</f>
+        <v>308</v>
+      </c>
+      <c r="G13" t="str">
+        <f>IF(Tabla13[[#This Row],[adoptado]]="","","  { OV("&amp;REPT(" ",4 - LEN(Tabla13[[#This Row],[Valor]])) &amp; Tabla13[[#This Row],[Valor]]&amp;"), "&amp;REPT(" ",3 - LEN(Tabla13[[#This Row],[adoptado]])) &amp; Tabla13[[#This Row],[adoptado]]&amp;" }"&amp;IF(Tabla13[[#This Row],[Valor]]&lt;MAX(Tabla13[Valor]),",",))</f>
+        <v xml:space="preserve">  { OV(  15), 308 },</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>16</v>
       </c>
       <c r="C14">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="D14">
-        <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
-        <v>288.66326473628999</v>
+        <f>-60*LN(Tabla13[[#This Row],[Valor]])+462.8</f>
+        <v>296.44467666561314</v>
       </c>
       <c r="E14">
+        <f>600.56*Tabla13[[#This Row],[Valor]]^(-0.247)</f>
+        <v>302.78807515574897</v>
+      </c>
+      <c r="F14">
+        <f>IF(Tabla13[[#This Row],[TermK]]&lt;&gt;"",Tabla13[[#This Row],[TermK]],IF(AND(Tabla13[[#This Row],[original marlin]]&lt;&gt;"",Tabla13[[#This Row],[original marlin]]&lt;110),Tabla13[[#This Row],[original marlin]],ROUND(Tabla13[[#This Row],[TermK Pot]],)))</f>
         <v>301</v>
       </c>
-      <c r="F14">
-        <f>-53.47*LN(Tabla13[[#This Row],[Valor]])+442.58</f>
-        <v>294.32968102183889</v>
-      </c>
-      <c r="G14">
-        <v>301</v>
-      </c>
-      <c r="H14" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[termocupla Ian]]," },")</f>
-        <v>{ OV(  16), 289 },</v>
-      </c>
-      <c r="I14" t="str">
-        <f>IF(Tabla13[[#This Row],[adoptado]]="","",CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[adoptado]]," },"))</f>
-        <v>{ OV(  16), 301 },</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G14" t="str">
+        <f>IF(Tabla13[[#This Row],[adoptado]]="","","  { OV("&amp;REPT(" ",4 - LEN(Tabla13[[#This Row],[Valor]])) &amp; Tabla13[[#This Row],[Valor]]&amp;"), "&amp;REPT(" ",3 - LEN(Tabla13[[#This Row],[adoptado]])) &amp; Tabla13[[#This Row],[adoptado]]&amp;" }"&amp;IF(Tabla13[[#This Row],[Valor]]&lt;MAX(Tabla13[Valor]),",",))</f>
+        <v xml:space="preserve">  { OV(  16), 301 },</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>17</v>
       </c>
       <c r="C15">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="D15">
-        <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
-        <v>285.44470356405549</v>
+        <f>-60*LN(Tabla13[[#This Row],[Valor]])+462.8</f>
+        <v>292.80719935662705</v>
       </c>
       <c r="E15">
+        <f>600.56*Tabla13[[#This Row],[Valor]]^(-0.247)</f>
+        <v>298.28781939554642</v>
+      </c>
+      <c r="F15">
+        <f>IF(Tabla13[[#This Row],[TermK]]&lt;&gt;"",Tabla13[[#This Row],[TermK]],IF(AND(Tabla13[[#This Row],[original marlin]]&lt;&gt;"",Tabla13[[#This Row],[original marlin]]&lt;110),Tabla13[[#This Row],[original marlin]],ROUND(Tabla13[[#This Row],[TermK Pot]],)))</f>
         <v>296</v>
       </c>
-      <c r="F15">
-        <f>-53.47*LN(Tabla13[[#This Row],[Valor]])+442.58</f>
-        <v>291.08808249331412</v>
-      </c>
-      <c r="G15">
-        <v>296</v>
-      </c>
-      <c r="H15" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[termocupla Ian]]," },")</f>
-        <v>{ OV(  17), 285 },</v>
-      </c>
-      <c r="I15" t="str">
-        <f>IF(Tabla13[[#This Row],[adoptado]]="","",CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[adoptado]]," },"))</f>
-        <v>{ OV(  17), 296 },</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G15" t="str">
+        <f>IF(Tabla13[[#This Row],[adoptado]]="","","  { OV("&amp;REPT(" ",4 - LEN(Tabla13[[#This Row],[Valor]])) &amp; Tabla13[[#This Row],[Valor]]&amp;"), "&amp;REPT(" ",3 - LEN(Tabla13[[#This Row],[adoptado]])) &amp; Tabla13[[#This Row],[adoptado]]&amp;" }"&amp;IF(Tabla13[[#This Row],[Valor]]&lt;MAX(Tabla13[Valor]),",",))</f>
+        <v xml:space="preserve">  { OV(  17), 296 },</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>18</v>
       </c>
@@ -11632,32 +7648,26 @@
         <v>320</v>
       </c>
       <c r="C16">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="D16">
-        <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
-        <v>282.41016337329262</v>
+        <f>-60*LN(Tabla13[[#This Row],[Valor]])+462.8</f>
+        <v>289.37769452623013</v>
       </c>
       <c r="E16">
+        <f>600.56*Tabla13[[#This Row],[Valor]]^(-0.247)</f>
+        <v>294.1061419027892</v>
+      </c>
+      <c r="F16">
+        <f>IF(Tabla13[[#This Row],[TermK]]&lt;&gt;"",Tabla13[[#This Row],[TermK]],IF(AND(Tabla13[[#This Row],[original marlin]]&lt;&gt;"",Tabla13[[#This Row],[original marlin]]&lt;110),Tabla13[[#This Row],[original marlin]],ROUND(Tabla13[[#This Row],[TermK Pot]],)))</f>
         <v>293</v>
       </c>
-      <c r="F16">
-        <f>-53.47*LN(Tabla13[[#This Row],[Valor]])+442.58</f>
-        <v>288.03182210529206</v>
-      </c>
-      <c r="G16">
-        <v>293</v>
-      </c>
-      <c r="H16" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[termocupla Ian]]," },")</f>
-        <v>{ OV(  18), 282 },</v>
-      </c>
-      <c r="I16" t="str">
-        <f>IF(Tabla13[[#This Row],[adoptado]]="","",CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[adoptado]]," },"))</f>
-        <v>{ OV(  18), 293 },</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G16" t="str">
+        <f>IF(Tabla13[[#This Row],[adoptado]]="","","  { OV("&amp;REPT(" ",4 - LEN(Tabla13[[#This Row],[Valor]])) &amp; Tabla13[[#This Row],[Valor]]&amp;"), "&amp;REPT(" ",3 - LEN(Tabla13[[#This Row],[adoptado]])) &amp; Tabla13[[#This Row],[adoptado]]&amp;" }"&amp;IF(Tabla13[[#This Row],[Valor]]&lt;MAX(Tabla13[Valor]),",",))</f>
+        <v xml:space="preserve">  { OV(  18), 293 },</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>19</v>
       </c>
@@ -11665,32 +7675,26 @@
         <v>315</v>
       </c>
       <c r="C17">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="D17">
-        <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
-        <v>279.53973459605368</v>
+        <f>-60*LN(Tabla13[[#This Row],[Valor]])+462.8</f>
+        <v>286.13366125001357</v>
       </c>
       <c r="E17">
+        <f>600.56*Tabla13[[#This Row],[Valor]]^(-0.247)</f>
+        <v>290.20458083170524</v>
+      </c>
+      <c r="F17">
+        <f>IF(Tabla13[[#This Row],[TermK]]&lt;&gt;"",Tabla13[[#This Row],[TermK]],IF(AND(Tabla13[[#This Row],[original marlin]]&lt;&gt;"",Tabla13[[#This Row],[original marlin]]&lt;110),Tabla13[[#This Row],[original marlin]],ROUND(Tabla13[[#This Row],[TermK Pot]],)))</f>
         <v>290</v>
       </c>
-      <c r="F17">
-        <f>-53.47*LN(Tabla13[[#This Row],[Valor]])+442.58</f>
-        <v>285.14084778397046</v>
-      </c>
-      <c r="G17">
-        <v>290</v>
-      </c>
-      <c r="H17" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[termocupla Ian]]," },")</f>
-        <v>{ OV(  19), 280 },</v>
-      </c>
-      <c r="I17" t="str">
-        <f>IF(Tabla13[[#This Row],[adoptado]]="","",CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[adoptado]]," },"))</f>
-        <v>{ OV(  19), 290 },</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G17" t="str">
+        <f>IF(Tabla13[[#This Row],[adoptado]]="","","  { OV("&amp;REPT(" ",4 - LEN(Tabla13[[#This Row],[Valor]])) &amp; Tabla13[[#This Row],[Valor]]&amp;"), "&amp;REPT(" ",3 - LEN(Tabla13[[#This Row],[adoptado]])) &amp; Tabla13[[#This Row],[adoptado]]&amp;" }"&amp;IF(Tabla13[[#This Row],[Valor]]&lt;MAX(Tabla13[Valor]),",",))</f>
+        <v xml:space="preserve">  { OV(  19), 290 },</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>20</v>
       </c>
@@ -11698,32 +7702,26 @@
         <v>310</v>
       </c>
       <c r="C18">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="D18">
-        <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
-        <v>276.81657359701865</v>
+        <f>-60*LN(Tabla13[[#This Row],[Valor]])+462.8</f>
+        <v>283.05606358676056</v>
       </c>
       <c r="E18">
+        <f>600.56*Tabla13[[#This Row],[Valor]]^(-0.247)</f>
+        <v>286.55104324424468</v>
+      </c>
+      <c r="F18">
+        <f>IF(Tabla13[[#This Row],[TermK]]&lt;&gt;"",Tabla13[[#This Row],[TermK]],IF(AND(Tabla13[[#This Row],[original marlin]]&lt;&gt;"",Tabla13[[#This Row],[original marlin]]&lt;110),Tabla13[[#This Row],[original marlin]],ROUND(Tabla13[[#This Row],[TermK Pot]],)))</f>
         <v>286</v>
       </c>
-      <c r="F18">
-        <f>-53.47*LN(Tabla13[[#This Row],[Valor]])+442.58</f>
-        <v>282.39819533306809</v>
-      </c>
-      <c r="G18">
-        <v>286</v>
-      </c>
-      <c r="H18" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[termocupla Ian]]," },")</f>
-        <v>{ OV(  20), 277 },</v>
-      </c>
-      <c r="I18" t="str">
-        <f>IF(Tabla13[[#This Row],[adoptado]]="","",CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[adoptado]]," },"))</f>
-        <v>{ OV(  20), 286 },</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G18" t="str">
+        <f>IF(Tabla13[[#This Row],[adoptado]]="","","  { OV("&amp;REPT(" ",4 - LEN(Tabla13[[#This Row],[Valor]])) &amp; Tabla13[[#This Row],[Valor]]&amp;"), "&amp;REPT(" ",3 - LEN(Tabla13[[#This Row],[adoptado]])) &amp; Tabla13[[#This Row],[adoptado]]&amp;" }"&amp;IF(Tabla13[[#This Row],[Valor]]&lt;MAX(Tabla13[Valor]),",",))</f>
+        <v xml:space="preserve">  { OV(  20), 286 },</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>22</v>
       </c>
@@ -11731,32 +7729,26 @@
         <v>305</v>
       </c>
       <c r="C19">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="D19">
-        <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
-        <v>271.75655615120701</v>
+        <f>-60*LN(Tabla13[[#This Row],[Valor]])+462.8</f>
+        <v>277.33745279850103</v>
       </c>
       <c r="E19">
+        <f>600.56*Tabla13[[#This Row],[Valor]]^(-0.247)</f>
+        <v>279.88395400675404</v>
+      </c>
+      <c r="F19">
+        <f>IF(Tabla13[[#This Row],[TermK]]&lt;&gt;"",Tabla13[[#This Row],[TermK]],IF(AND(Tabla13[[#This Row],[original marlin]]&lt;&gt;"",Tabla13[[#This Row],[original marlin]]&lt;110),Tabla13[[#This Row],[original marlin]],ROUND(Tabla13[[#This Row],[TermK Pot]],)))</f>
         <v>280</v>
       </c>
-      <c r="F19">
-        <f>-53.47*LN(Tabla13[[#This Row],[Valor]])+442.58</f>
-        <v>277.3019600189308</v>
-      </c>
-      <c r="G19">
-        <v>280</v>
-      </c>
-      <c r="H19" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[termocupla Ian]]," },")</f>
-        <v>{ OV(  22), 272 },</v>
-      </c>
-      <c r="I19" t="str">
-        <f>IF(Tabla13[[#This Row],[adoptado]]="","",CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[adoptado]]," },"))</f>
-        <v>{ OV(  22), 280 },</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G19" t="str">
+        <f>IF(Tabla13[[#This Row],[adoptado]]="","","  { OV("&amp;REPT(" ",4 - LEN(Tabla13[[#This Row],[Valor]])) &amp; Tabla13[[#This Row],[Valor]]&amp;"), "&amp;REPT(" ",3 - LEN(Tabla13[[#This Row],[adoptado]])) &amp; Tabla13[[#This Row],[adoptado]]&amp;" }"&amp;IF(Tabla13[[#This Row],[Valor]]&lt;MAX(Tabla13[Valor]),",",))</f>
+        <v xml:space="preserve">  { OV(  22), 280 },</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>23</v>
       </c>
@@ -11764,32 +7756,26 @@
         <v>300</v>
       </c>
       <c r="C20">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="D20">
-        <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
-        <v>269.39661207632145</v>
+        <f>-60*LN(Tabla13[[#This Row],[Valor]])+462.8</f>
+        <v>274.670347044251</v>
       </c>
       <c r="E20">
+        <f>600.56*Tabla13[[#This Row],[Valor]]^(-0.247)</f>
+        <v>276.82775285728985</v>
+      </c>
+      <c r="F20">
+        <f>IF(Tabla13[[#This Row],[TermK]]&lt;&gt;"",Tabla13[[#This Row],[TermK]],IF(AND(Tabla13[[#This Row],[original marlin]]&lt;&gt;"",Tabla13[[#This Row],[original marlin]]&lt;110),Tabla13[[#This Row],[original marlin]],ROUND(Tabla13[[#This Row],[TermK Pot]],)))</f>
         <v>275</v>
       </c>
-      <c r="F20">
-        <f>-53.47*LN(Tabla13[[#This Row],[Valor]])+442.58</f>
-        <v>274.92512427426834</v>
-      </c>
-      <c r="G20">
-        <v>275</v>
-      </c>
-      <c r="H20" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[termocupla Ian]]," },")</f>
-        <v>{ OV(  23), 269 },</v>
-      </c>
-      <c r="I20" t="str">
-        <f>IF(Tabla13[[#This Row],[adoptado]]="","",CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[adoptado]]," },"))</f>
-        <v>{ OV(  23), 275 },</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G20" t="str">
+        <f>IF(Tabla13[[#This Row],[adoptado]]="","","  { OV("&amp;REPT(" ",4 - LEN(Tabla13[[#This Row],[Valor]])) &amp; Tabla13[[#This Row],[Valor]]&amp;"), "&amp;REPT(" ",3 - LEN(Tabla13[[#This Row],[adoptado]])) &amp; Tabla13[[#This Row],[adoptado]]&amp;" }"&amp;IF(Tabla13[[#This Row],[Valor]]&lt;MAX(Tabla13[Valor]),",",))</f>
+        <v xml:space="preserve">  { OV(  23), 275 },</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>25</v>
       </c>
@@ -11797,32 +7783,26 @@
         <v>295</v>
       </c>
       <c r="C21">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="D21">
-        <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
-        <v>264.96988245774725</v>
+        <f>-60*LN(Tabla13[[#This Row],[Valor]])+462.8</f>
+        <v>269.66745050790797</v>
       </c>
       <c r="E21">
+        <f>600.56*Tabla13[[#This Row],[Valor]]^(-0.247)</f>
+        <v>271.18472331556728</v>
+      </c>
+      <c r="F21">
+        <f>IF(Tabla13[[#This Row],[TermK]]&lt;&gt;"",Tabla13[[#This Row],[TermK]],IF(AND(Tabla13[[#This Row],[original marlin]]&lt;&gt;"",Tabla13[[#This Row],[original marlin]]&lt;110),Tabla13[[#This Row],[original marlin]],ROUND(Tabla13[[#This Row],[TermK Pot]],)))</f>
         <v>270</v>
       </c>
-      <c r="F21">
-        <f>-53.47*LN(Tabla13[[#This Row],[Valor]])+442.58</f>
-        <v>270.46670964429734</v>
-      </c>
-      <c r="G21">
-        <v>270</v>
-      </c>
-      <c r="H21" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[termocupla Ian]]," },")</f>
-        <v>{ OV(  25), 265 },</v>
-      </c>
-      <c r="I21" t="str">
-        <f>IF(Tabla13[[#This Row],[adoptado]]="","",CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[adoptado]]," },"))</f>
-        <v>{ OV(  25), 270 },</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G21" t="str">
+        <f>IF(Tabla13[[#This Row],[adoptado]]="","","  { OV("&amp;REPT(" ",4 - LEN(Tabla13[[#This Row],[Valor]])) &amp; Tabla13[[#This Row],[Valor]]&amp;"), "&amp;REPT(" ",3 - LEN(Tabla13[[#This Row],[adoptado]])) &amp; Tabla13[[#This Row],[adoptado]]&amp;" }"&amp;IF(Tabla13[[#This Row],[Valor]]&lt;MAX(Tabla13[Valor]),",",))</f>
+        <v xml:space="preserve">  { OV(  25), 270 },</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>27</v>
       </c>
@@ -11830,32 +7810,26 @@
         <v>290</v>
       </c>
       <c r="C22">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="D22">
-        <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
-        <v>260.88402078383018</v>
+        <f>-60*LN(Tabla13[[#This Row],[Valor]])+462.8</f>
+        <v>265.04978803974029</v>
       </c>
       <c r="E22">
+        <f>600.56*Tabla13[[#This Row],[Valor]]^(-0.247)</f>
+        <v>266.07835880155284</v>
+      </c>
+      <c r="F22">
+        <f>IF(Tabla13[[#This Row],[TermK]]&lt;&gt;"",Tabla13[[#This Row],[TermK]],IF(AND(Tabla13[[#This Row],[original marlin]]&lt;&gt;"",Tabla13[[#This Row],[original marlin]]&lt;110),Tabla13[[#This Row],[original marlin]],ROUND(Tabla13[[#This Row],[TermK Pot]],)))</f>
         <v>267</v>
       </c>
-      <c r="F22">
-        <f>-53.47*LN(Tabla13[[#This Row],[Valor]])+442.58</f>
-        <v>266.35160277474847</v>
-      </c>
-      <c r="G22">
-        <v>267</v>
-      </c>
-      <c r="H22" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[termocupla Ian]]," },")</f>
-        <v>{ OV(  27), 263 },</v>
-      </c>
-      <c r="I22" t="str">
-        <f>IF(Tabla13[[#This Row],[adoptado]]="","",CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[adoptado]]," },"))</f>
-        <v>{ OV(  27), 267 },</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G22" t="str">
+        <f>IF(Tabla13[[#This Row],[adoptado]]="","","  { OV("&amp;REPT(" ",4 - LEN(Tabla13[[#This Row],[Valor]])) &amp; Tabla13[[#This Row],[Valor]]&amp;"), "&amp;REPT(" ",3 - LEN(Tabla13[[#This Row],[adoptado]])) &amp; Tabla13[[#This Row],[adoptado]]&amp;" }"&amp;IF(Tabla13[[#This Row],[Valor]]&lt;MAX(Tabla13[Valor]),",",))</f>
+        <v xml:space="preserve">  { OV(  27), 267 },</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>28</v>
       </c>
@@ -11863,32 +7837,26 @@
         <v>285</v>
       </c>
       <c r="C23">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="D23">
-        <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
-        <v>258.95326255479847</v>
+        <f>-60*LN(Tabla13[[#This Row],[Valor]])+462.8</f>
+        <v>262.86772938948775</v>
       </c>
       <c r="E23">
+        <f>600.56*Tabla13[[#This Row],[Valor]]^(-0.247)</f>
+        <v>263.69893093394825</v>
+      </c>
+      <c r="F23">
+        <f>IF(Tabla13[[#This Row],[TermK]]&lt;&gt;"",Tabla13[[#This Row],[TermK]],IF(AND(Tabla13[[#This Row],[original marlin]]&lt;&gt;"",Tabla13[[#This Row],[original marlin]]&lt;110),Tabla13[[#This Row],[original marlin]],ROUND(Tabla13[[#This Row],[TermK Pot]],)))</f>
         <v>264</v>
       </c>
-      <c r="F23">
-        <f>-53.47*LN(Tabla13[[#This Row],[Valor]])+442.58</f>
-        <v>264.40702484093185</v>
-      </c>
-      <c r="G23">
-        <v>264</v>
-      </c>
-      <c r="H23" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[termocupla Ian]]," },")</f>
-        <v>{ OV(  28), 260 },</v>
-      </c>
-      <c r="I23" t="str">
-        <f>IF(Tabla13[[#This Row],[adoptado]]="","",CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[adoptado]]," },"))</f>
-        <v>{ OV(  28), 264 },</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G23" t="str">
+        <f>IF(Tabla13[[#This Row],[adoptado]]="","","  { OV("&amp;REPT(" ",4 - LEN(Tabla13[[#This Row],[Valor]])) &amp; Tabla13[[#This Row],[Valor]]&amp;"), "&amp;REPT(" ",3 - LEN(Tabla13[[#This Row],[adoptado]])) &amp; Tabla13[[#This Row],[adoptado]]&amp;" }"&amp;IF(Tabla13[[#This Row],[Valor]]&lt;MAX(Tabla13[Valor]),",",))</f>
+        <v xml:space="preserve">  { OV(  28), 264 },</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>31</v>
       </c>
@@ -11896,32 +7864,26 @@
         <v>280</v>
       </c>
       <c r="C24">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="D24">
-        <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
-        <v>253.5496193138836</v>
+        <f>-60*LN(Tabla13[[#This Row],[Valor]])+462.8</f>
+        <v>256.76076773089125</v>
       </c>
       <c r="E24">
+        <f>600.56*Tabla13[[#This Row],[Valor]]^(-0.247)</f>
+        <v>257.15209360450251</v>
+      </c>
+      <c r="F24">
+        <f>IF(Tabla13[[#This Row],[TermK]]&lt;&gt;"",Tabla13[[#This Row],[TermK]],IF(AND(Tabla13[[#This Row],[original marlin]]&lt;&gt;"",Tabla13[[#This Row],[original marlin]]&lt;110),Tabla13[[#This Row],[original marlin]],ROUND(Tabla13[[#This Row],[TermK Pot]],)))</f>
         <v>259</v>
       </c>
-      <c r="F24">
-        <f>-53.47*LN(Tabla13[[#This Row],[Valor]])+442.58</f>
-        <v>258.96470417617923</v>
-      </c>
-      <c r="G24">
-        <v>259</v>
-      </c>
-      <c r="H24" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[termocupla Ian]]," },")</f>
-        <v>{ OV(  31), 255 },</v>
-      </c>
-      <c r="I24" t="str">
-        <f>IF(Tabla13[[#This Row],[adoptado]]="","",CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[adoptado]]," },"))</f>
-        <v>{ OV(  31), 259 },</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G24" t="str">
+        <f>IF(Tabla13[[#This Row],[adoptado]]="","","  { OV("&amp;REPT(" ",4 - LEN(Tabla13[[#This Row],[Valor]])) &amp; Tabla13[[#This Row],[Valor]]&amp;"), "&amp;REPT(" ",3 - LEN(Tabla13[[#This Row],[adoptado]])) &amp; Tabla13[[#This Row],[adoptado]]&amp;" }"&amp;IF(Tabla13[[#This Row],[Valor]]&lt;MAX(Tabla13[Valor]),",",))</f>
+        <v xml:space="preserve">  { OV(  31), 259 },</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>33</v>
       </c>
@@ -11929,32 +7891,26 @@
         <v>275</v>
       </c>
       <c r="C25">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="D25">
-        <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
-        <v>250.23041356174457</v>
+        <f>-60*LN(Tabla13[[#This Row],[Valor]])+462.8</f>
+        <v>253.0095463120112</v>
       </c>
       <c r="E25">
+        <f>600.56*Tabla13[[#This Row],[Valor]]^(-0.247)</f>
+        <v>253.21151967516991</v>
+      </c>
+      <c r="F25">
+        <f>IF(Tabla13[[#This Row],[TermK]]&lt;&gt;"",Tabla13[[#This Row],[TermK]],IF(AND(Tabla13[[#This Row],[original marlin]]&lt;&gt;"",Tabla13[[#This Row],[original marlin]]&lt;110),Tabla13[[#This Row],[original marlin]],ROUND(Tabla13[[#This Row],[TermK Pot]],)))</f>
         <v>254</v>
       </c>
-      <c r="F25">
-        <f>-53.47*LN(Tabla13[[#This Row],[Valor]])+442.58</f>
-        <v>255.62174068838729</v>
-      </c>
-      <c r="G25">
-        <v>254</v>
-      </c>
-      <c r="H25" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[termocupla Ian]]," },")</f>
-        <v>{ OV(  33), 250 },</v>
-      </c>
-      <c r="I25" t="str">
-        <f>IF(Tabla13[[#This Row],[adoptado]]="","",CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[adoptado]]," },"))</f>
-        <v>{ OV(  33), 254 },</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G25" t="str">
+        <f>IF(Tabla13[[#This Row],[adoptado]]="","","  { OV("&amp;REPT(" ",4 - LEN(Tabla13[[#This Row],[Valor]])) &amp; Tabla13[[#This Row],[Valor]]&amp;"), "&amp;REPT(" ",3 - LEN(Tabla13[[#This Row],[adoptado]])) &amp; Tabla13[[#This Row],[adoptado]]&amp;" }"&amp;IF(Tabla13[[#This Row],[Valor]]&lt;MAX(Tabla13[Valor]),",",))</f>
+        <v xml:space="preserve">  { OV(  33), 254 },</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>35</v>
       </c>
@@ -11962,32 +7918,26 @@
         <v>270</v>
       </c>
       <c r="C26">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D26">
-        <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
-        <v>247.10657141552704</v>
+        <f>-60*LN(Tabla13[[#This Row],[Valor]])+462.8</f>
+        <v>249.47911631063519</v>
       </c>
       <c r="E26">
+        <f>600.56*Tabla13[[#This Row],[Valor]]^(-0.247)</f>
+        <v>249.55805714160471</v>
+      </c>
+      <c r="F26">
+        <f>IF(Tabla13[[#This Row],[TermK]]&lt;&gt;"",Tabla13[[#This Row],[TermK]],IF(AND(Tabla13[[#This Row],[original marlin]]&lt;&gt;"",Tabla13[[#This Row],[original marlin]]&lt;110),Tabla13[[#This Row],[original marlin]],ROUND(Tabla13[[#This Row],[TermK Pot]],)))</f>
         <v>250</v>
       </c>
-      <c r="F26">
-        <f>-53.47*LN(Tabla13[[#This Row],[Valor]])+442.58</f>
-        <v>252.47553915216105</v>
-      </c>
-      <c r="G26">
-        <v>250</v>
-      </c>
-      <c r="H26" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[termocupla Ian]]," },")</f>
-        <v>{ OV(  35), 248 },</v>
-      </c>
-      <c r="I26" t="str">
-        <f>IF(Tabla13[[#This Row],[adoptado]]="","",CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[adoptado]]," },"))</f>
-        <v>{ OV(  35), 250 },</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G26" t="str">
+        <f>IF(Tabla13[[#This Row],[adoptado]]="","","  { OV("&amp;REPT(" ",4 - LEN(Tabla13[[#This Row],[Valor]])) &amp; Tabla13[[#This Row],[Valor]]&amp;"), "&amp;REPT(" ",3 - LEN(Tabla13[[#This Row],[adoptado]])) &amp; Tabla13[[#This Row],[adoptado]]&amp;" }"&amp;IF(Tabla13[[#This Row],[Valor]]&lt;MAX(Tabla13[Valor]),",",))</f>
+        <v xml:space="preserve">  { OV(  35), 250 },</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>38</v>
       </c>
@@ -11995,32 +7945,26 @@
         <v>265</v>
       </c>
       <c r="C27">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="D27">
-        <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
-        <v>242.7405507801262</v>
+        <f>-60*LN(Tabla13[[#This Row],[Valor]])+462.8</f>
+        <v>244.54483041641686</v>
       </c>
       <c r="E27">
+        <f>600.56*Tabla13[[#This Row],[Valor]]^(-0.247)</f>
+        <v>244.53996994512755</v>
+      </c>
+      <c r="F27">
+        <f>IF(Tabla13[[#This Row],[TermK]]&lt;&gt;"",Tabla13[[#This Row],[TermK]],IF(AND(Tabla13[[#This Row],[original marlin]]&lt;&gt;"",Tabla13[[#This Row],[original marlin]]&lt;110),Tabla13[[#This Row],[original marlin]],ROUND(Tabla13[[#This Row],[TermK Pot]],)))</f>
         <v>246</v>
       </c>
-      <c r="F27">
-        <f>-53.47*LN(Tabla13[[#This Row],[Valor]])+442.58</f>
-        <v>248.07826803943016</v>
-      </c>
-      <c r="G27">
-        <v>246</v>
-      </c>
-      <c r="H27" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[termocupla Ian]]," },")</f>
-        <v>{ OV(  38), 243 },</v>
-      </c>
-      <c r="I27" t="str">
-        <f>IF(Tabla13[[#This Row],[adoptado]]="","",CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[adoptado]]," },"))</f>
-        <v>{ OV(  38), 246 },</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G27" t="str">
+        <f>IF(Tabla13[[#This Row],[adoptado]]="","","  { OV("&amp;REPT(" ",4 - LEN(Tabla13[[#This Row],[Valor]])) &amp; Tabla13[[#This Row],[Valor]]&amp;"), "&amp;REPT(" ",3 - LEN(Tabla13[[#This Row],[adoptado]])) &amp; Tabla13[[#This Row],[adoptado]]&amp;" }"&amp;IF(Tabla13[[#This Row],[Valor]]&lt;MAX(Tabla13[Valor]),",",))</f>
+        <v xml:space="preserve">  { OV(  38), 246 },</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>41</v>
       </c>
@@ -12028,32 +7972,26 @@
         <v>260</v>
       </c>
       <c r="C28">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="D28">
-        <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
-        <v>238.70645897866828</v>
+        <f>-60*LN(Tabla13[[#This Row],[Valor]])+462.8</f>
+        <v>239.98567599774154</v>
       </c>
       <c r="E28">
+        <f>600.56*Tabla13[[#This Row],[Valor]]^(-0.247)</f>
+        <v>239.9931191658691</v>
+      </c>
+      <c r="F28">
+        <f>IF(Tabla13[[#This Row],[TermK]]&lt;&gt;"",Tabla13[[#This Row],[TermK]],IF(AND(Tabla13[[#This Row],[original marlin]]&lt;&gt;"",Tabla13[[#This Row],[original marlin]]&lt;110),Tabla13[[#This Row],[original marlin]],ROUND(Tabla13[[#This Row],[TermK Pot]],)))</f>
         <v>242</v>
       </c>
-      <c r="F28">
-        <f>-53.47*LN(Tabla13[[#This Row],[Valor]])+442.58</f>
-        <v>244.01530159332063</v>
-      </c>
-      <c r="G28">
-        <v>242</v>
-      </c>
-      <c r="H28" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[termocupla Ian]]," },")</f>
-        <v>{ OV(  41), 239 },</v>
-      </c>
-      <c r="I28" t="str">
-        <f>IF(Tabla13[[#This Row],[adoptado]]="","",CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[adoptado]]," },"))</f>
-        <v>{ OV(  41), 242 },</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G28" t="str">
+        <f>IF(Tabla13[[#This Row],[adoptado]]="","","  { OV("&amp;REPT(" ",4 - LEN(Tabla13[[#This Row],[Valor]])) &amp; Tabla13[[#This Row],[Valor]]&amp;"), "&amp;REPT(" ",3 - LEN(Tabla13[[#This Row],[adoptado]])) &amp; Tabla13[[#This Row],[adoptado]]&amp;" }"&amp;IF(Tabla13[[#This Row],[Valor]]&lt;MAX(Tabla13[Valor]),",",))</f>
+        <v xml:space="preserve">  { OV(  41), 242 },</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>44</v>
       </c>
@@ -12061,32 +7999,26 @@
         <v>255</v>
       </c>
       <c r="C29">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D29">
-        <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
-        <v>234.95737233527953</v>
+        <f>-60*LN(Tabla13[[#This Row],[Valor]])+462.8</f>
+        <v>235.74862196490434</v>
       </c>
       <c r="E29">
+        <f>600.56*Tabla13[[#This Row],[Valor]]^(-0.247)</f>
+        <v>235.84332647259725</v>
+      </c>
+      <c r="F29">
+        <f>IF(Tabla13[[#This Row],[TermK]]&lt;&gt;"",Tabla13[[#This Row],[TermK]],IF(AND(Tabla13[[#This Row],[original marlin]]&lt;&gt;"",Tabla13[[#This Row],[original marlin]]&lt;110),Tabla13[[#This Row],[original marlin]],ROUND(Tabla13[[#This Row],[TermK Pot]],)))</f>
         <v>237</v>
       </c>
-      <c r="F29">
-        <f>-53.47*LN(Tabla13[[#This Row],[Valor]])+442.58</f>
-        <v>240.23938027439058</v>
-      </c>
-      <c r="G29">
-        <v>237</v>
-      </c>
-      <c r="H29" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[termocupla Ian]]," },")</f>
-        <v>{ OV(  44), 235 },</v>
-      </c>
-      <c r="I29" t="str">
-        <f>IF(Tabla13[[#This Row],[adoptado]]="","",CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[adoptado]]," },"))</f>
-        <v>{ OV(  44), 237 },</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G29" t="str">
+        <f>IF(Tabla13[[#This Row],[adoptado]]="","","  { OV("&amp;REPT(" ",4 - LEN(Tabla13[[#This Row],[Valor]])) &amp; Tabla13[[#This Row],[Valor]]&amp;"), "&amp;REPT(" ",3 - LEN(Tabla13[[#This Row],[adoptado]])) &amp; Tabla13[[#This Row],[adoptado]]&amp;" }"&amp;IF(Tabla13[[#This Row],[Valor]]&lt;MAX(Tabla13[Valor]),",",))</f>
+        <v xml:space="preserve">  { OV(  44), 237 },</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>48</v>
       </c>
@@ -12094,32 +8026,26 @@
         <v>250</v>
       </c>
       <c r="C30">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D30">
-        <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
-        <v>230.33793833090007</v>
+        <f>-60*LN(Tabla13[[#This Row],[Valor]])+462.8</f>
+        <v>230.52793934552653</v>
       </c>
       <c r="E30">
+        <f>600.56*Tabla13[[#This Row],[Valor]]^(-0.247)</f>
+        <v>230.82870613559524</v>
+      </c>
+      <c r="F30">
+        <f>IF(Tabla13[[#This Row],[TermK]]&lt;&gt;"",Tabla13[[#This Row],[TermK]],IF(AND(Tabla13[[#This Row],[original marlin]]&lt;&gt;"",Tabla13[[#This Row],[original marlin]]&lt;110),Tabla13[[#This Row],[original marlin]],ROUND(Tabla13[[#This Row],[TermK Pot]],)))</f>
         <v>233</v>
       </c>
-      <c r="F30">
-        <f>-53.47*LN(Tabla13[[#This Row],[Valor]])+442.58</f>
-        <v>235.58688194675506</v>
-      </c>
-      <c r="G30">
-        <v>233</v>
-      </c>
-      <c r="H30" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[termocupla Ian]]," },")</f>
-        <v>{ OV(  48), 230 },</v>
-      </c>
-      <c r="I30" t="str">
-        <f>IF(Tabla13[[#This Row],[adoptado]]="","",CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[adoptado]]," },"))</f>
-        <v>{ OV(  48), 233 },</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G30" t="str">
+        <f>IF(Tabla13[[#This Row],[adoptado]]="","","  { OV("&amp;REPT(" ",4 - LEN(Tabla13[[#This Row],[Valor]])) &amp; Tabla13[[#This Row],[Valor]]&amp;"), "&amp;REPT(" ",3 - LEN(Tabla13[[#This Row],[adoptado]])) &amp; Tabla13[[#This Row],[adoptado]]&amp;" }"&amp;IF(Tabla13[[#This Row],[Valor]]&lt;MAX(Tabla13[Valor]),",",))</f>
+        <v xml:space="preserve">  { OV(  48), 233 },</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>52</v>
       </c>
@@ -12127,32 +8053,26 @@
         <v>245</v>
       </c>
       <c r="C31">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D31">
-        <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
-        <v>226.088470980512</v>
+        <f>-60*LN(Tabla13[[#This Row],[Valor]])+462.8</f>
+        <v>225.72537688511437</v>
       </c>
       <c r="E31">
+        <f>600.56*Tabla13[[#This Row],[Valor]]^(-0.247)</f>
+        <v>226.30991264039173</v>
+      </c>
+      <c r="F31">
+        <f>IF(Tabla13[[#This Row],[TermK]]&lt;&gt;"",Tabla13[[#This Row],[TermK]],IF(AND(Tabla13[[#This Row],[original marlin]]&lt;&gt;"",Tabla13[[#This Row],[original marlin]]&lt;110),Tabla13[[#This Row],[original marlin]],ROUND(Tabla13[[#This Row],[TermK Pot]],)))</f>
         <v>228</v>
       </c>
-      <c r="F31">
-        <f>-53.47*LN(Tabla13[[#This Row],[Valor]])+442.58</f>
-        <v>231.30699836745106</v>
-      </c>
-      <c r="G31">
-        <v>228</v>
-      </c>
-      <c r="H31" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[termocupla Ian]]," },")</f>
-        <v>{ OV(  52), 225 },</v>
-      </c>
-      <c r="I31" t="str">
-        <f>IF(Tabla13[[#This Row],[adoptado]]="","",CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[adoptado]]," },"))</f>
-        <v>{ OV(  52), 228 },</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G31" t="str">
+        <f>IF(Tabla13[[#This Row],[adoptado]]="","","  { OV("&amp;REPT(" ",4 - LEN(Tabla13[[#This Row],[Valor]])) &amp; Tabla13[[#This Row],[Valor]]&amp;"), "&amp;REPT(" ",3 - LEN(Tabla13[[#This Row],[adoptado]])) &amp; Tabla13[[#This Row],[adoptado]]&amp;" }"&amp;IF(Tabla13[[#This Row],[Valor]]&lt;MAX(Tabla13[Valor]),",",))</f>
+        <v xml:space="preserve">  { OV(  52), 228 },</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>56</v>
       </c>
@@ -12160,32 +8080,26 @@
         <v>240</v>
       </c>
       <c r="C32">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="D32">
-        <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
-        <v>222.15407873887091</v>
+        <f>-60*LN(Tabla13[[#This Row],[Valor]])+462.8</f>
+        <v>221.27889855589103</v>
       </c>
       <c r="E32">
+        <f>600.56*Tabla13[[#This Row],[Valor]]^(-0.247)</f>
+        <v>222.20506809486201</v>
+      </c>
+      <c r="F32">
+        <f>IF(Tabla13[[#This Row],[TermK]]&lt;&gt;"",Tabla13[[#This Row],[TermK]],IF(AND(Tabla13[[#This Row],[original marlin]]&lt;&gt;"",Tabla13[[#This Row],[original marlin]]&lt;110),Tabla13[[#This Row],[original marlin]],ROUND(Tabla13[[#This Row],[TermK Pot]],)))</f>
         <v>224</v>
       </c>
-      <c r="F32">
-        <f>-53.47*LN(Tabla13[[#This Row],[Valor]])+442.58</f>
-        <v>227.34444509639152</v>
-      </c>
-      <c r="G32">
-        <v>224</v>
-      </c>
-      <c r="H32" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[termocupla Ian]]," },")</f>
-        <v>{ OV(  56), 220 },</v>
-      </c>
-      <c r="I32" t="str">
-        <f>IF(Tabla13[[#This Row],[adoptado]]="","",CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[adoptado]]," },"))</f>
-        <v>{ OV(  56), 224 },</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G32" t="str">
+        <f>IF(Tabla13[[#This Row],[adoptado]]="","","  { OV("&amp;REPT(" ",4 - LEN(Tabla13[[#This Row],[Valor]])) &amp; Tabla13[[#This Row],[Valor]]&amp;"), "&amp;REPT(" ",3 - LEN(Tabla13[[#This Row],[adoptado]])) &amp; Tabla13[[#This Row],[adoptado]]&amp;" }"&amp;IF(Tabla13[[#This Row],[Valor]]&lt;MAX(Tabla13[Valor]),",",))</f>
+        <v xml:space="preserve">  { OV(  56), 224 },</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>61</v>
       </c>
@@ -12193,32 +8107,26 @@
         <v>235</v>
       </c>
       <c r="C33">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D33">
-        <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
-        <v>217.61370655103889</v>
+        <f>-60*LN(Tabla13[[#This Row],[Valor]])+462.8</f>
+        <v>216.14756814960134</v>
       </c>
       <c r="E33">
+        <f>600.56*Tabla13[[#This Row],[Valor]]^(-0.247)</f>
+        <v>217.56044257387711</v>
+      </c>
+      <c r="F33">
+        <f>IF(Tabla13[[#This Row],[TermK]]&lt;&gt;"",Tabla13[[#This Row],[TermK]],IF(AND(Tabla13[[#This Row],[original marlin]]&lt;&gt;"",Tabla13[[#This Row],[original marlin]]&lt;110),Tabla13[[#This Row],[original marlin]],ROUND(Tabla13[[#This Row],[TermK Pot]],)))</f>
         <v>219</v>
       </c>
-      <c r="F33">
-        <f>-53.47*LN(Tabla13[[#This Row],[Valor]])+442.58</f>
-        <v>222.77157448265302</v>
-      </c>
-      <c r="G33">
-        <v>219</v>
-      </c>
-      <c r="H33" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[termocupla Ian]]," },")</f>
-        <v>{ OV(  61), 217 },</v>
-      </c>
-      <c r="I33" t="str">
-        <f>IF(Tabla13[[#This Row],[adoptado]]="","",CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[adoptado]]," },"))</f>
-        <v>{ OV(  61), 219 },</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G33" t="str">
+        <f>IF(Tabla13[[#This Row],[adoptado]]="","","  { OV("&amp;REPT(" ",4 - LEN(Tabla13[[#This Row],[Valor]])) &amp; Tabla13[[#This Row],[Valor]]&amp;"), "&amp;REPT(" ",3 - LEN(Tabla13[[#This Row],[adoptado]])) &amp; Tabla13[[#This Row],[adoptado]]&amp;" }"&amp;IF(Tabla13[[#This Row],[Valor]]&lt;MAX(Tabla13[Valor]),",",))</f>
+        <v xml:space="preserve">  { OV(  61), 219 },</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>66</v>
       </c>
@@ -12226,32 +8134,26 @@
         <v>230</v>
       </c>
       <c r="C34">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D34">
-        <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
-        <v>213.43122974581709</v>
+        <f>-60*LN(Tabla13[[#This Row],[Valor]])+462.8</f>
+        <v>211.42071547841451</v>
       </c>
       <c r="E34">
+        <f>600.56*Tabla13[[#This Row],[Valor]]^(-0.247)</f>
+        <v>213.36788424795688</v>
+      </c>
+      <c r="F34">
+        <f>IF(Tabla13[[#This Row],[TermK]]&lt;&gt;"",Tabla13[[#This Row],[TermK]],IF(AND(Tabla13[[#This Row],[original marlin]]&lt;&gt;"",Tabla13[[#This Row],[original marlin]]&lt;110),Tabla13[[#This Row],[original marlin]],ROUND(Tabla13[[#This Row],[TermK Pot]],)))</f>
         <v>215</v>
       </c>
-      <c r="F34">
-        <f>-53.47*LN(Tabla13[[#This Row],[Valor]])+442.58</f>
-        <v>218.55916094384705</v>
-      </c>
-      <c r="G34">
-        <v>215</v>
-      </c>
-      <c r="H34" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[termocupla Ian]]," },")</f>
-        <v>{ OV(  66), 213 },</v>
-      </c>
-      <c r="I34" t="str">
-        <f>IF(Tabla13[[#This Row],[adoptado]]="","",CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[adoptado]]," },"))</f>
-        <v>{ OV(  66), 215 },</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G34" t="str">
+        <f>IF(Tabla13[[#This Row],[adoptado]]="","","  { OV("&amp;REPT(" ",4 - LEN(Tabla13[[#This Row],[Valor]])) &amp; Tabla13[[#This Row],[Valor]]&amp;"), "&amp;REPT(" ",3 - LEN(Tabla13[[#This Row],[adoptado]])) &amp; Tabla13[[#This Row],[adoptado]]&amp;" }"&amp;IF(Tabla13[[#This Row],[Valor]]&lt;MAX(Tabla13[Valor]),",",))</f>
+        <v xml:space="preserve">  { OV(  66), 215 },</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>71</v>
       </c>
@@ -12259,32 +8161,26 @@
         <v>225</v>
       </c>
       <c r="C35">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D35">
-        <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
-        <v>209.55432532787657</v>
+        <f>-60*LN(Tabla13[[#This Row],[Valor]])+462.8</f>
+        <v>207.03920737752108</v>
       </c>
       <c r="E35">
+        <f>600.56*Tabla13[[#This Row],[Valor]]^(-0.247)</f>
+        <v>209.55382416826191</v>
+      </c>
+      <c r="F35">
+        <f>IF(Tabla13[[#This Row],[TermK]]&lt;&gt;"",Tabla13[[#This Row],[TermK]],IF(AND(Tabla13[[#This Row],[original marlin]]&lt;&gt;"",Tabla13[[#This Row],[original marlin]]&lt;110),Tabla13[[#This Row],[original marlin]],ROUND(Tabla13[[#This Row],[TermK Pot]],)))</f>
         <v>211</v>
       </c>
-      <c r="F35">
-        <f>-53.47*LN(Tabla13[[#This Row],[Valor]])+442.58</f>
-        <v>214.65450697460085</v>
-      </c>
-      <c r="G35">
-        <v>211</v>
-      </c>
-      <c r="H35" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[termocupla Ian]]," },")</f>
-        <v>{ OV(  71), 209 },</v>
-      </c>
-      <c r="I35" t="str">
-        <f>IF(Tabla13[[#This Row],[adoptado]]="","",CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[adoptado]]," },"))</f>
-        <v>{ OV(  71), 211 },</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G35" t="str">
+        <f>IF(Tabla13[[#This Row],[adoptado]]="","","  { OV("&amp;REPT(" ",4 - LEN(Tabla13[[#This Row],[Valor]])) &amp; Tabla13[[#This Row],[Valor]]&amp;"), "&amp;REPT(" ",3 - LEN(Tabla13[[#This Row],[adoptado]])) &amp; Tabla13[[#This Row],[adoptado]]&amp;" }"&amp;IF(Tabla13[[#This Row],[Valor]]&lt;MAX(Tabla13[Valor]),",",))</f>
+        <v xml:space="preserve">  { OV(  71), 211 },</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>78</v>
       </c>
@@ -12292,32 +8188,26 @@
         <v>220</v>
       </c>
       <c r="C36">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D36">
-        <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
-        <v>204.56232839104956</v>
+        <f>-60*LN(Tabla13[[#This Row],[Valor]])+462.8</f>
+        <v>201.39747039862453</v>
       </c>
       <c r="E36">
+        <f>600.56*Tabla13[[#This Row],[Valor]]^(-0.247)</f>
+        <v>204.74298750204767</v>
+      </c>
+      <c r="F36">
+        <f>IF(Tabla13[[#This Row],[TermK]]&lt;&gt;"",Tabla13[[#This Row],[TermK]],IF(AND(Tabla13[[#This Row],[original marlin]]&lt;&gt;"",Tabla13[[#This Row],[original marlin]]&lt;110),Tabla13[[#This Row],[original marlin]],ROUND(Tabla13[[#This Row],[TermK Pot]],)))</f>
         <v>207</v>
       </c>
-      <c r="F36">
-        <f>-53.47*LN(Tabla13[[#This Row],[Valor]])+442.58</f>
-        <v>209.62677903690752</v>
-      </c>
-      <c r="G36">
-        <v>207</v>
-      </c>
-      <c r="H36" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[termocupla Ian]]," },")</f>
-        <v>{ OV(  78), 204 },</v>
-      </c>
-      <c r="I36" t="str">
-        <f>IF(Tabla13[[#This Row],[adoptado]]="","",CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[adoptado]]," },"))</f>
-        <v>{ OV(  78), 207 },</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G36" t="str">
+        <f>IF(Tabla13[[#This Row],[adoptado]]="","","  { OV("&amp;REPT(" ",4 - LEN(Tabla13[[#This Row],[Valor]])) &amp; Tabla13[[#This Row],[Valor]]&amp;"), "&amp;REPT(" ",3 - LEN(Tabla13[[#This Row],[adoptado]])) &amp; Tabla13[[#This Row],[adoptado]]&amp;" }"&amp;IF(Tabla13[[#This Row],[Valor]]&lt;MAX(Tabla13[Valor]),",",))</f>
+        <v xml:space="preserve">  { OV(  78), 207 },</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>84</v>
       </c>
@@ -12325,32 +8215,26 @@
         <v>215</v>
       </c>
       <c r="C37">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D37">
-        <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
-        <v>200.6279361494085</v>
+        <f>-60*LN(Tabla13[[#This Row],[Valor]])+462.8</f>
+        <v>196.9509920694012</v>
       </c>
       <c r="E37">
+        <f>600.56*Tabla13[[#This Row],[Valor]]^(-0.247)</f>
+        <v>201.02932721347389</v>
+      </c>
+      <c r="F37">
+        <f>IF(Tabla13[[#This Row],[TermK]]&lt;&gt;"",Tabla13[[#This Row],[TermK]],IF(AND(Tabla13[[#This Row],[original marlin]]&lt;&gt;"",Tabla13[[#This Row],[original marlin]]&lt;110),Tabla13[[#This Row],[original marlin]],ROUND(Tabla13[[#This Row],[TermK Pot]],)))</f>
         <v>202</v>
       </c>
-      <c r="F37">
-        <f>-53.47*LN(Tabla13[[#This Row],[Valor]])+442.58</f>
-        <v>205.66422576584802</v>
-      </c>
-      <c r="G37">
-        <v>202</v>
-      </c>
-      <c r="H37" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[termocupla Ian]]," },")</f>
-        <v>{ OV(  84), 200 },</v>
-      </c>
-      <c r="I37" t="str">
-        <f>IF(Tabla13[[#This Row],[adoptado]]="","",CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[adoptado]]," },"))</f>
-        <v>{ OV(  84), 202 },</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G37" t="str">
+        <f>IF(Tabla13[[#This Row],[adoptado]]="","","  { OV("&amp;REPT(" ",4 - LEN(Tabla13[[#This Row],[Valor]])) &amp; Tabla13[[#This Row],[Valor]]&amp;"), "&amp;REPT(" ",3 - LEN(Tabla13[[#This Row],[adoptado]])) &amp; Tabla13[[#This Row],[adoptado]]&amp;" }"&amp;IF(Tabla13[[#This Row],[Valor]]&lt;MAX(Tabla13[Valor]),",",))</f>
+        <v xml:space="preserve">  { OV(  84), 202 },</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>92</v>
       </c>
@@ -12358,32 +8242,26 @@
         <v>210</v>
       </c>
       <c r="C38">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D38">
-        <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
-        <v>195.79824444446643</v>
+        <f>-60*LN(Tabla13[[#This Row],[Valor]])+462.8</f>
+        <v>191.49268537705757</v>
       </c>
       <c r="E38">
+        <f>600.56*Tabla13[[#This Row],[Valor]]^(-0.247)</f>
+        <v>196.56256444083928</v>
+      </c>
+      <c r="F38">
+        <f>IF(Tabla13[[#This Row],[TermK]]&lt;&gt;"",Tabla13[[#This Row],[TermK]],IF(AND(Tabla13[[#This Row],[original marlin]]&lt;&gt;"",Tabla13[[#This Row],[original marlin]]&lt;110),Tabla13[[#This Row],[original marlin]],ROUND(Tabla13[[#This Row],[TermK Pot]],)))</f>
         <v>198</v>
       </c>
-      <c r="F38">
-        <f>-53.47*LN(Tabla13[[#This Row],[Valor]])+442.58</f>
-        <v>200.7999647851878</v>
-      </c>
-      <c r="G38">
-        <v>198</v>
-      </c>
-      <c r="H38" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[termocupla Ian]]," },")</f>
-        <v>{ OV(  92), 195 },</v>
-      </c>
-      <c r="I38" t="str">
-        <f>IF(Tabla13[[#This Row],[adoptado]]="","",CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[adoptado]]," },"))</f>
-        <v>{ OV(  92), 198 },</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G38" t="str">
+        <f>IF(Tabla13[[#This Row],[adoptado]]="","","  { OV("&amp;REPT(" ",4 - LEN(Tabla13[[#This Row],[Valor]])) &amp; Tabla13[[#This Row],[Valor]]&amp;"), "&amp;REPT(" ",3 - LEN(Tabla13[[#This Row],[adoptado]])) &amp; Tabla13[[#This Row],[adoptado]]&amp;" }"&amp;IF(Tabla13[[#This Row],[Valor]]&lt;MAX(Tabla13[Valor]),",",))</f>
+        <v xml:space="preserve">  { OV(  92), 198 },</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>100</v>
       </c>
@@ -12391,32 +8269,26 @@
         <v>205</v>
       </c>
       <c r="C39">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="D39">
-        <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
-        <v>191.37151482589221</v>
+        <f>-60*LN(Tabla13[[#This Row],[Valor]])+462.8</f>
+        <v>186.48978884071448</v>
       </c>
       <c r="E39">
+        <f>600.56*Tabla13[[#This Row],[Valor]]^(-0.247)</f>
+        <v>192.55571055250019</v>
+      </c>
+      <c r="F39">
+        <f>IF(Tabla13[[#This Row],[TermK]]&lt;&gt;"",Tabla13[[#This Row],[TermK]],IF(AND(Tabla13[[#This Row],[original marlin]]&lt;&gt;"",Tabla13[[#This Row],[original marlin]]&lt;110),Tabla13[[#This Row],[original marlin]],ROUND(Tabla13[[#This Row],[TermK Pot]],)))</f>
         <v>193</v>
       </c>
-      <c r="F39">
-        <f>-53.47*LN(Tabla13[[#This Row],[Valor]])+442.58</f>
-        <v>196.34155015521671</v>
-      </c>
-      <c r="G39">
-        <v>193</v>
-      </c>
-      <c r="H39" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[termocupla Ian]]," },")</f>
-        <v>{ OV(  100), 190 },</v>
-      </c>
-      <c r="I39" t="str">
-        <f>IF(Tabla13[[#This Row],[adoptado]]="","",CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[adoptado]]," },"))</f>
-        <v>{ OV(  100), 193 },</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G39" t="str">
+        <f>IF(Tabla13[[#This Row],[adoptado]]="","","  { OV("&amp;REPT(" ",4 - LEN(Tabla13[[#This Row],[Valor]])) &amp; Tabla13[[#This Row],[Valor]]&amp;"), "&amp;REPT(" ",3 - LEN(Tabla13[[#This Row],[adoptado]])) &amp; Tabla13[[#This Row],[adoptado]]&amp;" }"&amp;IF(Tabla13[[#This Row],[Valor]]&lt;MAX(Tabla13[Valor]),",",))</f>
+        <v xml:space="preserve">  { OV( 100), 193 },</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>109</v>
       </c>
@@ -12424,32 +8296,26 @@
         <v>200</v>
       </c>
       <c r="C40">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D40">
-        <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
-        <v>186.79634093245477</v>
+        <f>-60*LN(Tabla13[[#This Row],[Valor]])+462.8</f>
+        <v>181.31912706625138</v>
       </c>
       <c r="E40">
+        <f>600.56*Tabla13[[#This Row],[Valor]]^(-0.247)</f>
+        <v>188.50030526960384</v>
+      </c>
+      <c r="F40">
+        <f>IF(Tabla13[[#This Row],[TermK]]&lt;&gt;"",Tabla13[[#This Row],[TermK]],IF(AND(Tabla13[[#This Row],[original marlin]]&lt;&gt;"",Tabla13[[#This Row],[original marlin]]&lt;110),Tabla13[[#This Row],[original marlin]],ROUND(Tabla13[[#This Row],[TermK Pot]],)))</f>
         <v>189</v>
       </c>
-      <c r="F40">
-        <f>-53.47*LN(Tabla13[[#This Row],[Valor]])+442.58</f>
-        <v>191.73362873720768</v>
-      </c>
-      <c r="G40">
-        <v>189</v>
-      </c>
-      <c r="H40" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[termocupla Ian]]," },")</f>
-        <v>{ OV(  109), 186 },</v>
-      </c>
-      <c r="I40" t="str">
-        <f>IF(Tabla13[[#This Row],[adoptado]]="","",CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[adoptado]]," },"))</f>
-        <v>{ OV(  109), 189 },</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G40" t="str">
+        <f>IF(Tabla13[[#This Row],[adoptado]]="","","  { OV("&amp;REPT(" ",4 - LEN(Tabla13[[#This Row],[Valor]])) &amp; Tabla13[[#This Row],[Valor]]&amp;"), "&amp;REPT(" ",3 - LEN(Tabla13[[#This Row],[adoptado]])) &amp; Tabla13[[#This Row],[adoptado]]&amp;" }"&amp;IF(Tabla13[[#This Row],[Valor]]&lt;MAX(Tabla13[Valor]),",",))</f>
+        <v xml:space="preserve">  { OV( 109), 189 },</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>120</v>
       </c>
@@ -12457,32 +8323,26 @@
         <v>195</v>
       </c>
       <c r="C41">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D41">
-        <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
-        <v>181.6920633757012</v>
+        <f>-60*LN(Tabla13[[#This Row],[Valor]])+462.8</f>
+        <v>175.55049543307729</v>
       </c>
       <c r="E41">
+        <f>600.56*Tabla13[[#This Row],[Valor]]^(-0.247)</f>
+        <v>184.07662162373398</v>
+      </c>
+      <c r="F41">
+        <f>IF(Tabla13[[#This Row],[TermK]]&lt;&gt;"",Tabla13[[#This Row],[TermK]],IF(AND(Tabla13[[#This Row],[original marlin]]&lt;&gt;"",Tabla13[[#This Row],[original marlin]]&lt;110),Tabla13[[#This Row],[original marlin]],ROUND(Tabla13[[#This Row],[TermK Pot]],)))</f>
         <v>184</v>
       </c>
-      <c r="F41">
-        <f>-53.47*LN(Tabla13[[#This Row],[Valor]])+442.58</f>
-        <v>186.59281651344401</v>
-      </c>
-      <c r="G41">
-        <v>184</v>
-      </c>
-      <c r="H41" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[termocupla Ian]]," },")</f>
-        <v>{ OV(  120), 181 },</v>
-      </c>
-      <c r="I41" t="str">
-        <f>IF(Tabla13[[#This Row],[adoptado]]="","",CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[adoptado]]," },"))</f>
-        <v>{ OV(  120), 184 },</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G41" t="str">
+        <f>IF(Tabla13[[#This Row],[adoptado]]="","","  { OV("&amp;REPT(" ",4 - LEN(Tabla13[[#This Row],[Valor]])) &amp; Tabla13[[#This Row],[Valor]]&amp;"), "&amp;REPT(" ",3 - LEN(Tabla13[[#This Row],[adoptado]])) &amp; Tabla13[[#This Row],[adoptado]]&amp;" }"&amp;IF(Tabla13[[#This Row],[Valor]]&lt;MAX(Tabla13[Valor]),",",))</f>
+        <v xml:space="preserve">  { OV( 120), 184 },</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>131</v>
       </c>
@@ -12490,32 +8350,26 @@
         <v>190</v>
       </c>
       <c r="C42">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D42">
-        <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
-        <v>177.03577411125087</v>
+        <f>-60*LN(Tabla13[[#This Row],[Valor]])+462.8</f>
+        <v>170.28816060793093</v>
       </c>
       <c r="E42">
+        <f>600.56*Tabla13[[#This Row],[Valor]]^(-0.247)</f>
+        <v>180.13180166901714</v>
+      </c>
+      <c r="F42">
+        <f>IF(Tabla13[[#This Row],[TermK]]&lt;&gt;"",Tabla13[[#This Row],[TermK]],IF(AND(Tabla13[[#This Row],[original marlin]]&lt;&gt;"",Tabla13[[#This Row],[original marlin]]&lt;110),Tabla13[[#This Row],[original marlin]],ROUND(Tabla13[[#This Row],[TermK Pot]],)))</f>
         <v>180</v>
       </c>
-      <c r="F42">
-        <f>-53.47*LN(Tabla13[[#This Row],[Valor]])+442.58</f>
-        <v>181.90319912843444</v>
-      </c>
-      <c r="G42">
-        <v>180</v>
-      </c>
-      <c r="H42" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[termocupla Ian]]," },")</f>
-        <v>{ OV(  131), 177 },</v>
-      </c>
-      <c r="I42" t="str">
-        <f>IF(Tabla13[[#This Row],[adoptado]]="","",CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[adoptado]]," },"))</f>
-        <v>{ OV(  131), 180 },</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G42" t="str">
+        <f>IF(Tabla13[[#This Row],[adoptado]]="","","  { OV("&amp;REPT(" ",4 - LEN(Tabla13[[#This Row],[Valor]])) &amp; Tabla13[[#This Row],[Valor]]&amp;"), "&amp;REPT(" ",3 - LEN(Tabla13[[#This Row],[adoptado]])) &amp; Tabla13[[#This Row],[adoptado]]&amp;" }"&amp;IF(Tabla13[[#This Row],[Valor]]&lt;MAX(Tabla13[Valor]),",",))</f>
+        <v xml:space="preserve">  { OV( 131), 180 },</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>143</v>
       </c>
@@ -12523,32 +8377,26 @@
         <v>185</v>
       </c>
       <c r="C43">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D43">
-        <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
-        <v>172.38257857950151</v>
+        <f>-60*LN(Tabla13[[#This Row],[Valor]])+462.8</f>
+        <v>165.0293221844056</v>
       </c>
       <c r="E43">
+        <f>600.56*Tabla13[[#This Row],[Valor]]^(-0.247)</f>
+        <v>176.27405763380341</v>
+      </c>
+      <c r="F43">
+        <f>IF(Tabla13[[#This Row],[TermK]]&lt;&gt;"",Tabla13[[#This Row],[TermK]],IF(AND(Tabla13[[#This Row],[original marlin]]&lt;&gt;"",Tabla13[[#This Row],[original marlin]]&lt;110),Tabla13[[#This Row],[original marlin]],ROUND(Tabla13[[#This Row],[TermK Pot]],)))</f>
         <v>176</v>
       </c>
-      <c r="F43">
-        <f>-53.47*LN(Tabla13[[#This Row],[Valor]])+442.58</f>
-        <v>177.21669762000278</v>
-      </c>
-      <c r="G43">
-        <v>176</v>
-      </c>
-      <c r="H43" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[termocupla Ian]]," },")</f>
-        <v>{ OV(  143), 173 },</v>
-      </c>
-      <c r="I43" t="str">
-        <f>IF(Tabla13[[#This Row],[adoptado]]="","",CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[adoptado]]," },"))</f>
-        <v>{ OV(  143), 176 },</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G43" t="str">
+        <f>IF(Tabla13[[#This Row],[adoptado]]="","","  { OV("&amp;REPT(" ",4 - LEN(Tabla13[[#This Row],[Valor]])) &amp; Tabla13[[#This Row],[Valor]]&amp;"), "&amp;REPT(" ",3 - LEN(Tabla13[[#This Row],[adoptado]])) &amp; Tabla13[[#This Row],[adoptado]]&amp;" }"&amp;IF(Tabla13[[#This Row],[Valor]]&lt;MAX(Tabla13[Valor]),",",))</f>
+        <v xml:space="preserve">  { OV( 143), 176 },</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>156</v>
       </c>
@@ -12556,32 +8404,26 @@
         <v>180</v>
       </c>
       <c r="C44">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="D44">
-        <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
-        <v>167.76314457512206</v>
+        <f>-60*LN(Tabla13[[#This Row],[Valor]])+462.8</f>
+        <v>159.80863956502776</v>
       </c>
       <c r="E44">
+        <f>600.56*Tabla13[[#This Row],[Valor]]^(-0.247)</f>
+        <v>172.52602928160388</v>
+      </c>
+      <c r="F44">
+        <f>IF(Tabla13[[#This Row],[TermK]]&lt;&gt;"",Tabla13[[#This Row],[TermK]],IF(AND(Tabla13[[#This Row],[original marlin]]&lt;&gt;"",Tabla13[[#This Row],[original marlin]]&lt;110),Tabla13[[#This Row],[original marlin]],ROUND(Tabla13[[#This Row],[TermK Pot]],)))</f>
         <v>171</v>
       </c>
-      <c r="F44">
-        <f>-53.47*LN(Tabla13[[#This Row],[Valor]])+442.58</f>
-        <v>172.56419929236722</v>
-      </c>
-      <c r="G44">
-        <v>171</v>
-      </c>
-      <c r="H44" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[termocupla Ian]]," },")</f>
-        <v>{ OV(  156), 168 },</v>
-      </c>
-      <c r="I44" t="str">
-        <f>IF(Tabla13[[#This Row],[adoptado]]="","",CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[adoptado]]," },"))</f>
-        <v>{ OV(  156), 171 },</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G44" t="str">
+        <f>IF(Tabla13[[#This Row],[adoptado]]="","","  { OV("&amp;REPT(" ",4 - LEN(Tabla13[[#This Row],[Valor]])) &amp; Tabla13[[#This Row],[Valor]]&amp;"), "&amp;REPT(" ",3 - LEN(Tabla13[[#This Row],[adoptado]])) &amp; Tabla13[[#This Row],[adoptado]]&amp;" }"&amp;IF(Tabla13[[#This Row],[Valor]]&lt;MAX(Tabla13[Valor]),",",))</f>
+        <v xml:space="preserve">  { OV( 156), 171 },</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>171</v>
       </c>
@@ -12589,32 +8431,26 @@
         <v>175</v>
       </c>
       <c r="C45">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="D45">
-        <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
-        <v>162.88908178527379</v>
+        <f>-60*LN(Tabla13[[#This Row],[Valor]])+462.8</f>
+        <v>154.30018660984041</v>
       </c>
       <c r="E45">
+        <f>600.56*Tabla13[[#This Row],[Valor]]^(-0.247)</f>
+        <v>168.65777381436095</v>
+      </c>
+      <c r="F45">
+        <f>IF(Tabla13[[#This Row],[TermK]]&lt;&gt;"",Tabla13[[#This Row],[TermK]],IF(AND(Tabla13[[#This Row],[original marlin]]&lt;&gt;"",Tabla13[[#This Row],[original marlin]]&lt;110),Tabla13[[#This Row],[original marlin]],ROUND(Tabla13[[#This Row],[TermK Pot]],)))</f>
         <v>168</v>
       </c>
-      <c r="F45">
-        <f>-53.47*LN(Tabla13[[#This Row],[Valor]])+442.58</f>
-        <v>167.65524963380273</v>
-      </c>
-      <c r="G45">
-        <v>168</v>
-      </c>
-      <c r="H45" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[termocupla Ian]]," },")</f>
-        <v>{ OV(  171), 162 },</v>
-      </c>
-      <c r="I45" t="str">
-        <f>IF(Tabla13[[#This Row],[adoptado]]="","",CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[adoptado]]," },"))</f>
-        <v>{ OV(  171), 168 },</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G45" t="str">
+        <f>IF(Tabla13[[#This Row],[adoptado]]="","","  { OV("&amp;REPT(" ",4 - LEN(Tabla13[[#This Row],[Valor]])) &amp; Tabla13[[#This Row],[Valor]]&amp;"), "&amp;REPT(" ",3 - LEN(Tabla13[[#This Row],[adoptado]])) &amp; Tabla13[[#This Row],[adoptado]]&amp;" }"&amp;IF(Tabla13[[#This Row],[Valor]]&lt;MAX(Tabla13[Valor]),",",))</f>
+        <v xml:space="preserve">  { OV( 171), 168 },</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>187</v>
       </c>
@@ -12622,32 +8458,26 @@
         <v>170</v>
       </c>
       <c r="C46">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="D46">
-        <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
-        <v>158.14044353118999</v>
+        <f>-60*LN(Tabla13[[#This Row],[Valor]])+462.8</f>
+        <v>148.93348298872479</v>
       </c>
       <c r="E46">
+        <f>600.56*Tabla13[[#This Row],[Valor]]^(-0.247)</f>
+        <v>164.97248870898264</v>
+      </c>
+      <c r="F46">
+        <f>IF(Tabla13[[#This Row],[TermK]]&lt;&gt;"",Tabla13[[#This Row],[TermK]],IF(AND(Tabla13[[#This Row],[original marlin]]&lt;&gt;"",Tabla13[[#This Row],[original marlin]]&lt;110),Tabla13[[#This Row],[original marlin]],ROUND(Tabla13[[#This Row],[TermK Pot]],)))</f>
         <v>165</v>
       </c>
-      <c r="F46">
-        <f>-53.47*LN(Tabla13[[#This Row],[Valor]])+442.58</f>
-        <v>162.87262225678523</v>
-      </c>
-      <c r="G46">
-        <v>165</v>
-      </c>
-      <c r="H46" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[termocupla Ian]]," },")</f>
-        <v>{ OV(  187), 158 },</v>
-      </c>
-      <c r="I46" t="str">
-        <f>IF(Tabla13[[#This Row],[adoptado]]="","",CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[adoptado]]," },"))</f>
-        <v>{ OV(  187), 165 },</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G46" t="str">
+        <f>IF(Tabla13[[#This Row],[adoptado]]="","","  { OV("&amp;REPT(" ",4 - LEN(Tabla13[[#This Row],[Valor]])) &amp; Tabla13[[#This Row],[Valor]]&amp;"), "&amp;REPT(" ",3 - LEN(Tabla13[[#This Row],[adoptado]])) &amp; Tabla13[[#This Row],[adoptado]]&amp;" }"&amp;IF(Tabla13[[#This Row],[Valor]]&lt;MAX(Tabla13[Valor]),",",))</f>
+        <v xml:space="preserve">  { OV( 187), 165 },</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>205</v>
       </c>
@@ -12655,32 +8485,26 @@
         <v>165</v>
       </c>
       <c r="C47">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="D47">
-        <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
-        <v>153.2614002075419</v>
+        <f>-60*LN(Tabla13[[#This Row],[Valor]])+462.8</f>
+        <v>143.41940125169549</v>
       </c>
       <c r="E47">
+        <f>600.56*Tabla13[[#This Row],[Valor]]^(-0.247)</f>
+        <v>161.26985637705556</v>
+      </c>
+      <c r="F47">
+        <f>IF(Tabla13[[#This Row],[TermK]]&lt;&gt;"",Tabla13[[#This Row],[TermK]],IF(AND(Tabla13[[#This Row],[original marlin]]&lt;&gt;"",Tabla13[[#This Row],[original marlin]]&lt;110),Tabla13[[#This Row],[original marlin]],ROUND(Tabla13[[#This Row],[TermK Pot]],)))</f>
         <v>160</v>
       </c>
-      <c r="F47">
-        <f>-53.47*LN(Tabla13[[#This Row],[Valor]])+442.58</f>
-        <v>157.95865641546931</v>
-      </c>
-      <c r="G47">
-        <v>160</v>
-      </c>
-      <c r="H47" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[termocupla Ian]]," },")</f>
-        <v>{ OV(  205), 154 },</v>
-      </c>
-      <c r="I47" t="str">
-        <f>IF(Tabla13[[#This Row],[adoptado]]="","",CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[adoptado]]," },"))</f>
-        <v>{ OV(  205), 160 },</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G47" t="str">
+        <f>IF(Tabla13[[#This Row],[adoptado]]="","","  { OV("&amp;REPT(" ",4 - LEN(Tabla13[[#This Row],[Valor]])) &amp; Tabla13[[#This Row],[Valor]]&amp;"), "&amp;REPT(" ",3 - LEN(Tabla13[[#This Row],[adoptado]])) &amp; Tabla13[[#This Row],[adoptado]]&amp;" }"&amp;IF(Tabla13[[#This Row],[Valor]]&lt;MAX(Tabla13[Valor]),",",))</f>
+        <v xml:space="preserve">  { OV( 205), 160 },</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>224</v>
       </c>
@@ -12688,32 +8512,26 @@
         <v>160</v>
       </c>
       <c r="C48">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="D48">
-        <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
-        <v>148.55571110701595</v>
+        <f>-60*LN(Tabla13[[#This Row],[Valor]])+462.8</f>
+        <v>138.10123688869766</v>
       </c>
       <c r="E48">
+        <f>600.56*Tabla13[[#This Row],[Valor]]^(-0.247)</f>
+        <v>157.77752615357846</v>
+      </c>
+      <c r="F48">
+        <f>IF(Tabla13[[#This Row],[TermK]]&lt;&gt;"",Tabla13[[#This Row],[TermK]],IF(AND(Tabla13[[#This Row],[original marlin]]&lt;&gt;"",Tabla13[[#This Row],[original marlin]]&lt;110),Tabla13[[#This Row],[original marlin]],ROUND(Tabla13[[#This Row],[TermK Pot]],)))</f>
         <v>157</v>
       </c>
-      <c r="F48">
-        <f>-53.47*LN(Tabla13[[#This Row],[Valor]])+442.58</f>
-        <v>153.21928560731101</v>
-      </c>
-      <c r="G48">
-        <v>157</v>
-      </c>
-      <c r="H48" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[termocupla Ian]]," },")</f>
-        <v>{ OV(  224), 149 },</v>
-      </c>
-      <c r="I48" t="str">
-        <f>IF(Tabla13[[#This Row],[adoptado]]="","",CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[adoptado]]," },"))</f>
-        <v>{ OV(  224), 157 },</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G48" t="str">
+        <f>IF(Tabla13[[#This Row],[adoptado]]="","","  { OV("&amp;REPT(" ",4 - LEN(Tabla13[[#This Row],[Valor]])) &amp; Tabla13[[#This Row],[Valor]]&amp;"), "&amp;REPT(" ",3 - LEN(Tabla13[[#This Row],[adoptado]])) &amp; Tabla13[[#This Row],[adoptado]]&amp;" }"&amp;IF(Tabla13[[#This Row],[Valor]]&lt;MAX(Tabla13[Valor]),",",))</f>
+        <v xml:space="preserve">  { OV( 224), 157 },</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>245</v>
       </c>
@@ -12721,32 +8539,26 @@
         <v>155</v>
       </c>
       <c r="C49">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="D49">
-        <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
-        <v>143.79820160218043</v>
+        <f>-60*LN(Tabla13[[#This Row],[Valor]])+462.8</f>
+        <v>132.72450736731639</v>
       </c>
       <c r="E49">
+        <f>600.56*Tabla13[[#This Row],[Valor]]^(-0.247)</f>
+        <v>154.32361215846589</v>
+      </c>
+      <c r="F49">
+        <f>IF(Tabla13[[#This Row],[TermK]]&lt;&gt;"",Tabla13[[#This Row],[TermK]],IF(AND(Tabla13[[#This Row],[original marlin]]&lt;&gt;"",Tabla13[[#This Row],[original marlin]]&lt;110),Tabla13[[#This Row],[original marlin]],ROUND(Tabla13[[#This Row],[TermK Pot]],)))</f>
         <v>152</v>
       </c>
-      <c r="F49">
-        <f>-53.47*LN(Tabla13[[#This Row],[Valor]])+442.58</f>
-        <v>148.42772348217341</v>
-      </c>
-      <c r="G49">
-        <v>152</v>
-      </c>
-      <c r="H49" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[termocupla Ian]]," },")</f>
-        <v>{ OV(  245), 145 },</v>
-      </c>
-      <c r="I49" t="str">
-        <f>IF(Tabla13[[#This Row],[adoptado]]="","",CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[adoptado]]," },"))</f>
-        <v>{ OV(  245), 152 },</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G49" t="str">
+        <f>IF(Tabla13[[#This Row],[adoptado]]="","","  { OV("&amp;REPT(" ",4 - LEN(Tabla13[[#This Row],[Valor]])) &amp; Tabla13[[#This Row],[Valor]]&amp;"), "&amp;REPT(" ",3 - LEN(Tabla13[[#This Row],[adoptado]])) &amp; Tabla13[[#This Row],[adoptado]]&amp;" }"&amp;IF(Tabla13[[#This Row],[Valor]]&lt;MAX(Tabla13[Valor]),",",))</f>
+        <v xml:space="preserve">  { OV( 245), 152 },</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>268</v>
       </c>
@@ -12754,32 +8566,26 @@
         <v>150</v>
       </c>
       <c r="C50">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="D50">
-        <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
-        <v>139.03450120467863</v>
+        <f>-60*LN(Tabla13[[#This Row],[Valor]])+462.8</f>
+        <v>127.34078116934865</v>
       </c>
       <c r="E50">
+        <f>600.56*Tabla13[[#This Row],[Valor]]^(-0.247)</f>
+        <v>150.94096031681983</v>
+      </c>
+      <c r="F50">
+        <f>IF(Tabla13[[#This Row],[TermK]]&lt;&gt;"",Tabla13[[#This Row],[TermK]],IF(AND(Tabla13[[#This Row],[original marlin]]&lt;&gt;"",Tabla13[[#This Row],[original marlin]]&lt;110),Tabla13[[#This Row],[original marlin]],ROUND(Tabla13[[#This Row],[TermK Pot]],)))</f>
         <v>147</v>
       </c>
-      <c r="F50">
-        <f>-53.47*LN(Tabla13[[#This Row],[Valor]])+442.58</f>
-        <v>143.62992615208447</v>
-      </c>
-      <c r="G50">
-        <v>147</v>
-      </c>
-      <c r="H50" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[termocupla Ian]]," },")</f>
-        <v>{ OV(  268), 140 },</v>
-      </c>
-      <c r="I50" t="str">
-        <f>IF(Tabla13[[#This Row],[adoptado]]="","",CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[adoptado]]," },"))</f>
-        <v>{ OV(  268), 147 },</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G50" t="str">
+        <f>IF(Tabla13[[#This Row],[adoptado]]="","","  { OV("&amp;REPT(" ",4 - LEN(Tabla13[[#This Row],[Valor]])) &amp; Tabla13[[#This Row],[Valor]]&amp;"), "&amp;REPT(" ",3 - LEN(Tabla13[[#This Row],[adoptado]])) &amp; Tabla13[[#This Row],[adoptado]]&amp;" }"&amp;IF(Tabla13[[#This Row],[Valor]]&lt;MAX(Tabla13[Valor]),",",))</f>
+        <v xml:space="preserve">  { OV( 268), 147 },</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>293</v>
       </c>
@@ -12787,32 +8593,26 @@
         <v>145</v>
       </c>
       <c r="C51">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="D51">
-        <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
-        <v>134.29963618728385</v>
+        <f>-60*LN(Tabla13[[#This Row],[Valor]])+462.8</f>
+        <v>121.98964345897593</v>
       </c>
       <c r="E51">
+        <f>600.56*Tabla13[[#This Row],[Valor]]^(-0.247)</f>
+        <v>147.65226063442393</v>
+      </c>
+      <c r="F51">
+        <f>IF(Tabla13[[#This Row],[TermK]]&lt;&gt;"",Tabla13[[#This Row],[TermK]],IF(AND(Tabla13[[#This Row],[original marlin]]&lt;&gt;"",Tabla13[[#This Row],[original marlin]]&lt;110),Tabla13[[#This Row],[original marlin]],ROUND(Tabla13[[#This Row],[TermK Pot]],)))</f>
         <v>142</v>
       </c>
-      <c r="F51">
-        <f>-53.47*LN(Tabla13[[#This Row],[Valor]])+442.58</f>
-        <v>138.8611705958574</v>
-      </c>
-      <c r="G51">
-        <v>142</v>
-      </c>
-      <c r="H51" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[termocupla Ian]]," },")</f>
-        <v>{ OV(  293), 135 },</v>
-      </c>
-      <c r="I51" t="str">
-        <f>IF(Tabla13[[#This Row],[adoptado]]="","",CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[adoptado]]," },"))</f>
-        <v>{ OV(  293), 142 },</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G51" t="str">
+        <f>IF(Tabla13[[#This Row],[adoptado]]="","","  { OV("&amp;REPT(" ",4 - LEN(Tabla13[[#This Row],[Valor]])) &amp; Tabla13[[#This Row],[Valor]]&amp;"), "&amp;REPT(" ",3 - LEN(Tabla13[[#This Row],[adoptado]])) &amp; Tabla13[[#This Row],[adoptado]]&amp;" }"&amp;IF(Tabla13[[#This Row],[Valor]]&lt;MAX(Tabla13[Valor]),",",))</f>
+        <v xml:space="preserve">  { OV( 293), 142 },</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>320</v>
       </c>
@@ -12820,32 +8620,26 @@
         <v>140</v>
       </c>
       <c r="C52">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="D52">
-        <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
-        <v>129.61983833330862</v>
+        <f>-60*LN(Tabla13[[#This Row],[Valor]])+462.8</f>
+        <v>116.70074025237369</v>
       </c>
       <c r="E52">
+        <f>600.56*Tabla13[[#This Row],[Valor]]^(-0.247)</f>
+        <v>144.47222395397071</v>
+      </c>
+      <c r="F52">
+        <f>IF(Tabla13[[#This Row],[TermK]]&lt;&gt;"",Tabla13[[#This Row],[TermK]],IF(AND(Tabla13[[#This Row],[original marlin]]&lt;&gt;"",Tabla13[[#This Row],[original marlin]]&lt;110),Tabla13[[#This Row],[original marlin]],ROUND(Tabla13[[#This Row],[TermK Pot]],)))</f>
         <v>137</v>
       </c>
-      <c r="F52">
-        <f>-53.47*LN(Tabla13[[#This Row],[Valor]])+442.58</f>
-        <v>134.147876354907</v>
-      </c>
-      <c r="G52">
-        <v>137</v>
-      </c>
-      <c r="H52" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[termocupla Ian]]," },")</f>
-        <v>{ OV(  320), 130 },</v>
-      </c>
-      <c r="I52" t="str">
-        <f>IF(Tabla13[[#This Row],[adoptado]]="","",CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[adoptado]]," },"))</f>
-        <v>{ OV(  320), 137 },</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G52" t="str">
+        <f>IF(Tabla13[[#This Row],[adoptado]]="","","  { OV("&amp;REPT(" ",4 - LEN(Tabla13[[#This Row],[Valor]])) &amp; Tabla13[[#This Row],[Valor]]&amp;"), "&amp;REPT(" ",3 - LEN(Tabla13[[#This Row],[adoptado]])) &amp; Tabla13[[#This Row],[adoptado]]&amp;" }"&amp;IF(Tabla13[[#This Row],[Valor]]&lt;MAX(Tabla13[Valor]),",",))</f>
+        <v xml:space="preserve">  { OV( 320), 137 },</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>348</v>
       </c>
@@ -12853,32 +8647,26 @@
         <v>135</v>
       </c>
       <c r="C53">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="D53">
-        <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
-        <v>125.16657034877312</v>
+        <f>-60*LN(Tabla13[[#This Row],[Valor]])+462.8</f>
+        <v>111.66785121353155</v>
       </c>
       <c r="E53">
+        <f>600.56*Tabla13[[#This Row],[Valor]]^(-0.247)</f>
+        <v>141.50973888544712</v>
+      </c>
+      <c r="F53">
+        <f>IF(Tabla13[[#This Row],[TermK]]&lt;&gt;"",Tabla13[[#This Row],[TermK]],IF(AND(Tabla13[[#This Row],[original marlin]]&lt;&gt;"",Tabla13[[#This Row],[original marlin]]&lt;110),Tabla13[[#This Row],[original marlin]],ROUND(Tabla13[[#This Row],[TermK Pot]],)))</f>
         <v>133</v>
       </c>
-      <c r="F53">
-        <f>-53.47*LN(Tabla13[[#This Row],[Valor]])+442.58</f>
-        <v>129.66273340645881</v>
-      </c>
-      <c r="G53">
-        <v>133</v>
-      </c>
-      <c r="H53" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[termocupla Ian]]," },")</f>
-        <v>{ OV(  348), 125 },</v>
-      </c>
-      <c r="I53" t="str">
-        <f>IF(Tabla13[[#This Row],[adoptado]]="","",CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[adoptado]]," },"))</f>
-        <v>{ OV(  348), 133 },</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G53" t="str">
+        <f>IF(Tabla13[[#This Row],[adoptado]]="","","  { OV("&amp;REPT(" ",4 - LEN(Tabla13[[#This Row],[Valor]])) &amp; Tabla13[[#This Row],[Valor]]&amp;"), "&amp;REPT(" ",3 - LEN(Tabla13[[#This Row],[adoptado]])) &amp; Tabla13[[#This Row],[adoptado]]&amp;" }"&amp;IF(Tabla13[[#This Row],[Valor]]&lt;MAX(Tabla13[Valor]),",",))</f>
+        <v xml:space="preserve">  { OV( 348), 133 },</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>379</v>
       </c>
@@ -12886,32 +8674,26 @@
         <v>130</v>
       </c>
       <c r="C54">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="D54">
-        <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
-        <v>120.63620287217395</v>
+        <f>-60*LN(Tabla13[[#This Row],[Valor]])+462.8</f>
+        <v>106.54782769505442</v>
       </c>
       <c r="E54">
+        <f>600.56*Tabla13[[#This Row],[Valor]]^(-0.247)</f>
+        <v>138.55829098313129</v>
+      </c>
+      <c r="F54">
+        <f>IF(Tabla13[[#This Row],[TermK]]&lt;&gt;"",Tabla13[[#This Row],[TermK]],IF(AND(Tabla13[[#This Row],[original marlin]]&lt;&gt;"",Tabla13[[#This Row],[original marlin]]&lt;110),Tabla13[[#This Row],[original marlin]],ROUND(Tabla13[[#This Row],[TermK Pot]],)))</f>
         <v>127</v>
       </c>
-      <c r="F54">
-        <f>-53.47*LN(Tabla13[[#This Row],[Valor]])+442.58</f>
-        <v>125.09993911424266</v>
-      </c>
-      <c r="G54">
-        <v>127</v>
-      </c>
-      <c r="H54" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[termocupla Ian]]," },")</f>
-        <v>{ OV(  379), 121 },</v>
-      </c>
-      <c r="I54" t="str">
-        <f>IF(Tabla13[[#This Row],[adoptado]]="","",CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[adoptado]]," },"))</f>
-        <v>{ OV(  379), 127 },</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G54" t="str">
+        <f>IF(Tabla13[[#This Row],[adoptado]]="","","  { OV("&amp;REPT(" ",4 - LEN(Tabla13[[#This Row],[Valor]])) &amp; Tabla13[[#This Row],[Valor]]&amp;"), "&amp;REPT(" ",3 - LEN(Tabla13[[#This Row],[adoptado]])) &amp; Tabla13[[#This Row],[adoptado]]&amp;" }"&amp;IF(Tabla13[[#This Row],[Valor]]&lt;MAX(Tabla13[Valor]),",",))</f>
+        <v xml:space="preserve">  { OV( 379), 127 },</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>411</v>
       </c>
@@ -12919,32 +8701,26 @@
         <v>125</v>
       </c>
       <c r="C55">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="D55">
-        <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
-        <v>116.33288624239492</v>
+        <f>-60*LN(Tabla13[[#This Row],[Valor]])+462.8</f>
+        <v>101.68440713022596</v>
       </c>
       <c r="E55">
+        <f>600.56*Tabla13[[#This Row],[Valor]]^(-0.247)</f>
+        <v>135.81178987462775</v>
+      </c>
+      <c r="F55">
+        <f>IF(Tabla13[[#This Row],[TermK]]&lt;&gt;"",Tabla13[[#This Row],[TermK]],IF(AND(Tabla13[[#This Row],[original marlin]]&lt;&gt;"",Tabla13[[#This Row],[original marlin]]&lt;110),Tabla13[[#This Row],[original marlin]],ROUND(Tabla13[[#This Row],[TermK Pot]],)))</f>
         <v>122</v>
       </c>
-      <c r="F55">
-        <f>-53.47*LN(Tabla13[[#This Row],[Valor]])+442.58</f>
-        <v>120.76582082088635</v>
-      </c>
-      <c r="G55">
-        <v>122</v>
-      </c>
-      <c r="H55" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[termocupla Ian]]," },")</f>
-        <v>{ OV(  411), 116 },</v>
-      </c>
-      <c r="I55" t="str">
-        <f>IF(Tabla13[[#This Row],[adoptado]]="","",CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[adoptado]]," },"))</f>
-        <v>{ OV(  411), 122 },</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G55" t="str">
+        <f>IF(Tabla13[[#This Row],[adoptado]]="","","  { OV("&amp;REPT(" ",4 - LEN(Tabla13[[#This Row],[Valor]])) &amp; Tabla13[[#This Row],[Valor]]&amp;"), "&amp;REPT(" ",3 - LEN(Tabla13[[#This Row],[adoptado]])) &amp; Tabla13[[#This Row],[adoptado]]&amp;" }"&amp;IF(Tabla13[[#This Row],[Valor]]&lt;MAX(Tabla13[Valor]),",",))</f>
+        <v xml:space="preserve">  { OV( 411), 122 },</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>445</v>
       </c>
@@ -12952,32 +8728,26 @@
         <v>120</v>
       </c>
       <c r="C56">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="D56">
-        <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
-        <v>112.11323635979431</v>
+        <f>-60*LN(Tabla13[[#This Row],[Valor]])+462.8</f>
+        <v>96.915543070025592</v>
       </c>
       <c r="E56">
+        <f>600.56*Tabla13[[#This Row],[Valor]]^(-0.247)</f>
+        <v>133.17155783918034</v>
+      </c>
+      <c r="F56">
+        <f>IF(Tabla13[[#This Row],[TermK]]&lt;&gt;"",Tabla13[[#This Row],[TermK]],IF(AND(Tabla13[[#This Row],[original marlin]]&lt;&gt;"",Tabla13[[#This Row],[original marlin]]&lt;110),Tabla13[[#This Row],[original marlin]],ROUND(Tabla13[[#This Row],[TermK Pot]],)))</f>
         <v>117</v>
       </c>
-      <c r="F56">
-        <f>-53.47*LN(Tabla13[[#This Row],[Valor]])+442.58</f>
-        <v>116.51596813257112</v>
-      </c>
-      <c r="G56">
-        <v>117</v>
-      </c>
-      <c r="H56" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[termocupla Ian]]," },")</f>
-        <v>{ OV(  445), 111 },</v>
-      </c>
-      <c r="I56" t="str">
-        <f>IF(Tabla13[[#This Row],[adoptado]]="","",CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[adoptado]]," },"))</f>
-        <v>{ OV(  445), 117 },</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G56" t="str">
+        <f>IF(Tabla13[[#This Row],[adoptado]]="","","  { OV("&amp;REPT(" ",4 - LEN(Tabla13[[#This Row],[Valor]])) &amp; Tabla13[[#This Row],[Valor]]&amp;"), "&amp;REPT(" ",3 - LEN(Tabla13[[#This Row],[adoptado]])) &amp; Tabla13[[#This Row],[adoptado]]&amp;" }"&amp;IF(Tabla13[[#This Row],[Valor]]&lt;MAX(Tabla13[Valor]),",",))</f>
+        <v xml:space="preserve">  { OV( 445), 117 },</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>480</v>
       </c>
@@ -12985,32 +8755,26 @@
         <v>115</v>
       </c>
       <c r="C57">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="D57">
-        <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
-        <v>108.09369574384618</v>
+        <f>-60*LN(Tabla13[[#This Row],[Valor]])+462.8</f>
+        <v>92.372833765883797</v>
       </c>
       <c r="E57">
+        <f>600.56*Tabla13[[#This Row],[Valor]]^(-0.247)</f>
+        <v>130.70428245183936</v>
+      </c>
+      <c r="F57">
+        <f>IF(Tabla13[[#This Row],[TermK]]&lt;&gt;"",Tabla13[[#This Row],[TermK]],IF(AND(Tabla13[[#This Row],[original marlin]]&lt;&gt;"",Tabla13[[#This Row],[original marlin]]&lt;110),Tabla13[[#This Row],[original marlin]],ROUND(Tabla13[[#This Row],[TermK Pot]],)))</f>
         <v>112</v>
       </c>
-      <c r="F57">
-        <f>-53.47*LN(Tabla13[[#This Row],[Valor]])+442.58</f>
-        <v>112.46765702436346</v>
-      </c>
-      <c r="G57">
-        <v>112</v>
-      </c>
-      <c r="H57" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[termocupla Ian]]," },")</f>
-        <v>{ OV(  480), 106 },</v>
-      </c>
-      <c r="I57" t="str">
-        <f>IF(Tabla13[[#This Row],[adoptado]]="","",CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[adoptado]]," },"))</f>
-        <v>{ OV(  480), 112 },</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G57" t="str">
+        <f>IF(Tabla13[[#This Row],[adoptado]]="","","  { OV("&amp;REPT(" ",4 - LEN(Tabla13[[#This Row],[Valor]])) &amp; Tabla13[[#This Row],[Valor]]&amp;"), "&amp;REPT(" ",3 - LEN(Tabla13[[#This Row],[adoptado]])) &amp; Tabla13[[#This Row],[adoptado]]&amp;" }"&amp;IF(Tabla13[[#This Row],[Valor]]&lt;MAX(Tabla13[Valor]),",",))</f>
+        <v xml:space="preserve">  { OV( 480), 112 },</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>516</v>
       </c>
@@ -13018,779 +8782,623 @@
         <v>110</v>
       </c>
       <c r="C58">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="D58">
-        <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
-        <v>104.2541918205838</v>
+        <f>-60*LN(Tabla13[[#This Row],[Valor]])+462.8</f>
+        <v>88.033594071106222</v>
       </c>
       <c r="E58">
+        <f>600.56*Tabla13[[#This Row],[Valor]]^(-0.247)</f>
+        <v>128.39021512889897</v>
+      </c>
+      <c r="F58">
+        <f>IF(Tabla13[[#This Row],[TermK]]&lt;&gt;"",Tabla13[[#This Row],[TermK]],IF(AND(Tabla13[[#This Row],[original marlin]]&lt;&gt;"",Tabla13[[#This Row],[original marlin]]&lt;110),Tabla13[[#This Row],[original marlin]],ROUND(Tabla13[[#This Row],[TermK Pot]],)))</f>
         <v>108</v>
       </c>
-      <c r="F58">
-        <f>-53.47*LN(Tabla13[[#This Row],[Valor]])+442.58</f>
-        <v>108.60067124970084</v>
-      </c>
-      <c r="G58">
-        <v>108</v>
-      </c>
-      <c r="H58" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[termocupla Ian]]," },")</f>
-        <v>{ OV(  516), 102 },</v>
-      </c>
-      <c r="I58" t="str">
-        <f>IF(Tabla13[[#This Row],[adoptado]]="","",CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[adoptado]]," },"))</f>
-        <v>{ OV(  516), 108 },</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G58" t="str">
+        <f>IF(Tabla13[[#This Row],[adoptado]]="","","  { OV("&amp;REPT(" ",4 - LEN(Tabla13[[#This Row],[Valor]])) &amp; Tabla13[[#This Row],[Valor]]&amp;"), "&amp;REPT(" ",3 - LEN(Tabla13[[#This Row],[adoptado]])) &amp; Tabla13[[#This Row],[adoptado]]&amp;" }"&amp;IF(Tabla13[[#This Row],[Valor]]&lt;MAX(Tabla13[Valor]),",",))</f>
+        <v xml:space="preserve">  { OV( 516), 108 },</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>553</v>
       </c>
       <c r="B59">
         <v>105</v>
       </c>
-      <c r="C59">
-        <v>97</v>
-      </c>
       <c r="D59">
-        <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
-        <v>100.57764369917925</v>
+        <f>-60*LN(Tabla13[[#This Row],[Valor]])+462.8</f>
+        <v>83.878519908659939</v>
+      </c>
+      <c r="E59">
+        <f>600.56*Tabla13[[#This Row],[Valor]]^(-0.247)</f>
+        <v>126.21276915580026</v>
       </c>
       <c r="F59">
-        <f>-53.47*LN(Tabla13[[#This Row],[Valor]])+442.58</f>
-        <v>104.89780765860075</v>
-      </c>
-      <c r="G59">
+        <f>IF(Tabla13[[#This Row],[TermK]]&lt;&gt;"",Tabla13[[#This Row],[TermK]],IF(AND(Tabla13[[#This Row],[original marlin]]&lt;&gt;"",Tabla13[[#This Row],[original marlin]]&lt;110),Tabla13[[#This Row],[original marlin]],ROUND(Tabla13[[#This Row],[TermK Pot]],)))</f>
         <v>105</v>
       </c>
-      <c r="H59" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[termocupla Ian]]," },")</f>
-        <v>{ OV(  553), 97 },</v>
-      </c>
-      <c r="I59" t="str">
-        <f>IF(Tabla13[[#This Row],[adoptado]]="","",CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[adoptado]]," },"))</f>
-        <v>{ OV(  553), 105 },</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G59" t="str">
+        <f>IF(Tabla13[[#This Row],[adoptado]]="","","  { OV("&amp;REPT(" ",4 - LEN(Tabla13[[#This Row],[Valor]])) &amp; Tabla13[[#This Row],[Valor]]&amp;"), "&amp;REPT(" ",3 - LEN(Tabla13[[#This Row],[adoptado]])) &amp; Tabla13[[#This Row],[adoptado]]&amp;" }"&amp;IF(Tabla13[[#This Row],[Valor]]&lt;MAX(Tabla13[Valor]),",",))</f>
+        <v xml:space="preserve">  { OV( 553), 105 },</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>591</v>
       </c>
       <c r="B60">
         <v>100</v>
       </c>
-      <c r="C60">
-        <v>93</v>
-      </c>
       <c r="D60">
-        <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
-        <v>97.04938763591025</v>
+        <f>-60*LN(Tabla13[[#This Row],[Valor]])+462.8</f>
+        <v>79.891038955634087</v>
+      </c>
+      <c r="E60">
+        <f>600.56*Tabla13[[#This Row],[Valor]]^(-0.247)</f>
+        <v>124.15788191433761</v>
       </c>
       <c r="F60">
-        <f>-53.47*LN(Tabla13[[#This Row],[Valor]])+442.58</f>
-        <v>101.3442975492959</v>
-      </c>
-      <c r="G60">
+        <f>IF(Tabla13[[#This Row],[TermK]]&lt;&gt;"",Tabla13[[#This Row],[TermK]],IF(AND(Tabla13[[#This Row],[original marlin]]&lt;&gt;"",Tabla13[[#This Row],[original marlin]]&lt;110),Tabla13[[#This Row],[original marlin]],ROUND(Tabla13[[#This Row],[TermK Pot]],)))</f>
         <v>100</v>
       </c>
-      <c r="H60" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[termocupla Ian]]," },")</f>
-        <v>{ OV(  591), 93 },</v>
-      </c>
-      <c r="I60" t="str">
-        <f>IF(Tabla13[[#This Row],[adoptado]]="","",CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[adoptado]]," },"))</f>
-        <v>{ OV(  591), 100 },</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G60" t="str">
+        <f>IF(Tabla13[[#This Row],[adoptado]]="","","  { OV("&amp;REPT(" ",4 - LEN(Tabla13[[#This Row],[Valor]])) &amp; Tabla13[[#This Row],[Valor]]&amp;"), "&amp;REPT(" ",3 - LEN(Tabla13[[#This Row],[adoptado]])) &amp; Tabla13[[#This Row],[adoptado]]&amp;" }"&amp;IF(Tabla13[[#This Row],[Valor]]&lt;MAX(Tabla13[Valor]),",",))</f>
+        <v xml:space="preserve">  { OV( 591), 100 },</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>628</v>
       </c>
       <c r="B61">
         <v>95</v>
       </c>
-      <c r="C61">
-        <v>88</v>
-      </c>
       <c r="D61">
-        <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
-        <v>93.825542562203339</v>
+        <f>-60*LN(Tabla13[[#This Row],[Valor]])+462.8</f>
+        <v>76.24759001190813</v>
+      </c>
+      <c r="E61">
+        <f>600.56*Tabla13[[#This Row],[Valor]]^(-0.247)</f>
+        <v>122.3095507131213</v>
       </c>
       <c r="F61">
-        <f>-53.47*LN(Tabla13[[#This Row],[Valor]])+442.58</f>
-        <v>98.097377298945446</v>
-      </c>
-      <c r="G61">
+        <f>IF(Tabla13[[#This Row],[TermK]]&lt;&gt;"",Tabla13[[#This Row],[TermK]],IF(AND(Tabla13[[#This Row],[original marlin]]&lt;&gt;"",Tabla13[[#This Row],[original marlin]]&lt;110),Tabla13[[#This Row],[original marlin]],ROUND(Tabla13[[#This Row],[TermK Pot]],)))</f>
         <v>95</v>
       </c>
-      <c r="H61" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[termocupla Ian]]," },")</f>
-        <v>{ OV(  628), 88 },</v>
-      </c>
-      <c r="I61" t="str">
-        <f>IF(Tabla13[[#This Row],[adoptado]]="","",CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[adoptado]]," },"))</f>
-        <v>{ OV(  628), 95 },</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G61" t="str">
+        <f>IF(Tabla13[[#This Row],[adoptado]]="","","  { OV("&amp;REPT(" ",4 - LEN(Tabla13[[#This Row],[Valor]])) &amp; Tabla13[[#This Row],[Valor]]&amp;"), "&amp;REPT(" ",3 - LEN(Tabla13[[#This Row],[adoptado]])) &amp; Tabla13[[#This Row],[adoptado]]&amp;" }"&amp;IF(Tabla13[[#This Row],[Valor]]&lt;MAX(Tabla13[Valor]),",",))</f>
+        <v xml:space="preserve">  { OV( 628),  95 },</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>665</v>
       </c>
       <c r="B62">
         <v>90</v>
       </c>
-      <c r="C62">
-        <v>84</v>
-      </c>
       <c r="D62">
-        <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
-        <v>90.786306011580677</v>
+        <f>-60*LN(Tabla13[[#This Row],[Valor]])+462.8</f>
+        <v>72.812777560648783</v>
+      </c>
+      <c r="E62">
+        <f>600.56*Tabla13[[#This Row],[Valor]]^(-0.247)</f>
+        <v>120.59226616150616</v>
       </c>
       <c r="F62">
-        <f>-53.47*LN(Tabla13[[#This Row],[Valor]])+442.58</f>
-        <v>95.036386936131464</v>
-      </c>
-      <c r="G62">
+        <f>IF(Tabla13[[#This Row],[TermK]]&lt;&gt;"",Tabla13[[#This Row],[TermK]],IF(AND(Tabla13[[#This Row],[original marlin]]&lt;&gt;"",Tabla13[[#This Row],[original marlin]]&lt;110),Tabla13[[#This Row],[original marlin]],ROUND(Tabla13[[#This Row],[TermK Pot]],)))</f>
         <v>90</v>
       </c>
-      <c r="H62" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[termocupla Ian]]," },")</f>
-        <v>{ OV(  665), 84 },</v>
-      </c>
-      <c r="I62" t="str">
-        <f>IF(Tabla13[[#This Row],[adoptado]]="","",CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[adoptado]]," },"))</f>
-        <v>{ OV(  665), 90 },</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G62" t="str">
+        <f>IF(Tabla13[[#This Row],[adoptado]]="","","  { OV("&amp;REPT(" ",4 - LEN(Tabla13[[#This Row],[Valor]])) &amp; Tabla13[[#This Row],[Valor]]&amp;"), "&amp;REPT(" ",3 - LEN(Tabla13[[#This Row],[adoptado]])) &amp; Tabla13[[#This Row],[adoptado]]&amp;" }"&amp;IF(Tabla13[[#This Row],[Valor]]&lt;MAX(Tabla13[Valor]),",",))</f>
+        <v xml:space="preserve">  { OV( 665),  90 },</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>702</v>
       </c>
       <c r="B63">
         <v>85</v>
       </c>
-      <c r="C63">
-        <v>79</v>
-      </c>
       <c r="D63">
-        <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
-        <v>87.911675580269673</v>
+        <f>-60*LN(Tabla13[[#This Row],[Valor]])+462.8</f>
+        <v>69.56399575845137</v>
+      </c>
+      <c r="E63">
+        <f>600.56*Tabla13[[#This Row],[Valor]]^(-0.247)</f>
+        <v>118.99018401857109</v>
       </c>
       <c r="F63">
-        <f>-53.47*LN(Tabla13[[#This Row],[Valor]])+442.58</f>
-        <v>92.141180886739903</v>
-      </c>
-      <c r="G63">
+        <f>IF(Tabla13[[#This Row],[TermK]]&lt;&gt;"",Tabla13[[#This Row],[TermK]],IF(AND(Tabla13[[#This Row],[original marlin]]&lt;&gt;"",Tabla13[[#This Row],[original marlin]]&lt;110),Tabla13[[#This Row],[original marlin]],ROUND(Tabla13[[#This Row],[TermK Pot]],)))</f>
         <v>85</v>
       </c>
-      <c r="H63" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[termocupla Ian]]," },")</f>
-        <v>{ OV(  702), 79 },</v>
-      </c>
-      <c r="I63" t="str">
-        <f>IF(Tabla13[[#This Row],[adoptado]]="","",CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[adoptado]]," },"))</f>
-        <v>{ OV(  702), 85 },</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G63" t="str">
+        <f>IF(Tabla13[[#This Row],[adoptado]]="","","  { OV("&amp;REPT(" ",4 - LEN(Tabla13[[#This Row],[Valor]])) &amp; Tabla13[[#This Row],[Valor]]&amp;"), "&amp;REPT(" ",3 - LEN(Tabla13[[#This Row],[adoptado]])) &amp; Tabla13[[#This Row],[adoptado]]&amp;" }"&amp;IF(Tabla13[[#This Row],[Valor]]&lt;MAX(Tabla13[Valor]),",",))</f>
+        <v xml:space="preserve">  { OV( 702),  85 },</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>737</v>
       </c>
       <c r="B64">
         <v>80</v>
       </c>
-      <c r="C64">
-        <v>74</v>
-      </c>
       <c r="D64">
-        <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
-        <v>85.328608803668146</v>
+        <f>-60*LN(Tabla13[[#This Row],[Valor]])+462.8</f>
+        <v>66.644726468639817</v>
+      </c>
+      <c r="E64">
+        <f>600.56*Tabla13[[#This Row],[Valor]]^(-0.247)</f>
+        <v>117.56875882174647</v>
       </c>
       <c r="F64">
-        <f>-53.47*LN(Tabla13[[#This Row],[Valor]])+442.58</f>
-        <v>89.539625404636183</v>
-      </c>
-      <c r="G64">
+        <f>IF(Tabla13[[#This Row],[TermK]]&lt;&gt;"",Tabla13[[#This Row],[TermK]],IF(AND(Tabla13[[#This Row],[original marlin]]&lt;&gt;"",Tabla13[[#This Row],[original marlin]]&lt;110),Tabla13[[#This Row],[original marlin]],ROUND(Tabla13[[#This Row],[TermK Pot]],)))</f>
         <v>80</v>
       </c>
-      <c r="H64" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[termocupla Ian]]," },")</f>
-        <v>{ OV(  737), 74 },</v>
-      </c>
-      <c r="I64" t="str">
-        <f>IF(Tabla13[[#This Row],[adoptado]]="","",CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[adoptado]]," },"))</f>
-        <v>{ OV(  737), 80 },</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G64" t="str">
+        <f>IF(Tabla13[[#This Row],[adoptado]]="","","  { OV("&amp;REPT(" ",4 - LEN(Tabla13[[#This Row],[Valor]])) &amp; Tabla13[[#This Row],[Valor]]&amp;"), "&amp;REPT(" ",3 - LEN(Tabla13[[#This Row],[adoptado]])) &amp; Tabla13[[#This Row],[adoptado]]&amp;" }"&amp;IF(Tabla13[[#This Row],[Valor]]&lt;MAX(Tabla13[Valor]),",",))</f>
+        <v xml:space="preserve">  { OV( 737),  80 },</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>770</v>
       </c>
       <c r="B65">
         <v>75</v>
       </c>
-      <c r="C65">
-        <v>69</v>
-      </c>
       <c r="D65">
-        <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
-        <v>83.003127566734065</v>
+        <f>-60*LN(Tabla13[[#This Row],[Valor]])+462.8</f>
+        <v>64.016569109136242</v>
+      </c>
+      <c r="E65">
+        <f>600.56*Tabla13[[#This Row],[Valor]]^(-0.247)</f>
+        <v>116.3036096094242</v>
       </c>
       <c r="F65">
-        <f>-53.47*LN(Tabla13[[#This Row],[Valor]])+442.58</f>
-        <v>87.19749917109192</v>
-      </c>
-      <c r="G65">
+        <f>IF(Tabla13[[#This Row],[TermK]]&lt;&gt;"",Tabla13[[#This Row],[TermK]],IF(AND(Tabla13[[#This Row],[original marlin]]&lt;&gt;"",Tabla13[[#This Row],[original marlin]]&lt;110),Tabla13[[#This Row],[original marlin]],ROUND(Tabla13[[#This Row],[TermK Pot]],)))</f>
         <v>75</v>
       </c>
-      <c r="H65" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[termocupla Ian]]," },")</f>
-        <v>{ OV(  770), 69 },</v>
-      </c>
-      <c r="I65" t="str">
-        <f>IF(Tabla13[[#This Row],[adoptado]]="","",CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[adoptado]]," },"))</f>
-        <v>{ OV(  770), 75 },</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G65" t="str">
+        <f>IF(Tabla13[[#This Row],[adoptado]]="","","  { OV("&amp;REPT(" ",4 - LEN(Tabla13[[#This Row],[Valor]])) &amp; Tabla13[[#This Row],[Valor]]&amp;"), "&amp;REPT(" ",3 - LEN(Tabla13[[#This Row],[adoptado]])) &amp; Tabla13[[#This Row],[adoptado]]&amp;" }"&amp;IF(Tabla13[[#This Row],[Valor]]&lt;MAX(Tabla13[Valor]),",",))</f>
+        <v xml:space="preserve">  { OV( 770),  75 },</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>801</v>
       </c>
       <c r="B66">
         <v>70</v>
       </c>
-      <c r="C66">
-        <v>65</v>
-      </c>
       <c r="D66">
-        <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
-        <v>80.907642320140781</v>
+        <f>-60*LN(Tabla13[[#This Row],[Valor]])+462.8</f>
+        <v>61.648343175898447</v>
+      </c>
+      <c r="E66">
+        <f>600.56*Tabla13[[#This Row],[Valor]]^(-0.247)</f>
+        <v>115.17525206270763</v>
       </c>
       <c r="F66">
-        <f>-53.47*LN(Tabla13[[#This Row],[Valor]])+442.58</f>
-        <v>85.087015160254793</v>
-      </c>
-      <c r="G66">
+        <f>IF(Tabla13[[#This Row],[TermK]]&lt;&gt;"",Tabla13[[#This Row],[TermK]],IF(AND(Tabla13[[#This Row],[original marlin]]&lt;&gt;"",Tabla13[[#This Row],[original marlin]]&lt;110),Tabla13[[#This Row],[original marlin]],ROUND(Tabla13[[#This Row],[TermK Pot]],)))</f>
         <v>70</v>
       </c>
-      <c r="H66" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[termocupla Ian]]," },")</f>
-        <v>{ OV(  801), 65 },</v>
-      </c>
-      <c r="I66" t="str">
-        <f>IF(Tabla13[[#This Row],[adoptado]]="","",CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[adoptado]]," },"))</f>
-        <v>{ OV(  801), 70 },</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G66" t="str">
+        <f>IF(Tabla13[[#This Row],[adoptado]]="","","  { OV("&amp;REPT(" ",4 - LEN(Tabla13[[#This Row],[Valor]])) &amp; Tabla13[[#This Row],[Valor]]&amp;"), "&amp;REPT(" ",3 - LEN(Tabla13[[#This Row],[adoptado]])) &amp; Tabla13[[#This Row],[adoptado]]&amp;" }"&amp;IF(Tabla13[[#This Row],[Valor]]&lt;MAX(Tabla13[Valor]),",",))</f>
+        <v xml:space="preserve">  { OV( 801),  70 },</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>830</v>
       </c>
       <c r="B67">
         <v>65</v>
       </c>
-      <c r="C67">
-        <v>60</v>
-      </c>
       <c r="D67">
-        <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
-        <v>79.019509545024732</v>
+        <f>-60*LN(Tabla13[[#This Row],[Valor]])+462.8</f>
+        <v>59.514457952561429</v>
+      </c>
+      <c r="E67">
+        <f>600.56*Tabla13[[#This Row],[Valor]]^(-0.247)</f>
+        <v>114.16792663239791</v>
       </c>
       <c r="F67">
-        <f>-53.47*LN(Tabla13[[#This Row],[Valor]])+442.58</f>
-        <v>83.185367778724299</v>
-      </c>
-      <c r="G67">
-        <v>64</v>
-      </c>
-      <c r="H67" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[termocupla Ian]]," },")</f>
-        <v>{ OV(  830), 60 },</v>
-      </c>
-      <c r="I67" t="str">
-        <f>IF(Tabla13[[#This Row],[adoptado]]="","",CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[adoptado]]," },"))</f>
-        <v>{ OV(  830), 64 },</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+        <f>IF(Tabla13[[#This Row],[TermK]]&lt;&gt;"",Tabla13[[#This Row],[TermK]],IF(AND(Tabla13[[#This Row],[original marlin]]&lt;&gt;"",Tabla13[[#This Row],[original marlin]]&lt;110),Tabla13[[#This Row],[original marlin]],ROUND(Tabla13[[#This Row],[TermK Pot]],)))</f>
+        <v>65</v>
+      </c>
+      <c r="G67" t="str">
+        <f>IF(Tabla13[[#This Row],[adoptado]]="","","  { OV("&amp;REPT(" ",4 - LEN(Tabla13[[#This Row],[Valor]])) &amp; Tabla13[[#This Row],[Valor]]&amp;"), "&amp;REPT(" ",3 - LEN(Tabla13[[#This Row],[adoptado]])) &amp; Tabla13[[#This Row],[adoptado]]&amp;" }"&amp;IF(Tabla13[[#This Row],[Valor]]&lt;MAX(Tabla13[Valor]),",",))</f>
+        <v xml:space="preserve">  { OV( 830),  65 },</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>857</v>
       </c>
       <c r="B68">
         <v>60</v>
       </c>
-      <c r="C68">
-        <v>56</v>
-      </c>
       <c r="D68">
-        <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
-        <v>77.319980901643873</v>
+        <f>-60*LN(Tabla13[[#This Row],[Valor]])+462.8</f>
+        <v>57.593724884133223</v>
+      </c>
+      <c r="E68">
+        <f>600.56*Tabla13[[#This Row],[Valor]]^(-0.247)</f>
+        <v>113.26875835901556</v>
       </c>
       <c r="F68">
-        <f>-53.47*LN(Tabla13[[#This Row],[Valor]])+442.58</f>
-        <v>81.47367449257672</v>
-      </c>
-      <c r="G68">
+        <f>IF(Tabla13[[#This Row],[TermK]]&lt;&gt;"",Tabla13[[#This Row],[TermK]],IF(AND(Tabla13[[#This Row],[original marlin]]&lt;&gt;"",Tabla13[[#This Row],[original marlin]]&lt;110),Tabla13[[#This Row],[original marlin]],ROUND(Tabla13[[#This Row],[TermK Pot]],)))</f>
         <v>60</v>
       </c>
-      <c r="H68" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[termocupla Ian]]," },")</f>
-        <v>{ OV(  857), 56 },</v>
-      </c>
-      <c r="I68" t="str">
-        <f>IF(Tabla13[[#This Row],[adoptado]]="","",CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[adoptado]]," },"))</f>
-        <v>{ OV(  857), 60 },</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G68" t="str">
+        <f>IF(Tabla13[[#This Row],[adoptado]]="","","  { OV("&amp;REPT(" ",4 - LEN(Tabla13[[#This Row],[Valor]])) &amp; Tabla13[[#This Row],[Valor]]&amp;"), "&amp;REPT(" ",3 - LEN(Tabla13[[#This Row],[adoptado]])) &amp; Tabla13[[#This Row],[adoptado]]&amp;" }"&amp;IF(Tabla13[[#This Row],[Valor]]&lt;MAX(Tabla13[Valor]),",",))</f>
+        <v xml:space="preserve">  { OV( 857),  60 },</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>881</v>
       </c>
       <c r="B69">
         <v>55</v>
       </c>
-      <c r="C69">
-        <v>51</v>
-      </c>
       <c r="D69">
-        <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
-        <v>75.853650639048226</v>
+        <f>-60*LN(Tabla13[[#This Row],[Valor]])+462.8</f>
+        <v>55.936542443829239</v>
+      </c>
+      <c r="E69">
+        <f>600.56*Tabla13[[#This Row],[Valor]]^(-0.247)</f>
+        <v>112.4986610345472</v>
       </c>
       <c r="F69">
-        <f>-53.47*LN(Tabla13[[#This Row],[Valor]])+442.58</f>
-        <v>79.99684874119248</v>
-      </c>
-      <c r="G69">
-        <v>54</v>
-      </c>
-      <c r="H69" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[termocupla Ian]]," },")</f>
-        <v>{ OV(  881), 51 },</v>
-      </c>
-      <c r="I69" t="str">
-        <f>IF(Tabla13[[#This Row],[adoptado]]="","",CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[adoptado]]," },"))</f>
-        <v>{ OV(  881), 54 },</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+        <f>IF(Tabla13[[#This Row],[TermK]]&lt;&gt;"",Tabla13[[#This Row],[TermK]],IF(AND(Tabla13[[#This Row],[original marlin]]&lt;&gt;"",Tabla13[[#This Row],[original marlin]]&lt;110),Tabla13[[#This Row],[original marlin]],ROUND(Tabla13[[#This Row],[TermK Pot]],)))</f>
+        <v>55</v>
+      </c>
+      <c r="G69" t="str">
+        <f>IF(Tabla13[[#This Row],[adoptado]]="","","  { OV("&amp;REPT(" ",4 - LEN(Tabla13[[#This Row],[Valor]])) &amp; Tabla13[[#This Row],[Valor]]&amp;"), "&amp;REPT(" ",3 - LEN(Tabla13[[#This Row],[adoptado]])) &amp; Tabla13[[#This Row],[adoptado]]&amp;" }"&amp;IF(Tabla13[[#This Row],[Valor]]&lt;MAX(Tabla13[Valor]),",",))</f>
+        <v xml:space="preserve">  { OV( 881),  55 },</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>903</v>
       </c>
       <c r="B70">
         <v>50</v>
       </c>
-      <c r="C70">
-        <v>47</v>
-      </c>
       <c r="D70">
-        <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
-        <v>74.544189639092224</v>
+        <f>-60*LN(Tabla13[[#This Row],[Valor]])+462.8</f>
+        <v>54.456646794980884</v>
+      </c>
+      <c r="E70">
+        <f>600.56*Tabla13[[#This Row],[Valor]]^(-0.247)</f>
+        <v>111.8153760000461</v>
       </c>
       <c r="F70">
-        <f>-53.47*LN(Tabla13[[#This Row],[Valor]])+442.58</f>
-        <v>78.678015068793798</v>
-      </c>
-      <c r="G70">
+        <f>IF(Tabla13[[#This Row],[TermK]]&lt;&gt;"",Tabla13[[#This Row],[TermK]],IF(AND(Tabla13[[#This Row],[original marlin]]&lt;&gt;"",Tabla13[[#This Row],[original marlin]]&lt;110),Tabla13[[#This Row],[original marlin]],ROUND(Tabla13[[#This Row],[TermK Pot]],)))</f>
         <v>50</v>
       </c>
-      <c r="H70" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[termocupla Ian]]," },")</f>
-        <v>{ OV(  903), 47 },</v>
-      </c>
-      <c r="I70" t="str">
-        <f>IF(Tabla13[[#This Row],[adoptado]]="","",CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[adoptado]]," },"))</f>
-        <v>{ OV(  903), 50 },</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G70" t="str">
+        <f>IF(Tabla13[[#This Row],[adoptado]]="","","  { OV("&amp;REPT(" ",4 - LEN(Tabla13[[#This Row],[Valor]])) &amp; Tabla13[[#This Row],[Valor]]&amp;"), "&amp;REPT(" ",3 - LEN(Tabla13[[#This Row],[adoptado]])) &amp; Tabla13[[#This Row],[adoptado]]&amp;" }"&amp;IF(Tabla13[[#This Row],[Valor]]&lt;MAX(Tabla13[Valor]),",",))</f>
+        <v xml:space="preserve">  { OV( 903),  50 },</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>922</v>
       </c>
       <c r="B71">
         <v>45</v>
       </c>
-      <c r="C71">
-        <v>42</v>
-      </c>
       <c r="D71">
-        <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
-        <v>73.438714081380397</v>
+        <f>-60*LN(Tabla13[[#This Row],[Valor]])+462.8</f>
+        <v>53.207286586604368</v>
+      </c>
+      <c r="E71">
+        <f>600.56*Tabla13[[#This Row],[Valor]]^(-0.247)</f>
+        <v>111.24176357739883</v>
       </c>
       <c r="F71">
-        <f>-53.47*LN(Tabla13[[#This Row],[Valor]])+442.58</f>
-        <v>77.564626896428933</v>
-      </c>
-      <c r="G71">
+        <f>IF(Tabla13[[#This Row],[TermK]]&lt;&gt;"",Tabla13[[#This Row],[TermK]],IF(AND(Tabla13[[#This Row],[original marlin]]&lt;&gt;"",Tabla13[[#This Row],[original marlin]]&lt;110),Tabla13[[#This Row],[original marlin]],ROUND(Tabla13[[#This Row],[TermK Pot]],)))</f>
         <v>45</v>
       </c>
-      <c r="H71" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[termocupla Ian]]," },")</f>
-        <v>{ OV(  922), 42 },</v>
-      </c>
-      <c r="I71" t="str">
-        <f>IF(Tabla13[[#This Row],[adoptado]]="","",CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[adoptado]]," },"))</f>
-        <v>{ OV(  922), 45 },</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G71" t="str">
+        <f>IF(Tabla13[[#This Row],[adoptado]]="","","  { OV("&amp;REPT(" ",4 - LEN(Tabla13[[#This Row],[Valor]])) &amp; Tabla13[[#This Row],[Valor]]&amp;"), "&amp;REPT(" ",3 - LEN(Tabla13[[#This Row],[adoptado]])) &amp; Tabla13[[#This Row],[adoptado]]&amp;" }"&amp;IF(Tabla13[[#This Row],[Valor]]&lt;MAX(Tabla13[Valor]),",",))</f>
+        <v xml:space="preserve">  { OV( 922),  45 },</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>939</v>
       </c>
       <c r="B72">
         <v>40</v>
       </c>
-      <c r="C72">
-        <v>38</v>
-      </c>
       <c r="D72">
-        <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
-        <v>72.468746208833295</v>
+        <f>-60*LN(Tabla13[[#This Row],[Valor]])+462.8</f>
+        <v>52.111071247504242</v>
+      </c>
+      <c r="E72">
+        <f>600.56*Tabla13[[#This Row],[Valor]]^(-0.247)</f>
+        <v>110.74088797285748</v>
       </c>
       <c r="F72">
-        <f>-53.47*LN(Tabla13[[#This Row],[Valor]])+442.58</f>
-        <v>76.587716326734153</v>
-      </c>
-      <c r="G72">
+        <f>IF(Tabla13[[#This Row],[TermK]]&lt;&gt;"",Tabla13[[#This Row],[TermK]],IF(AND(Tabla13[[#This Row],[original marlin]]&lt;&gt;"",Tabla13[[#This Row],[original marlin]]&lt;110),Tabla13[[#This Row],[original marlin]],ROUND(Tabla13[[#This Row],[TermK Pot]],)))</f>
         <v>40</v>
       </c>
-      <c r="H72" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[termocupla Ian]]," },")</f>
-        <v>{ OV(  939), 38 },</v>
-      </c>
-      <c r="I72" t="str">
-        <f>IF(Tabla13[[#This Row],[adoptado]]="","",CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[adoptado]]," },"))</f>
-        <v>{ OV(  939), 40 },</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G72" t="str">
+        <f>IF(Tabla13[[#This Row],[adoptado]]="","","  { OV("&amp;REPT(" ",4 - LEN(Tabla13[[#This Row],[Valor]])) &amp; Tabla13[[#This Row],[Valor]]&amp;"), "&amp;REPT(" ",3 - LEN(Tabla13[[#This Row],[adoptado]])) &amp; Tabla13[[#This Row],[adoptado]]&amp;" }"&amp;IF(Tabla13[[#This Row],[Valor]]&lt;MAX(Tabla13[Valor]),",",))</f>
+        <v xml:space="preserve">  { OV( 939),  40 },</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>954</v>
       </c>
       <c r="B73">
         <v>35</v>
       </c>
-      <c r="C73">
-        <v>33</v>
-      </c>
       <c r="D73">
-        <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
-        <v>71.627365682810421</v>
+        <f>-60*LN(Tabla13[[#This Row],[Valor]])+462.8</f>
+        <v>51.160179713102821</v>
+      </c>
+      <c r="E73">
+        <f>600.56*Tabla13[[#This Row],[Valor]]^(-0.247)</f>
+        <v>110.30823973513013</v>
       </c>
       <c r="F73">
-        <f>-53.47*LN(Tabla13[[#This Row],[Valor]])+442.58</f>
-        <v>75.740313487660103</v>
-      </c>
-      <c r="G73">
+        <f>IF(Tabla13[[#This Row],[TermK]]&lt;&gt;"",Tabla13[[#This Row],[TermK]],IF(AND(Tabla13[[#This Row],[original marlin]]&lt;&gt;"",Tabla13[[#This Row],[original marlin]]&lt;110),Tabla13[[#This Row],[original marlin]],ROUND(Tabla13[[#This Row],[TermK Pot]],)))</f>
         <v>35</v>
       </c>
-      <c r="H73" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[termocupla Ian]]," },")</f>
-        <v>{ OV(  954), 33 },</v>
-      </c>
-      <c r="I73" t="str">
-        <f>IF(Tabla13[[#This Row],[adoptado]]="","",CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[adoptado]]," },"))</f>
-        <v>{ OV(  954), 35 },</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G73" t="str">
+        <f>IF(Tabla13[[#This Row],[adoptado]]="","","  { OV("&amp;REPT(" ",4 - LEN(Tabla13[[#This Row],[Valor]])) &amp; Tabla13[[#This Row],[Valor]]&amp;"), "&amp;REPT(" ",3 - LEN(Tabla13[[#This Row],[adoptado]])) &amp; Tabla13[[#This Row],[adoptado]]&amp;" }"&amp;IF(Tabla13[[#This Row],[Valor]]&lt;MAX(Tabla13[Valor]),",",))</f>
+        <v xml:space="preserve">  { OV( 954),  35 },</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>966</v>
       </c>
       <c r="B74">
         <v>30</v>
       </c>
-      <c r="C74">
-        <v>29</v>
-      </c>
       <c r="D74">
-        <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
-        <v>70.963732041657408</v>
+        <f>-60*LN(Tabla13[[#This Row],[Valor]])+462.8</f>
+        <v>50.41016994724896</v>
+      </c>
+      <c r="E74">
+        <f>600.56*Tabla13[[#This Row],[Valor]]^(-0.247)</f>
+        <v>109.96818384850559</v>
       </c>
       <c r="F74">
-        <f>-53.47*LN(Tabla13[[#This Row],[Valor]])+442.58</f>
-        <v>75.071929784656675</v>
-      </c>
-      <c r="G74">
+        <f>IF(Tabla13[[#This Row],[TermK]]&lt;&gt;"",Tabla13[[#This Row],[TermK]],IF(AND(Tabla13[[#This Row],[original marlin]]&lt;&gt;"",Tabla13[[#This Row],[original marlin]]&lt;110),Tabla13[[#This Row],[original marlin]],ROUND(Tabla13[[#This Row],[TermK Pot]],)))</f>
         <v>30</v>
       </c>
-      <c r="H74" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[termocupla Ian]]," },")</f>
-        <v>{ OV(  966), 29 },</v>
-      </c>
-      <c r="I74" t="str">
-        <f>IF(Tabla13[[#This Row],[adoptado]]="","",CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[adoptado]]," },"))</f>
-        <v>{ OV(  966), 30 },</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G74" t="str">
+        <f>IF(Tabla13[[#This Row],[adoptado]]="","","  { OV("&amp;REPT(" ",4 - LEN(Tabla13[[#This Row],[Valor]])) &amp; Tabla13[[#This Row],[Valor]]&amp;"), "&amp;REPT(" ",3 - LEN(Tabla13[[#This Row],[adoptado]])) &amp; Tabla13[[#This Row],[adoptado]]&amp;" }"&amp;IF(Tabla13[[#This Row],[Valor]]&lt;MAX(Tabla13[Valor]),",",))</f>
+        <v xml:space="preserve">  { OV( 966),  30 },</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>977</v>
       </c>
       <c r="B75">
         <v>25</v>
       </c>
-      <c r="C75">
+      <c r="D75">
+        <f>-60*LN(Tabla13[[#This Row],[Valor]])+462.8</f>
+        <v>49.730800877433069</v>
+      </c>
+      <c r="E75">
+        <f>600.56*Tabla13[[#This Row],[Valor]]^(-0.247)</f>
+        <v>109.6610615396288</v>
+      </c>
+      <c r="F75">
+        <f>IF(Tabla13[[#This Row],[TermK]]&lt;&gt;"",Tabla13[[#This Row],[TermK]],IF(AND(Tabla13[[#This Row],[original marlin]]&lt;&gt;"",Tabla13[[#This Row],[original marlin]]&lt;110),Tabla13[[#This Row],[original marlin]],ROUND(Tabla13[[#This Row],[TermK Pot]],)))</f>
         <v>25</v>
       </c>
-      <c r="D75">
-        <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
-        <v>70.362603643048658</v>
-      </c>
-      <c r="F75">
-        <f>-53.47*LN(Tabla13[[#This Row],[Valor]])+442.58</f>
-        <v>74.466498715272394</v>
-      </c>
-      <c r="G75">
-        <v>25</v>
-      </c>
-      <c r="H75" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[termocupla Ian]]," },")</f>
-        <v>{ OV(  977), 25 },</v>
-      </c>
-      <c r="I75" t="str">
-        <f>IF(Tabla13[[#This Row],[adoptado]]="","",CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[adoptado]]," },"))</f>
-        <v>{ OV(  977), 25 },</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G75" t="str">
+        <f>IF(Tabla13[[#This Row],[adoptado]]="","","  { OV("&amp;REPT(" ",4 - LEN(Tabla13[[#This Row],[Valor]])) &amp; Tabla13[[#This Row],[Valor]]&amp;"), "&amp;REPT(" ",3 - LEN(Tabla13[[#This Row],[adoptado]])) &amp; Tabla13[[#This Row],[adoptado]]&amp;" }"&amp;IF(Tabla13[[#This Row],[Valor]]&lt;MAX(Tabla13[Valor]),",",))</f>
+        <v xml:space="preserve">  { OV( 977),  25 },</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>985</v>
       </c>
       <c r="B76">
         <v>20</v>
       </c>
-      <c r="C76">
+      <c r="D76">
+        <f>-60*LN(Tabla13[[#This Row],[Valor]])+462.8</f>
+        <v>49.241501529674679</v>
+      </c>
+      <c r="E76">
+        <f>600.56*Tabla13[[#This Row],[Valor]]^(-0.247)</f>
+        <v>109.44039551917301</v>
+      </c>
+      <c r="F76">
+        <f>IF(Tabla13[[#This Row],[TermK]]&lt;&gt;"",Tabla13[[#This Row],[TermK]],IF(AND(Tabla13[[#This Row],[original marlin]]&lt;&gt;"",Tabla13[[#This Row],[original marlin]]&lt;110),Tabla13[[#This Row],[original marlin]],ROUND(Tabla13[[#This Row],[TermK Pot]],)))</f>
         <v>20</v>
       </c>
-      <c r="D76">
-        <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
-        <v>69.929655270173782</v>
-      </c>
-      <c r="F76">
-        <f>-53.47*LN(Tabla13[[#This Row],[Valor]])+442.58</f>
-        <v>74.030451446528389</v>
-      </c>
-      <c r="G76">
-        <v>20</v>
-      </c>
-      <c r="H76" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[termocupla Ian]]," },")</f>
-        <v>{ OV(  985), 20 },</v>
-      </c>
-      <c r="I76" t="str">
-        <f>IF(Tabla13[[#This Row],[adoptado]]="","",CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[adoptado]]," },"))</f>
-        <v>{ OV(  985), 20 },</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G76" t="str">
+        <f>IF(Tabla13[[#This Row],[adoptado]]="","","  { OV("&amp;REPT(" ",4 - LEN(Tabla13[[#This Row],[Valor]])) &amp; Tabla13[[#This Row],[Valor]]&amp;"), "&amp;REPT(" ",3 - LEN(Tabla13[[#This Row],[adoptado]])) &amp; Tabla13[[#This Row],[adoptado]]&amp;" }"&amp;IF(Tabla13[[#This Row],[Valor]]&lt;MAX(Tabla13[Valor]),",",))</f>
+        <v xml:space="preserve">  { OV( 985),  20 },</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>993</v>
       </c>
       <c r="B77">
         <v>15</v>
       </c>
-      <c r="C77">
+      <c r="D77">
+        <f>-60*LN(Tabla13[[#This Row],[Valor]])+462.8</f>
+        <v>48.756160157289628</v>
+      </c>
+      <c r="E77">
+        <f>600.56*Tabla13[[#This Row],[Valor]]^(-0.247)</f>
+        <v>109.22195314647067</v>
+      </c>
+      <c r="F77">
+        <f>IF(Tabla13[[#This Row],[TermK]]&lt;&gt;"",Tabla13[[#This Row],[TermK]],IF(AND(Tabla13[[#This Row],[original marlin]]&lt;&gt;"",Tabla13[[#This Row],[original marlin]]&lt;110),Tabla13[[#This Row],[original marlin]],ROUND(Tabla13[[#This Row],[TermK Pot]],)))</f>
         <v>15</v>
       </c>
-      <c r="D77">
-        <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
-        <v>69.500209045841757</v>
-      </c>
-      <c r="F77">
-        <f>-53.47*LN(Tabla13[[#This Row],[Valor]])+442.58</f>
-        <v>73.597931393504609</v>
-      </c>
-      <c r="G77">
-        <v>15</v>
-      </c>
-      <c r="H77" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[termocupla Ian]]," },")</f>
-        <v>{ OV(  993), 15 },</v>
-      </c>
-      <c r="I77" t="str">
-        <f>IF(Tabla13[[#This Row],[adoptado]]="","",CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[adoptado]]," },"))</f>
-        <v>{ OV(  993), 15 },</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G77" t="str">
+        <f>IF(Tabla13[[#This Row],[adoptado]]="","","  { OV("&amp;REPT(" ",4 - LEN(Tabla13[[#This Row],[Valor]])) &amp; Tabla13[[#This Row],[Valor]]&amp;"), "&amp;REPT(" ",3 - LEN(Tabla13[[#This Row],[adoptado]])) &amp; Tabla13[[#This Row],[adoptado]]&amp;" }"&amp;IF(Tabla13[[#This Row],[Valor]]&lt;MAX(Tabla13[Valor]),",",))</f>
+        <v xml:space="preserve">  { OV( 993),  15 },</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>999</v>
       </c>
       <c r="B78">
         <v>10</v>
       </c>
-      <c r="C78">
+      <c r="D78">
+        <f>-60*LN(Tabla13[[#This Row],[Valor]])+462.8</f>
+        <v>48.394713281086752</v>
+      </c>
+      <c r="E78">
+        <f>600.56*Tabla13[[#This Row],[Valor]]^(-0.247)</f>
+        <v>109.05955650193779</v>
+      </c>
+      <c r="F78">
+        <f>IF(Tabla13[[#This Row],[TermK]]&lt;&gt;"",Tabla13[[#This Row],[TermK]],IF(AND(Tabla13[[#This Row],[original marlin]]&lt;&gt;"",Tabla13[[#This Row],[original marlin]]&lt;110),Tabla13[[#This Row],[original marlin]],ROUND(Tabla13[[#This Row],[TermK Pot]],)))</f>
         <v>10</v>
       </c>
-      <c r="D78">
-        <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
-        <v>69.180388801548247</v>
-      </c>
-      <c r="F78">
-        <f>-53.47*LN(Tabla13[[#This Row],[Valor]])+442.58</f>
-        <v>73.275821985661821</v>
-      </c>
-      <c r="G78">
-        <v>10</v>
-      </c>
-      <c r="H78" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[termocupla Ian]]," },")</f>
-        <v>{ OV(  999), 10 },</v>
-      </c>
-      <c r="I78" t="str">
-        <f>IF(Tabla13[[#This Row],[adoptado]]="","",CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[adoptado]]," },"))</f>
-        <v>{ OV(  999), 10 },</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G78" t="str">
+        <f>IF(Tabla13[[#This Row],[adoptado]]="","","  { OV("&amp;REPT(" ",4 - LEN(Tabla13[[#This Row],[Valor]])) &amp; Tabla13[[#This Row],[Valor]]&amp;"), "&amp;REPT(" ",3 - LEN(Tabla13[[#This Row],[adoptado]])) &amp; Tabla13[[#This Row],[adoptado]]&amp;" }"&amp;IF(Tabla13[[#This Row],[Valor]]&lt;MAX(Tabla13[Valor]),",",))</f>
+        <v xml:space="preserve">  { OV( 999),  10 },</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>1004</v>
       </c>
       <c r="B79">
         <v>5</v>
       </c>
-      <c r="C79">
+      <c r="D79">
+        <f>-60*LN(Tabla13[[#This Row],[Valor]])+462.8</f>
+        <v>48.095161984899562</v>
+      </c>
+      <c r="E79">
+        <f>600.56*Tabla13[[#This Row],[Valor]]^(-0.247)</f>
+        <v>108.92515228804847</v>
+      </c>
+      <c r="F79">
+        <f>IF(Tabla13[[#This Row],[TermK]]&lt;&gt;"",Tabla13[[#This Row],[TermK]],IF(AND(Tabla13[[#This Row],[original marlin]]&lt;&gt;"",Tabla13[[#This Row],[original marlin]]&lt;110),Tabla13[[#This Row],[original marlin]],ROUND(Tabla13[[#This Row],[TermK Pot]],)))</f>
         <v>5</v>
       </c>
-      <c r="D79">
-        <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
-        <v>68.915335829638593</v>
-      </c>
-      <c r="F79">
-        <f>-53.47*LN(Tabla13[[#This Row],[Valor]])+442.58</f>
-        <v>73.008871855542964</v>
-      </c>
-      <c r="G79">
-        <v>5</v>
-      </c>
-      <c r="H79" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[termocupla Ian]]," },")</f>
-        <v>{ OV(  1004), 5 },</v>
-      </c>
-      <c r="I79" t="str">
-        <f>IF(Tabla13[[#This Row],[adoptado]]="","",CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[adoptado]]," },"))</f>
-        <v>{ OV(  1004), 5 },</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G79" t="str">
+        <f>IF(Tabla13[[#This Row],[adoptado]]="","","  { OV("&amp;REPT(" ",4 - LEN(Tabla13[[#This Row],[Valor]])) &amp; Tabla13[[#This Row],[Valor]]&amp;"), "&amp;REPT(" ",3 - LEN(Tabla13[[#This Row],[adoptado]])) &amp; Tabla13[[#This Row],[adoptado]]&amp;" }"&amp;IF(Tabla13[[#This Row],[Valor]]&lt;MAX(Tabla13[Valor]),",",))</f>
+        <v xml:space="preserve">  { OV(1004),   5 },</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>1008</v>
       </c>
       <c r="B80">
         <v>0</v>
       </c>
-      <c r="C80">
+      <c r="D80">
+        <f>-60*LN(Tabla13[[#This Row],[Valor]])+462.8</f>
+        <v>47.856593082121151</v>
+      </c>
+      <c r="E80">
+        <f>600.56*Tabla13[[#This Row],[Valor]]^(-0.247)</f>
+        <v>108.81822846780746</v>
+      </c>
+      <c r="F80">
+        <f>IF(Tabla13[[#This Row],[TermK]]&lt;&gt;"",Tabla13[[#This Row],[TermK]],IF(AND(Tabla13[[#This Row],[original marlin]]&lt;&gt;"",Tabla13[[#This Row],[original marlin]]&lt;110),Tabla13[[#This Row],[original marlin]],ROUND(Tabla13[[#This Row],[TermK Pot]],)))</f>
         <v>0</v>
       </c>
-      <c r="D80">
-        <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
-        <v>68.704242112163513</v>
-      </c>
-      <c r="F80">
-        <f>-53.47*LN(Tabla13[[#This Row],[Valor]])+442.58</f>
-        <v>72.796267201683634</v>
-      </c>
-      <c r="G80">
-        <v>0</v>
-      </c>
-      <c r="H80" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[termocupla Ian]]," },")</f>
-        <v>{ OV(  1008), 0 },</v>
-      </c>
-      <c r="I80" t="str">
-        <f>IF(Tabla13[[#This Row],[adoptado]]="","",CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[adoptado]]," },"))</f>
-        <v>{ OV(  1008), 0 },</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G80" t="str">
+        <f>IF(Tabla13[[#This Row],[adoptado]]="","","  { OV("&amp;REPT(" ",4 - LEN(Tabla13[[#This Row],[Valor]])) &amp; Tabla13[[#This Row],[Valor]]&amp;"), "&amp;REPT(" ",3 - LEN(Tabla13[[#This Row],[adoptado]])) &amp; Tabla13[[#This Row],[adoptado]]&amp;" }"&amp;IF(Tabla13[[#This Row],[Valor]]&lt;MAX(Tabla13[Valor]),",",))</f>
+        <v xml:space="preserve">  { OV(1008),   0 },</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>1012</v>
       </c>
       <c r="B81">
         <v>-5</v>
       </c>
-      <c r="C81">
+      <c r="D81">
+        <f>-60*LN(Tabla13[[#This Row],[Valor]])+462.8</f>
+        <v>47.618969009155364</v>
+      </c>
+      <c r="E81">
+        <f>600.56*Tabla13[[#This Row],[Valor]]^(-0.247)</f>
+        <v>108.71183244604582</v>
+      </c>
+      <c r="F81">
+        <f>IF(Tabla13[[#This Row],[TermK]]&lt;&gt;"",Tabla13[[#This Row],[TermK]],IF(AND(Tabla13[[#This Row],[original marlin]]&lt;&gt;"",Tabla13[[#This Row],[original marlin]]&lt;110),Tabla13[[#This Row],[original marlin]],ROUND(Tabla13[[#This Row],[TermK Pot]],)))</f>
         <v>-5</v>
       </c>
-      <c r="D81">
-        <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
-        <v>68.493984411600934</v>
-      </c>
-      <c r="F81">
-        <f>-53.47*LN(Tabla13[[#This Row],[Valor]])+442.58</f>
-        <v>72.584504548658913</v>
-      </c>
-      <c r="G81">
-        <v>-5</v>
-      </c>
-      <c r="H81" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[termocupla Ian]]," },")</f>
-        <v>{ OV(  1012), -5 },</v>
-      </c>
-      <c r="I81" t="str">
-        <f>IF(Tabla13[[#This Row],[adoptado]]="","",CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[adoptado]]," },"))</f>
-        <v>{ OV(  1012), -5 },</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G81" t="str">
+        <f>IF(Tabla13[[#This Row],[adoptado]]="","","  { OV("&amp;REPT(" ",4 - LEN(Tabla13[[#This Row],[Valor]])) &amp; Tabla13[[#This Row],[Valor]]&amp;"), "&amp;REPT(" ",3 - LEN(Tabla13[[#This Row],[adoptado]])) &amp; Tabla13[[#This Row],[adoptado]]&amp;" }"&amp;IF(Tabla13[[#This Row],[Valor]]&lt;MAX(Tabla13[Valor]),",",))</f>
+        <v xml:space="preserve">  { OV(1012),  -5 },</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>1016</v>
       </c>
       <c r="B82">
         <v>-10</v>
       </c>
-      <c r="C82">
+      <c r="D82">
+        <f>-60*LN(Tabla13[[#This Row],[Valor]])+462.8</f>
+        <v>47.382282311694382</v>
+      </c>
+      <c r="E82">
+        <f>600.56*Tabla13[[#This Row],[Valor]]^(-0.247)</f>
+        <v>108.60595954667104</v>
+      </c>
+      <c r="F82">
+        <f>IF(Tabla13[[#This Row],[TermK]]&lt;&gt;"",Tabla13[[#This Row],[TermK]],IF(AND(Tabla13[[#This Row],[original marlin]]&lt;&gt;"",Tabla13[[#This Row],[original marlin]]&lt;110),Tabla13[[#This Row],[original marlin]],ROUND(Tabla13[[#This Row],[TermK Pot]],)))</f>
         <v>-10</v>
       </c>
-      <c r="D82">
-        <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
-        <v>68.284556132130888</v>
-      </c>
-      <c r="F82">
-        <f>-53.47*LN(Tabla13[[#This Row],[Valor]])+442.58</f>
-        <v>72.37357725343827</v>
-      </c>
-      <c r="G82">
-        <v>-10</v>
-      </c>
-      <c r="H82" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[termocupla Ian]]," },")</f>
-        <v>{ OV(  1016), -10 },</v>
-      </c>
-      <c r="I82" t="str">
-        <f>IF(Tabla13[[#This Row],[adoptado]]="","",CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[adoptado]]," },"))</f>
-        <v>{ OV(  1016), -10 },</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G82" t="str">
+        <f>IF(Tabla13[[#This Row],[adoptado]]="","","  { OV("&amp;REPT(" ",4 - LEN(Tabla13[[#This Row],[Valor]])) &amp; Tabla13[[#This Row],[Valor]]&amp;"), "&amp;REPT(" ",3 - LEN(Tabla13[[#This Row],[adoptado]])) &amp; Tabla13[[#This Row],[adoptado]]&amp;" }"&amp;IF(Tabla13[[#This Row],[Valor]]&lt;MAX(Tabla13[Valor]),",",))</f>
+        <v xml:space="preserve">  { OV(1016), -10 },</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>1020</v>
       </c>
       <c r="B83">
         <v>-15</v>
       </c>
-      <c r="C83">
+      <c r="D83">
+        <f>-60*LN(Tabla13[[#This Row],[Valor]])+462.8</f>
+        <v>47.146525623300988</v>
+      </c>
+      <c r="E83">
+        <f>600.56*Tabla13[[#This Row],[Valor]]^(-0.247)</f>
+        <v>108.5006051532211</v>
+      </c>
+      <c r="F83">
+        <f>IF(Tabla13[[#This Row],[TermK]]&lt;&gt;"",Tabla13[[#This Row],[TermK]],IF(AND(Tabla13[[#This Row],[original marlin]]&lt;&gt;"",Tabla13[[#This Row],[original marlin]]&lt;110),Tabla13[[#This Row],[original marlin]],ROUND(Tabla13[[#This Row],[TermK Pot]],)))</f>
         <v>-15</v>
       </c>
-      <c r="D83">
-        <f>-53.09*LN(Tabla13[[#This Row],[Valor]])+435.86</f>
-        <v>68.075950755684175</v>
-      </c>
-      <c r="F83">
-        <f>-53.47*LN(Tabla13[[#This Row],[Valor]])+442.58</f>
-        <v>72.163478751298385</v>
-      </c>
-      <c r="G83">
-        <v>-15</v>
-      </c>
-      <c r="H83" t="str">
-        <f>CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[termocupla Ian]]," },")</f>
-        <v>{ OV(  1020), -15 },</v>
-      </c>
-      <c r="I83" t="str">
-        <f>IF(Tabla13[[#This Row],[adoptado]]="","",CONCATENATE("{ OV(  ",Tabla13[[#This Row],[Valor]],"), ",Tabla13[[#This Row],[adoptado]]," },"))</f>
-        <v>{ OV(  1020), -15 },</v>
+      <c r="G83" t="str">
+        <f>IF(Tabla13[[#This Row],[adoptado]]="","","  { OV("&amp;REPT(" ",4 - LEN(Tabla13[[#This Row],[Valor]])) &amp; Tabla13[[#This Row],[Valor]]&amp;"), "&amp;REPT(" ",3 - LEN(Tabla13[[#This Row],[adoptado]])) &amp; Tabla13[[#This Row],[adoptado]]&amp;" }"&amp;IF(Tabla13[[#This Row],[Valor]]&lt;MAX(Tabla13[Valor]),",",))</f>
+        <v xml:space="preserve">  { OV(1020), -15 }</v>
       </c>
     </row>
   </sheetData>
